--- a/Project/EBA/EBA制作用資料サンプル.xlsx
+++ b/Project/EBA/EBA制作用資料サンプル.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nishimura.BEE-TRIBE\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RandD\Validation\Project\EBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9272AA92-53CE-4A85-8828-033679F72A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13950" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="予算" sheetId="5" r:id="rId1"/>
     <sheet name="マイルストーン" sheetId="1" r:id="rId2"/>
     <sheet name="組織図" sheetId="4" r:id="rId3"/>
     <sheet name="人月表" sheetId="3" r:id="rId4"/>
+    <sheet name="物量試算" sheetId="8" r:id="rId5"/>
+    <sheet name="予算概算" sheetId="9" r:id="rId6"/>
+    <sheet name="Art工数試算表" sheetId="6" r:id="rId7"/>
+    <sheet name="Plan工数試算表" sheetId="11" r:id="rId8"/>
+    <sheet name="Model工数試算表" sheetId="13" r:id="rId9"/>
+    <sheet name="Environmentl工数試算表" sheetId="14" r:id="rId10"/>
+    <sheet name="Motion工数試算表" sheetId="15" r:id="rId11"/>
+    <sheet name="Effect工数試算表" sheetId="16" r:id="rId12"/>
+    <sheet name="UI工数試算表" sheetId="7" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="341">
   <si>
     <t>MS01</t>
     <phoneticPr fontId="1"/>
@@ -399,10 +409,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>オーバーウォッチ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PC240FPS/Switch60FPS</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -810,6 +816,1928 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>ヒトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルック決め用デザイン業務</t>
+    <rPh sb="3" eb="4">
+      <t>ギ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ギョウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターデザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンセプトデザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムデザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギミックデザイン(植物)</t>
+    <rPh sb="9" eb="11">
+      <t>ショクブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギミックデザイン(虫)</t>
+    <rPh sb="9" eb="10">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器デザイン</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衣装デザイン</t>
+    <rPh sb="0" eb="2">
+      <t>イショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UIデザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム起動直後に表示されるタイトル画面</t>
+    <rPh sb="3" eb="5">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョクゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モードセレクト画面</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どのゲームを遊ぶのか選択する画面</t>
+    <rPh sb="6" eb="7">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターエディット画面</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衣装やエモートを選択する画面。
+キャラクターの変更もできるのであればこの画面で行う</t>
+    <rPh sb="0" eb="2">
+      <t>イショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マッチング画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンラインでのマッチング画面。
+もしかすると部屋を設けてUIは不要かもしれません。</t>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプション画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作変更や画質変更、操作の感度などを設定する画面</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガシツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンド</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム中UI画面</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インゲームで勝利、もしくは敗北した際の画面</t>
+    <rPh sb="6" eb="8">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハイボク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロード画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロード中に表示する画面</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント作成画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初めてゲームを開始する際にアカウントを作成する画面</t>
+    <rPh sb="0" eb="1">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショップ画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商材を購入する際の画面</t>
+    <rPh sb="0" eb="2">
+      <t>ショウザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール確認画面</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分のアカウントのプロフィールを確認、編集する画面</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラインキング画面</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキングを確認する画面</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リプレイ画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分のプレイ動画をリプレイで見る画面</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種エラー画面</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通信切れやセーブ失敗などに関するエラー画面</t>
+    <rPh sb="0" eb="2">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績アイコン</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PS4のトロフィー、Steamの実績などのアイコン</t>
+    <rPh sb="16" eb="18">
+      <t>ジッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレーディングカード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Steamのトレーディングカード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個数</t>
+    <rPh sb="0" eb="2">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工数(人日)</t>
+    <rPh sb="0" eb="2">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニンニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力ゲージ</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾ゲージ</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミニマップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器アイコン</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器切り替え</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種アイコン</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残り体力を確認するゲージ</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残段数を確認するゲージ</t>
+    <rPh sb="0" eb="1">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ダンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の周りの地形を確認するマップ画面</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器を切り替える仕組み</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器切り替えに表示される武器アイコン</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キル数、時間表示などのアイコン</t>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー数</t>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器数</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>植物ギミック</t>
+    <rPh sb="0" eb="2">
+      <t>ショクブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虫ギミック</t>
+    <rPh sb="0" eb="1">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衣装</t>
+    <rPh sb="0" eb="2">
+      <t>イショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムアイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム中に表示するアイテムのアイコン</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業概要</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>植物ギミック数</t>
+    <rPh sb="0" eb="2">
+      <t>ショクブツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虫ギミック数</t>
+    <rPh sb="0" eb="1">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衣装数</t>
+    <rPh sb="0" eb="2">
+      <t>イショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤブルキャラクター数</t>
+    <rPh sb="12" eb="13">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用可能な武器の個数</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用可能なアイテムの個数</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インゲームに配置する植物ギミックの個数</t>
+    <rPh sb="6" eb="8">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショクブツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インゲームに配置する虫ギミックの個数</t>
+    <rPh sb="6" eb="8">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商材となる衣装の個数</t>
+    <rPh sb="0" eb="2">
+      <t>ショウザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイ可能なステージの個数</t>
+    <rPh sb="3" eb="5">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー数1個で大丈夫か？</t>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商材となるので個数は要相談</t>
+    <rPh sb="0" eb="2">
+      <t>ショウザイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トロフィーなら40個くらい。
+Steamの実績には100個は必要です。</t>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Steamで発売する場合に必要です。</t>
+    <rPh sb="6" eb="8">
+      <t>ハツバイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計工数(人日)</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニンニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI総物量</t>
+    <rPh sb="2" eb="3">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブツリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総合計工数(人日)</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニンニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総合計工数(人月)</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人月単価(円)</t>
+    <rPh sb="0" eb="2">
+      <t>ニンゲツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計金額(円)</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人日</t>
+    <rPh sb="0" eb="2">
+      <t>ニンニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人月</t>
+    <rPh sb="0" eb="2">
+      <t>ニンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円</t>
+    <rPh sb="0" eb="1">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アート総物量</t>
+    <rPh sb="3" eb="4">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブツリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プランナー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プランナー総物量</t>
+    <rPh sb="5" eb="6">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブツリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー仕様作成</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソロ仕様作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デュオ仕様作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カルテット仕様作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バトルロイヤル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランク仕様作成</t>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンライン大会仕様作成</t>
+    <rPh sb="5" eb="7">
+      <t>タイカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント対戦</t>
+    <rPh sb="4" eb="6">
+      <t>タイセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>団体戦ルール仕様作成</t>
+    <rPh sb="0" eb="3">
+      <t>ダンタイセン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>団体戦モード資料作成</t>
+    <rPh sb="0" eb="3">
+      <t>ダンタイセン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイド仕様作成</t>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>植物ギミック仕様作成</t>
+    <rPh sb="0" eb="2">
+      <t>ショクブツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虫ギミック仕様作成</t>
+    <rPh sb="0" eb="1">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器仕様作成</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衣装仕様作成</t>
+    <rPh sb="0" eb="2">
+      <t>イショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガーデニング仕様作成</t>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロードキャスト仕様作成</t>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクワッド対戦仕様作成</t>
+    <rPh sb="5" eb="7">
+      <t>タイセン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム全体フロー作成</t>
+    <rPh sb="3" eb="5">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ仕様作成</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージレベルデザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ配置調整</t>
+    <rPh sb="4" eb="6">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリア収縮仕様作成</t>
+    <rPh sb="3" eb="5">
+      <t>シュウシュク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリア収縮演出</t>
+    <rPh sb="3" eb="5">
+      <t>シュウシュク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーションリスト作成</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー調整</t>
+    <rPh sb="5" eb="7">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器パラメータデータ管理仕様作成</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木・枝</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木・枝ツール要件仕様作成</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エダ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木・枝レベルデザイン</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木のパターン数</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大3・中5・小10パターン</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガーデニング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガーデニング仕様調整</t>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ仕様作成</t>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラパラメータ管理仕様作成</t>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ調整</t>
+    <rPh sb="3" eb="5">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム仕様作成</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムパラメータデータ管理仕様作成</t>
+    <rPh sb="12" eb="14">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器調整</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム調整</t>
+    <rPh sb="4" eb="6">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面仕様作成</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モードセレクト画面仕様作成</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターエディット画面仕様作成</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マッチング画面仕様作成</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプション画面仕様作成</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム中UI画面仕様作成</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面仕様作成</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロード画面仕様作成</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント作成画面仕様作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショップ画面仕様作成</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール確認画面仕様作成</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラインキング画面仕様作成</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リプレイ画面仕様作成</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種エラー画面仕様作成</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績アイコン仕様作成</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレーディングカード仕様作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムアイコン仕様作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マッチング仕様作成</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デュオマッチング仕様作成</t>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソロマッチング仕様作成</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カルテットマッチング仕様作成</t>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クワッドマッチング仕様作成</t>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー変更パラメータ仕様作成</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エモート仕様作成</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アートディレクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UIセクションのチームリード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プランニングリード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UIリード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PLANセクションのチームリード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力ゲージ仕様作成</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾ゲージ仕様作成</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミニマップ仕様作成</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器切り替え仕様作成</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種アイコン仕様作成</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーアカウント管理仕様作成</t>
+    <rPh sb="9" eb="11">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト管理費</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトマネージャー＋ディレクター：36カ月(3年)×85万円×2</t>
+    <rPh sb="23" eb="24">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>島崎麻里</t>
+    <rPh sb="0" eb="2">
+      <t>シマザキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベヨネッタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンバイロメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BeeTribe 西村仁志</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BeeTribe高橋龍太</t>
+    <rPh sb="8" eb="10">
+      <t>タカハシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>リュウタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI画面項目</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業項目</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作仕様(コントローラ、キーボード、マウス)も含む</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイド戦</t>
+    <rPh sb="3" eb="4">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイド戦の個数</t>
+    <rPh sb="3" eb="4">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイド戦ボスデザイン</t>
+    <rPh sb="3" eb="4">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運営スケジュール作成</t>
+    <rPh sb="0" eb="2">
+      <t>ウンエイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運営仕様作成</t>
+    <rPh sb="0" eb="2">
+      <t>ウンエイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MODELリード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MODELセクションのチームリード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイドボス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENVIRONMENTリード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENVIRONMENTセクションのチームリード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOTIONリード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOTIONセクションのチームリード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EFFECTリード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EFFECTセクションのチームリード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Motion総物量</t>
+    <rPh sb="6" eb="7">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブツリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -817,8 +2745,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="#,##0_ "/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,8 +2827,42 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -964,8 +2929,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="48">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1566,13 +3549,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1861,12 +3920,57 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1879,54 +3983,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1939,16 +4010,115 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="52" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="14" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4514,14 +6684,6 @@
             </a:rPr>
             <a:t>組織図に合わせて、その人員がいつからいつまで業務するかの人月工数を表します</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
@@ -5073,7 +7235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5097,35 +7259,35 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" s="78" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="87"/>
       <c r="C4" s="80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="F4" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="H4" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="80" t="s">
-        <v>128</v>
-      </c>
       <c r="I4" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" s="81" t="s">
         <v>130</v>
-      </c>
-      <c r="J4" s="81" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
@@ -5195,7 +7357,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="92"/>
       <c r="D10" s="92"/>
@@ -5208,7 +7370,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="76"/>
       <c r="D11" s="76"/>
@@ -5221,7 +7383,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="92"/>
       <c r="D12" s="92"/>
@@ -5234,7 +7396,7 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="88" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="92"/>
       <c r="D13" s="92"/>
@@ -5247,7 +7409,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="88" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="76"/>
       <c r="D14" s="76"/>
@@ -5260,7 +7422,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="92"/>
       <c r="D15" s="92"/>
@@ -5273,7 +7435,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="92"/>
       <c r="D16" s="92"/>
@@ -5286,7 +7448,7 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="88" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="76"/>
       <c r="D17" s="76"/>
@@ -5299,7 +7461,7 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="88" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="92"/>
       <c r="D18" s="92"/>
@@ -5312,7 +7474,7 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="92"/>
       <c r="D19" s="92"/>
@@ -5325,7 +7487,7 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="88" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="76"/>
       <c r="D20" s="76"/>
@@ -5338,7 +7500,7 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="88" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="92"/>
       <c r="D21" s="92"/>
@@ -5351,7 +7513,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" s="92"/>
       <c r="D22" s="92"/>
@@ -5364,7 +7526,7 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="76"/>
       <c r="D23" s="76"/>
@@ -5377,7 +7539,7 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="92"/>
       <c r="D24" s="92"/>
@@ -5390,7 +7552,7 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="88" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="92"/>
       <c r="D25" s="92"/>
@@ -5403,7 +7565,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="76"/>
       <c r="D26" s="76"/>
@@ -5416,7 +7578,7 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="92"/>
       <c r="D27" s="92"/>
@@ -5429,7 +7591,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="92"/>
       <c r="D28" s="92"/>
@@ -5442,7 +7604,7 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="76"/>
       <c r="D29" s="76"/>
@@ -5455,7 +7617,7 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="92"/>
       <c r="D30" s="92"/>
@@ -5468,7 +7630,7 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" s="92"/>
       <c r="D31" s="92"/>
@@ -5481,7 +7643,7 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="76"/>
       <c r="D32" s="76"/>
@@ -5494,7 +7656,7 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B33" s="88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" s="92"/>
       <c r="D33" s="92"/>
@@ -5507,7 +7669,7 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B34" s="88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="92"/>
       <c r="D34" s="92"/>
@@ -5520,7 +7682,7 @@
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B35" s="88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="76"/>
@@ -5533,7 +7695,7 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B36" s="88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" s="92"/>
       <c r="D36" s="92"/>
@@ -5546,7 +7708,7 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B37" s="88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="92"/>
       <c r="D37" s="92"/>
@@ -5559,7 +7721,7 @@
     </row>
     <row r="38" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B38" s="89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="82"/>
       <c r="D38" s="82"/>
@@ -5572,7 +7734,7 @@
     </row>
     <row r="39" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" s="90" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C39" s="85">
         <f>SUM(C3:C38)</f>
@@ -5614,15 +7776,1239 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D03C11C-D420-4E83-8D3C-9B553DB71F6E}">
+  <dimension ref="C1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="50.75" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E2" s="141" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="139">
+        <f>SUM(F9:F88)</f>
+        <v>4</v>
+      </c>
+      <c r="G2" s="136" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E3" s="142" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="134">
+        <f>SUM(H9:H88)</f>
+        <v>1800</v>
+      </c>
+      <c r="G3" s="137" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E4" s="142" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="134">
+        <f>F3/20</f>
+        <v>90</v>
+      </c>
+      <c r="G4" s="137" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E5" s="142" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="135">
+        <v>850000</v>
+      </c>
+      <c r="G5" s="137" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E6" s="143" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="140">
+        <f>F4*F5</f>
+        <v>76500000</v>
+      </c>
+      <c r="G6" s="138" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C8" s="132" t="s">
+        <v>323</v>
+      </c>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="133" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="133" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="133" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="131"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C9" s="129" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" s="129"/>
+      <c r="E9" t="s">
+        <v>334</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>720</v>
+      </c>
+      <c r="H9">
+        <f>F9*G9</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C10" s="129" t="s">
+        <v>335</v>
+      </c>
+      <c r="D10" s="129"/>
+      <c r="F10">
+        <f>物量試算!G13</f>
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>360</v>
+      </c>
+      <c r="H10">
+        <f>F10*G10</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="128"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="128"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944E240F-6483-4F29-852D-396A21B70BDF}">
+  <dimension ref="C1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="50.75" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E2" s="141" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" s="139">
+        <f>SUM(F9:F88)</f>
+        <v>2321</v>
+      </c>
+      <c r="G2" s="136" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E3" s="142" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="134">
+        <f>SUM(H9:H88)</f>
+        <v>12720</v>
+      </c>
+      <c r="G3" s="137" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E4" s="142" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="134">
+        <f>F3/20</f>
+        <v>636</v>
+      </c>
+      <c r="G4" s="137" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E5" s="142" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="135">
+        <v>850000</v>
+      </c>
+      <c r="G5" s="137" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E6" s="143" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="140">
+        <f>F4*F5</f>
+        <v>540600000</v>
+      </c>
+      <c r="G6" s="138" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C8" s="132" t="s">
+        <v>323</v>
+      </c>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="133" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="133" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="133" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="131"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C9" s="129" t="s">
+        <v>336</v>
+      </c>
+      <c r="D9" s="129"/>
+      <c r="E9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>720</v>
+      </c>
+      <c r="H9">
+        <f>F9*G9</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C10" s="129" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="129"/>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <f>F10*G10</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C11" s="129" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="129"/>
+      <c r="F11">
+        <f>物量試算!G8</f>
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <f>F11*G11</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C12" s="129" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="129"/>
+      <c r="E12" s="128"/>
+      <c r="F12">
+        <f>物量試算!G9</f>
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <f>F12*G12</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C13" s="129" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="129"/>
+      <c r="E13" s="128"/>
+      <c r="F13">
+        <f>物量試算!G10</f>
+        <v>40</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <f>F13*G13</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C14" s="129" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="129"/>
+      <c r="F14">
+        <f>物量試算!G11</f>
+        <v>40</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <f>F14*G14</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C15" s="129" t="s">
+        <v>332</v>
+      </c>
+      <c r="D15" s="129"/>
+      <c r="F15">
+        <f>物量試算!G16*100</f>
+        <v>1200</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <f>F15*G15</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C25833-1334-403B-BD14-E0E2032C1BEB}">
+  <dimension ref="C1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="50.75" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E2" s="141" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="139">
+        <f>SUM(F9:F88)</f>
+        <v>2321</v>
+      </c>
+      <c r="G2" s="136" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E3" s="142" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="134">
+        <f>SUM(H9:H88)</f>
+        <v>7620</v>
+      </c>
+      <c r="G3" s="137" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E4" s="142" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="134">
+        <f>F3/20</f>
+        <v>381</v>
+      </c>
+      <c r="G4" s="137" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E5" s="142" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="135">
+        <v>850000</v>
+      </c>
+      <c r="G5" s="137" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E6" s="143" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="140">
+        <f>F4*F5</f>
+        <v>323850000</v>
+      </c>
+      <c r="G6" s="138" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C8" s="132" t="s">
+        <v>323</v>
+      </c>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="133" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="133" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="133" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="131"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C9" s="129" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" s="129"/>
+      <c r="E9" t="s">
+        <v>339</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>720</v>
+      </c>
+      <c r="H9">
+        <f>F9*G9</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C10" s="129" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="129"/>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <f>F10*G10</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C11" s="129" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="129"/>
+      <c r="F11">
+        <f>物量試算!G8</f>
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <f>F11*G11</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C12" s="129" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="129"/>
+      <c r="E12" s="128"/>
+      <c r="F12">
+        <f>物量試算!G9</f>
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <f>F12*G12</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C13" s="129" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="129"/>
+      <c r="E13" s="128"/>
+      <c r="F13">
+        <f>物量試算!G10</f>
+        <v>40</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f>F13*G13</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C14" s="129" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="129"/>
+      <c r="F14">
+        <f>物量試算!G11</f>
+        <v>40</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f>F14*G14</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C15" s="129" t="s">
+        <v>332</v>
+      </c>
+      <c r="D15" s="129"/>
+      <c r="F15">
+        <f>物量試算!G16*100</f>
+        <v>1200</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <f>F15*G15</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AF688B-00AF-44A9-8695-A28B9E4133F2}">
+  <dimension ref="C1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="50.75" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E2" s="141" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="139">
+        <f>SUM(F9:F103)</f>
+        <v>201</v>
+      </c>
+      <c r="G2" s="136" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E3" s="142" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="134">
+        <f>SUM(H9:H103)</f>
+        <v>1550</v>
+      </c>
+      <c r="G3" s="137" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E4" s="142" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="134">
+        <f>F3/20</f>
+        <v>77.5</v>
+      </c>
+      <c r="G4" s="137" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E5" s="142" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="135">
+        <v>850000</v>
+      </c>
+      <c r="G5" s="137" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E6" s="143" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="140">
+        <f>F4*F5</f>
+        <v>65875000</v>
+      </c>
+      <c r="G6" s="138" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C8" s="132" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="133" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="133" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="133" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="131"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C9" s="129" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" s="129"/>
+      <c r="E9" t="s">
+        <v>302</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>720</v>
+      </c>
+      <c r="H9">
+        <f>F9*G9</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C10" s="129" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="129"/>
+      <c r="E10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <f>F10*G10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C11" s="129" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="129"/>
+      <c r="E11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:H31" si="0">F11*G11</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C12" s="129" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="129"/>
+      <c r="E12" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="C13" s="129" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="129"/>
+      <c r="E13" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C14" s="129" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="129"/>
+      <c r="E14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C15" s="129" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C16" s="129"/>
+      <c r="D16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C17" s="129"/>
+      <c r="D17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>40</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C18" s="129"/>
+      <c r="D18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C19" s="129"/>
+      <c r="D19" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19">
+        <f>物量試算!G8</f>
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C20" s="129"/>
+      <c r="D20" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C21" s="129" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="129"/>
+      <c r="E21" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C22" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="129"/>
+      <c r="E22" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C23" s="129" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="129"/>
+      <c r="E23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>30</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C24" s="129" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="129"/>
+      <c r="E24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>40</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C25" s="129" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="129"/>
+      <c r="E25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C26" s="129" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="129"/>
+      <c r="E26" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>30</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C27" s="129" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="129"/>
+      <c r="E27" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>20</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C28" s="129" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="129"/>
+      <c r="E28" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28">
+        <v>20</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C29" s="129" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="129"/>
+      <c r="E29" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29">
+        <f>物量試算!G14</f>
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C30" s="129" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="129"/>
+      <c r="E30" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30">
+        <f>物量試算!G15</f>
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C31" s="129" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" s="129"/>
+      <c r="E31" t="s">
+        <v>196</v>
+      </c>
+      <c r="F31">
+        <f>物量試算!G9</f>
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AM43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -5646,11 +9032,11 @@
     <row r="4" spans="2:6" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="105"/>
-      <c r="F4" s="106"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
     </row>
     <row r="5" spans="2:6" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="21"/>
@@ -5666,25 +9052,25 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="110"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="18"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="112"/>
+      <c r="C7" s="107"/>
       <c r="D7" s="18"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="113"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="16" t="s">
         <v>37</v>
       </c>
@@ -5693,7 +9079,7 @@
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="113"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="16" t="s">
         <v>34</v>
       </c>
@@ -5702,7 +9088,7 @@
       <c r="F9" s="75"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="113"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="16" t="s">
         <v>36</v>
       </c>
@@ -5711,72 +9097,72 @@
       <c r="F10" s="75"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="113"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="113"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="115"/>
+      <c r="C13" s="110"/>
       <c r="D13" s="18"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="113"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="113"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="113"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B17" s="113"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="2:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="116"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="14"/>
@@ -5801,91 +9187,91 @@
         <v>3</v>
       </c>
       <c r="K19" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="45" t="s">
+      <c r="M19" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="M19" s="45" t="s">
+      <c r="N19" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="N19" s="45" t="s">
+      <c r="O19" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="O19" s="45" t="s">
+      <c r="P19" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="P19" s="45" t="s">
+      <c r="Q19" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="Q19" s="45" t="s">
+      <c r="R19" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="R19" s="45" t="s">
+      <c r="S19" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="S19" s="45" t="s">
+      <c r="T19" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="T19" s="45" t="s">
+      <c r="U19" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="U19" s="45" t="s">
+      <c r="V19" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="V19" s="45" t="s">
+      <c r="W19" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="W19" s="45" t="s">
+      <c r="X19" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="X19" s="45" t="s">
+      <c r="Y19" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="Y19" s="45" t="s">
+      <c r="Z19" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="Z19" s="45" t="s">
+      <c r="AA19" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="AA19" s="45" t="s">
+      <c r="AB19" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="AB19" s="45" t="s">
+      <c r="AC19" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="AC19" s="45" t="s">
+      <c r="AD19" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="AD19" s="45" t="s">
+      <c r="AE19" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="AE19" s="45" t="s">
+      <c r="AF19" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="AF19" s="45" t="s">
+      <c r="AG19" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="AG19" s="45" t="s">
+      <c r="AH19" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="AH19" s="45" t="s">
+      <c r="AI19" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="AI19" s="45" t="s">
+      <c r="AJ19" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="AJ19" s="45" t="s">
+      <c r="AK19" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="AK19" s="45" t="s">
+      <c r="AL19" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="AL19" s="45" t="s">
+      <c r="AM19" s="46" t="s">
         <v>91</v>
-      </c>
-      <c r="AM19" s="46" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="20" spans="2:39" x14ac:dyDescent="0.4">
@@ -5922,267 +9308,258 @@
         <v>15</v>
       </c>
       <c r="P20" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q20" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="Q20" s="43" t="s">
+      <c r="R20" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="R20" s="43" t="s">
+      <c r="S20" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="S20" s="43" t="s">
+      <c r="T20" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="T20" s="43" t="s">
+      <c r="U20" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="U20" s="43" t="s">
+      <c r="V20" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="V20" s="43" t="s">
+      <c r="W20" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="W20" s="43" t="s">
+      <c r="X20" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="X20" s="43" t="s">
+      <c r="Y20" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="Y20" s="43" t="s">
+      <c r="Z20" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="Z20" s="43" t="s">
+      <c r="AA20" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="AA20" s="43" t="s">
+      <c r="AB20" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="AB20" s="43" t="s">
+      <c r="AC20" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="AC20" s="43" t="s">
+      <c r="AD20" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" s="43" t="s">
+      <c r="AE20" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="AE20" s="43" t="s">
+      <c r="AF20" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="AF20" s="43" t="s">
+      <c r="AG20" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="AG20" s="43" t="s">
+      <c r="AH20" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="AH20" s="43" t="s">
+      <c r="AI20" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="AI20" s="43" t="s">
+      <c r="AJ20" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="AJ20" s="43" t="s">
+      <c r="AK20" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="AK20" s="43" t="s">
+      <c r="AL20" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="AL20" s="43" t="s">
-        <v>115</v>
-      </c>
       <c r="AM20" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="2:39" ht="98.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="102" t="s">
+      <c r="E21" s="99"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="100" t="s">
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="101"/>
-      <c r="S21" s="102" t="s">
+      <c r="N21" s="116"/>
+      <c r="O21" s="116"/>
+      <c r="P21" s="116"/>
+      <c r="Q21" s="116"/>
+      <c r="R21" s="116"/>
+      <c r="S21" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="T21" s="103"/>
-      <c r="U21" s="103"/>
-      <c r="V21" s="103"/>
-      <c r="W21" s="103"/>
-      <c r="X21" s="103"/>
-      <c r="Y21" s="103"/>
-      <c r="Z21" s="103"/>
-      <c r="AA21" s="103"/>
-      <c r="AB21" s="103"/>
-      <c r="AC21" s="103"/>
-      <c r="AD21" s="103"/>
-      <c r="AE21" s="100" t="s">
+      <c r="T21" s="102"/>
+      <c r="U21" s="102"/>
+      <c r="V21" s="102"/>
+      <c r="W21" s="102"/>
+      <c r="X21" s="102"/>
+      <c r="Y21" s="102"/>
+      <c r="Z21" s="102"/>
+      <c r="AA21" s="102"/>
+      <c r="AB21" s="102"/>
+      <c r="AC21" s="102"/>
+      <c r="AD21" s="102"/>
+      <c r="AE21" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="AF21" s="101"/>
-      <c r="AG21" s="101"/>
-      <c r="AH21" s="101"/>
-      <c r="AI21" s="101"/>
-      <c r="AJ21" s="101"/>
+      <c r="AF21" s="116"/>
+      <c r="AG21" s="116"/>
+      <c r="AH21" s="116"/>
+      <c r="AI21" s="116"/>
+      <c r="AJ21" s="116"/>
       <c r="AK21" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="AL21" s="98" t="s">
+      <c r="AL21" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="AM21" s="99"/>
+      <c r="AM21" s="114"/>
     </row>
     <row r="22" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E22" s="96" t="s">
+      <c r="E22" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="96"/>
+      <c r="F22" s="112"/>
     </row>
     <row r="23" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E23" s="97"/>
+      <c r="E23" s="105"/>
       <c r="F23" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E24" s="97"/>
+      <c r="E24" s="105"/>
       <c r="F24" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E25" s="97"/>
+      <c r="E25" s="105"/>
       <c r="F25" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E26" s="97"/>
+      <c r="E26" s="105"/>
       <c r="F26" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E27" s="97"/>
+      <c r="E27" s="105"/>
       <c r="F27" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E28" s="96" t="s">
+      <c r="E28" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="96"/>
+      <c r="F28" s="112"/>
     </row>
     <row r="29" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E29" s="97"/>
+      <c r="E29" s="105"/>
       <c r="F29" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E30" s="97"/>
+      <c r="E30" s="105"/>
       <c r="F30" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E31" s="97"/>
+      <c r="E31" s="105"/>
       <c r="F31" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E32" s="97"/>
+      <c r="E32" s="105"/>
       <c r="F32" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E33" s="96" t="s">
+      <c r="E33" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="96"/>
+      <c r="F33" s="112"/>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E34" s="97"/>
+      <c r="E34" s="105"/>
       <c r="F34" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E35" s="97"/>
+      <c r="E35" s="105"/>
       <c r="F35" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E36" s="97"/>
+      <c r="E36" s="105"/>
       <c r="F36" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E37" s="97"/>
+      <c r="E37" s="105"/>
       <c r="F37" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E38" s="97"/>
+      <c r="E38" s="105"/>
       <c r="F38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E40" s="96" t="s">
+      <c r="E40" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="F40" s="96"/>
+      <c r="F40" s="112"/>
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E41" s="96" t="s">
+      <c r="E41" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="96"/>
+      <c r="F41" s="112"/>
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E42" s="96" t="s">
+      <c r="E42" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="96"/>
+      <c r="F42" s="112"/>
     </row>
     <row r="43" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E43" s="96" t="s">
+      <c r="E43" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="96"/>
+      <c r="F43" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B18"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:E27"/>
@@ -6196,6 +9573,15 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E40:F40"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6205,11 +9591,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -6228,7 +9614,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C2" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -6284,7 +9670,7 @@
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
       <c r="H8" s="29" t="s">
-        <v>50</v>
+        <v>317</v>
       </c>
       <c r="I8" s="36"/>
     </row>
@@ -6294,7 +9680,7 @@
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
       <c r="F9" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
@@ -6306,7 +9692,7 @@
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
       <c r="F10" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
@@ -6334,14 +9720,14 @@
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
       <c r="H12" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" s="36"/>
     </row>
     <row r="13" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="34"/>
       <c r="C13" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="41"/>
       <c r="E13" s="35"/>
@@ -6355,7 +9741,7 @@
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="34"/>
       <c r="C14" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="41"/>
       <c r="E14" s="35"/>
@@ -6367,7 +9753,7 @@
     <row r="15" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="34"/>
       <c r="C15" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D15" s="41"/>
       <c r="E15" s="35"/>
@@ -6396,7 +9782,7 @@
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="30" t="s">
-        <v>54</v>
+        <v>315</v>
       </c>
       <c r="I17" s="36"/>
     </row>
@@ -6406,11 +9792,11 @@
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
       <c r="F18" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="29" t="s">
-        <v>50</v>
+        <v>314</v>
       </c>
       <c r="I18" s="36"/>
     </row>
@@ -6420,7 +9806,7 @@
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
       <c r="F19" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
@@ -6432,7 +9818,7 @@
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
       <c r="F20" s="29" t="s">
-        <v>50</v>
+        <v>318</v>
       </c>
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
@@ -6446,7 +9832,7 @@
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
       <c r="H21" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I21" s="36"/>
     </row>
@@ -6458,7 +9844,7 @@
       <c r="F22" s="35"/>
       <c r="G22" s="35"/>
       <c r="H22" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I22" s="36"/>
     </row>
@@ -6503,7 +9889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:AM54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6520,18 +9906,18 @@
   <sheetData>
     <row r="2" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B4" s="57"/>
       <c r="C4" s="60"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="123"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
       <c r="G4" s="45" t="s">
         <v>0</v>
       </c>
@@ -6545,97 +9931,97 @@
         <v>3</v>
       </c>
       <c r="K4" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="45" t="s">
+      <c r="M4" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="N4" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="N4" s="45" t="s">
+      <c r="O4" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="45" t="s">
+      <c r="P4" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="P4" s="45" t="s">
+      <c r="Q4" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="Q4" s="45" t="s">
+      <c r="R4" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="R4" s="45" t="s">
+      <c r="S4" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="S4" s="45" t="s">
+      <c r="T4" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="T4" s="45" t="s">
+      <c r="U4" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="U4" s="45" t="s">
+      <c r="V4" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="V4" s="45" t="s">
+      <c r="W4" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="W4" s="45" t="s">
+      <c r="X4" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="45" t="s">
+      <c r="Y4" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="Y4" s="45" t="s">
+      <c r="Z4" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="Z4" s="45" t="s">
+      <c r="AA4" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="AA4" s="45" t="s">
+      <c r="AB4" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="AB4" s="45" t="s">
+      <c r="AC4" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="AC4" s="45" t="s">
+      <c r="AD4" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="AD4" s="45" t="s">
+      <c r="AE4" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="AE4" s="45" t="s">
+      <c r="AF4" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="AF4" s="45" t="s">
+      <c r="AG4" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="AG4" s="45" t="s">
+      <c r="AH4" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="AH4" s="45" t="s">
+      <c r="AI4" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="AI4" s="45" t="s">
+      <c r="AJ4" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="AJ4" s="45" t="s">
+      <c r="AK4" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="AK4" s="45" t="s">
+      <c r="AL4" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="AL4" s="45" t="s">
+      <c r="AM4" s="46" t="s">
         <v>91</v>
-      </c>
-      <c r="AM4" s="46" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="58"/>
       <c r="C5" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="55" t="s">
         <v>4</v>
@@ -6674,81 +10060,81 @@
         <v>15</v>
       </c>
       <c r="P5" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="Q5" s="43" t="s">
+      <c r="R5" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="R5" s="43" t="s">
+      <c r="S5" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="S5" s="43" t="s">
+      <c r="T5" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="T5" s="43" t="s">
+      <c r="U5" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="U5" s="43" t="s">
+      <c r="V5" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="V5" s="43" t="s">
+      <c r="W5" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="W5" s="43" t="s">
+      <c r="X5" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="X5" s="43" t="s">
+      <c r="Y5" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="Y5" s="43" t="s">
+      <c r="Z5" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="Z5" s="43" t="s">
+      <c r="AA5" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="AA5" s="43" t="s">
+      <c r="AB5" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="AB5" s="43" t="s">
+      <c r="AC5" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="AC5" s="43" t="s">
+      <c r="AD5" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="AD5" s="43" t="s">
+      <c r="AE5" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="AE5" s="43" t="s">
+      <c r="AF5" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="AF5" s="43" t="s">
+      <c r="AG5" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="AG5" s="43" t="s">
+      <c r="AH5" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="AH5" s="43" t="s">
+      <c r="AI5" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="AI5" s="43" t="s">
+      <c r="AJ5" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="AJ5" s="43" t="s">
+      <c r="AK5" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="AK5" s="43" t="s">
+      <c r="AL5" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="AL5" s="43" t="s">
-        <v>115</v>
-      </c>
       <c r="AM5" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B6" s="56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="61">
         <f>SUM(D6:AM6)</f>
@@ -6865,7 +10251,7 @@
     </row>
     <row r="7" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B7" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="62">
         <f>SUM(D7:AM7)</f>
@@ -6978,7 +10364,7 @@
     </row>
     <row r="8" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B8" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="62">
         <f>SUM(D8:AM8)</f>
@@ -7480,7 +10866,7 @@
     </row>
     <row r="13" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B13" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="62">
         <f>SUM(D13:AM13)</f>
@@ -8717,7 +12103,7 @@
     </row>
     <row r="42" spans="2:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B42" s="66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C42" s="67">
         <f>SUM(C6:C41)</f>
@@ -8727,18 +12113,18 @@
     <row r="43" spans="2:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="44" spans="2:39" x14ac:dyDescent="0.4">
       <c r="E44" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="F44" s="45" t="s">
+      <c r="G44" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="G44" s="45" t="s">
+      <c r="H44" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="H44" s="124" t="s">
-        <v>123</v>
-      </c>
-      <c r="I44" s="125"/>
+      <c r="I44" s="121"/>
     </row>
     <row r="45" spans="2:39" x14ac:dyDescent="0.4">
       <c r="E45" s="69">
@@ -8746,7 +12132,7 @@
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="97"/>
+      <c r="H45" s="105"/>
       <c r="I45" s="117"/>
     </row>
     <row r="46" spans="2:39" x14ac:dyDescent="0.4">
@@ -8755,7 +12141,7 @@
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="97"/>
+      <c r="H46" s="105"/>
       <c r="I46" s="117"/>
     </row>
     <row r="47" spans="2:39" x14ac:dyDescent="0.4">
@@ -8764,7 +12150,7 @@
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="97"/>
+      <c r="H47" s="105"/>
       <c r="I47" s="117"/>
     </row>
     <row r="48" spans="2:39" x14ac:dyDescent="0.4">
@@ -8773,7 +12159,7 @@
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="97"/>
+      <c r="H48" s="105"/>
       <c r="I48" s="117"/>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.4">
@@ -8782,7 +12168,7 @@
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="97"/>
+      <c r="H49" s="105"/>
       <c r="I49" s="117"/>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.4">
@@ -8791,7 +12177,7 @@
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="97"/>
+      <c r="H50" s="105"/>
       <c r="I50" s="117"/>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.4">
@@ -8800,7 +12186,7 @@
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="97"/>
+      <c r="H51" s="105"/>
       <c r="I51" s="117"/>
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.4">
@@ -8809,7 +12195,7 @@
       </c>
       <c r="F52" s="73"/>
       <c r="G52" s="73"/>
-      <c r="H52" s="97"/>
+      <c r="H52" s="105"/>
       <c r="I52" s="117"/>
     </row>
     <row r="53" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -8818,35 +12204,2149 @@
       </c>
       <c r="F53" s="50"/>
       <c r="G53" s="50"/>
-      <c r="H53" s="118"/>
-      <c r="I53" s="119"/>
+      <c r="H53" s="122"/>
+      <c r="I53" s="123"/>
     </row>
     <row r="54" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G54" s="71">
         <f>SUM(C6:C41)</f>
         <v>247</v>
       </c>
-      <c r="H54" s="120"/>
-      <c r="I54" s="121"/>
+      <c r="H54" s="124"/>
+      <c r="I54" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H52:I52"/>
     <mergeCell ref="H48:I48"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H52:I52"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9F272C-7EBA-42A9-AB4D-8B99B673CBA8}">
+  <dimension ref="D5:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="38.375" customWidth="1"/>
+    <col min="6" max="6" width="28.5" customWidth="1"/>
+    <col min="7" max="7" width="7.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D5" s="133" t="s">
+        <v>319</v>
+      </c>
+      <c r="E5" s="133" t="s">
+        <v>320</v>
+      </c>
+      <c r="F5" s="133" t="s">
+        <v>321</v>
+      </c>
+      <c r="G5" s="133" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" s="127" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="159" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="127" t="s">
+        <v>210</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="D14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E14" s="128" t="s">
+        <v>211</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D16" t="s">
+        <v>325</v>
+      </c>
+      <c r="E16" t="s">
+        <v>326</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C221845-BF52-470F-85E5-613A24522890}">
+  <dimension ref="D5:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="30.25" customWidth="1"/>
+    <col min="6" max="6" width="61.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" s="126">
+        <f>36*850000*3</f>
+        <v>91800000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="126">
+        <f>Art工数試算表!G6</f>
+        <v>167237500</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="126">
+        <f>Plan工数試算表!G6</f>
+        <v>214880000</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="126">
+        <f>Model工数試算表!F6</f>
+        <v>236300000</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>316</v>
+      </c>
+      <c r="E9" s="126">
+        <f>Environmentl工数試算表!F6</f>
+        <v>76500000</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="126">
+        <f>Motion工数試算表!F6</f>
+        <v>540600000</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" s="126"/>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12" s="126">
+        <f>Effect工数試算表!F6</f>
+        <v>323850000</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" s="126">
+        <f>UI工数試算表!F6</f>
+        <v>65875000</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E14" s="126">
+        <f>SUM(E5:E13)</f>
+        <v>1717042500</v>
+      </c>
+      <c r="F14" s="126"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F89E4C8-D980-4649-96B1-E5D59E52E880}">
+  <dimension ref="C1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="6.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="E2" s="148" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="149"/>
+      <c r="G2" s="154">
+        <f>SUM(D9:D102)</f>
+        <v>391</v>
+      </c>
+      <c r="H2" s="136" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="E3" s="150" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="151"/>
+      <c r="G3" s="155">
+        <f>SUM(F9:F204)</f>
+        <v>3935</v>
+      </c>
+      <c r="H3" s="137" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="E4" s="150" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="151"/>
+      <c r="G4" s="155">
+        <f>G3/20</f>
+        <v>196.75</v>
+      </c>
+      <c r="H4" s="137" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="E5" s="150" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="151"/>
+      <c r="G5" s="156">
+        <v>850000</v>
+      </c>
+      <c r="H5" s="137" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E6" s="152" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="153"/>
+      <c r="G6" s="157">
+        <f>G4*G5</f>
+        <v>167237500</v>
+      </c>
+      <c r="H6" s="138" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C8" s="144" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="144" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="144" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="145" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C9" s="146" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="146">
+        <v>1</v>
+      </c>
+      <c r="E9" s="146">
+        <v>720</v>
+      </c>
+      <c r="F9" s="146">
+        <f>D9*E9</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C10" s="146" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="146">
+        <v>30</v>
+      </c>
+      <c r="E10" s="146">
+        <v>10</v>
+      </c>
+      <c r="F10" s="146">
+        <f>D10*E10</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C11" s="146" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="146">
+        <f>物量試算!G6</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="146">
+        <v>40</v>
+      </c>
+      <c r="F11" s="146">
+        <f t="shared" ref="F11:F20" si="0">D11*E11</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C12" s="146" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="146">
+        <v>5</v>
+      </c>
+      <c r="E12" s="146">
+        <v>40</v>
+      </c>
+      <c r="F12" s="146">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C13" s="146" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="146">
+        <f>物量試算!G9</f>
+        <v>20</v>
+      </c>
+      <c r="E13" s="146">
+        <v>10</v>
+      </c>
+      <c r="F13" s="146">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C14" s="158" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="146">
+        <v>1</v>
+      </c>
+      <c r="E14" s="158">
+        <v>30</v>
+      </c>
+      <c r="F14" s="146">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C15" s="146" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="146">
+        <f>物量試算!G10</f>
+        <v>40</v>
+      </c>
+      <c r="E15" s="146">
+        <v>10</v>
+      </c>
+      <c r="F15" s="146">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C16" s="146" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="146">
+        <f>物量試算!G11</f>
+        <v>40</v>
+      </c>
+      <c r="E16" s="146">
+        <v>10</v>
+      </c>
+      <c r="F16" s="146">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C17" s="146" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="146">
+        <f>物量試算!G8</f>
+        <v>20</v>
+      </c>
+      <c r="E17" s="146">
+        <v>10</v>
+      </c>
+      <c r="F17" s="146">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C18" s="146" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="146">
+        <f>物量試算!G12</f>
+        <v>20</v>
+      </c>
+      <c r="E18" s="146">
+        <v>10</v>
+      </c>
+      <c r="F18" s="146">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C19" s="146" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="146">
+        <f>UI工数試算表!F2</f>
+        <v>201</v>
+      </c>
+      <c r="E19" s="146">
+        <v>5</v>
+      </c>
+      <c r="F19" s="146">
+        <f t="shared" si="0"/>
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C20" s="158" t="s">
+        <v>327</v>
+      </c>
+      <c r="D20">
+        <f>物量試算!G16</f>
+        <v>12</v>
+      </c>
+      <c r="E20" s="158">
+        <v>20</v>
+      </c>
+      <c r="F20" s="158">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB52490-15A1-4F60-8EA0-27304E08D866}">
+  <dimension ref="C1:H73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="34.75" customWidth="1"/>
+    <col min="5" max="5" width="48.125" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="6.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="E2" s="148" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="149"/>
+      <c r="G2" s="154">
+        <f>SUM(F9:F128)</f>
+        <v>246</v>
+      </c>
+      <c r="H2" s="136" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="E3" s="150" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="151"/>
+      <c r="G3" s="155">
+        <f>SUM(H9:H230)</f>
+        <v>5056</v>
+      </c>
+      <c r="H3" s="137" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="E4" s="150" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="151"/>
+      <c r="G4" s="155">
+        <f>G3/20</f>
+        <v>252.8</v>
+      </c>
+      <c r="H4" s="137" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="E5" s="150" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="151"/>
+      <c r="G5" s="156">
+        <v>850000</v>
+      </c>
+      <c r="H5" s="137" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E6" s="152" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="153"/>
+      <c r="G6" s="157">
+        <f>G4*G5</f>
+        <v>214880000</v>
+      </c>
+      <c r="H6" s="138" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C8" s="162" t="s">
+        <v>323</v>
+      </c>
+      <c r="D8" s="130"/>
+      <c r="E8" s="144" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="144" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="144" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="145" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C9" s="146" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" s="146" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146">
+        <v>1</v>
+      </c>
+      <c r="G9" s="146">
+        <v>720</v>
+      </c>
+      <c r="H9" s="146">
+        <f>F9*G9</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C10" s="160" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="146" t="s">
+        <v>229</v>
+      </c>
+      <c r="E10" s="146" t="s">
+        <v>324</v>
+      </c>
+      <c r="F10" s="146">
+        <v>1</v>
+      </c>
+      <c r="G10" s="146">
+        <v>60</v>
+      </c>
+      <c r="H10" s="146">
+        <f>F10*G10</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C11" s="129"/>
+      <c r="D11" s="146" t="s">
+        <v>256</v>
+      </c>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146">
+        <v>1</v>
+      </c>
+      <c r="G11" s="146">
+        <v>20</v>
+      </c>
+      <c r="H11" s="146">
+        <f>F11*G11</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C12" s="129"/>
+      <c r="D12" s="146" t="s">
+        <v>257</v>
+      </c>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146">
+        <f>物量試算!G6</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="146">
+        <v>120</v>
+      </c>
+      <c r="H12" s="146">
+        <f>F12*G12</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C13" s="160" t="s">
+        <v>268</v>
+      </c>
+      <c r="D13" s="158" t="s">
+        <v>269</v>
+      </c>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158">
+        <v>1</v>
+      </c>
+      <c r="G13" s="158">
+        <v>40</v>
+      </c>
+      <c r="H13" s="146">
+        <f>F13*G13</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C14" s="129"/>
+      <c r="D14" s="158" t="s">
+        <v>270</v>
+      </c>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158">
+        <v>1</v>
+      </c>
+      <c r="G14" s="158">
+        <v>30</v>
+      </c>
+      <c r="H14" s="146">
+        <f>F14*G14</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C15" s="129"/>
+      <c r="D15" s="158" t="s">
+        <v>271</v>
+      </c>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158">
+        <v>1</v>
+      </c>
+      <c r="G15" s="158">
+        <v>60</v>
+      </c>
+      <c r="H15" s="146">
+        <f>F15*G15</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C16" s="160" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="158" t="s">
+        <v>261</v>
+      </c>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158">
+        <v>1</v>
+      </c>
+      <c r="G16" s="158">
+        <v>40</v>
+      </c>
+      <c r="H16" s="146">
+        <f>F16*G16</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C17" s="129"/>
+      <c r="D17" s="158" t="s">
+        <v>262</v>
+      </c>
+      <c r="E17" s="158"/>
+      <c r="F17" s="146">
+        <f>物量試算!G7</f>
+        <v>18</v>
+      </c>
+      <c r="G17" s="158">
+        <v>10</v>
+      </c>
+      <c r="H17" s="146">
+        <f>F17*G17</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C18" s="160" t="s">
+        <v>294</v>
+      </c>
+      <c r="D18" s="158" t="s">
+        <v>296</v>
+      </c>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158">
+        <v>1</v>
+      </c>
+      <c r="G18" s="158">
+        <v>20</v>
+      </c>
+      <c r="H18" s="146">
+        <f t="shared" ref="H18:H21" si="0">F18*G18</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C19" s="129"/>
+      <c r="D19" s="158" t="s">
+        <v>295</v>
+      </c>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158">
+        <v>1</v>
+      </c>
+      <c r="G19" s="158">
+        <v>20</v>
+      </c>
+      <c r="H19" s="146">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C20" s="129"/>
+      <c r="D20" s="158" t="s">
+        <v>297</v>
+      </c>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158">
+        <v>1</v>
+      </c>
+      <c r="G20" s="158">
+        <v>20</v>
+      </c>
+      <c r="H20" s="146">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C21" s="129"/>
+      <c r="D21" s="158" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158">
+        <v>1</v>
+      </c>
+      <c r="G21" s="158">
+        <v>20</v>
+      </c>
+      <c r="H21" s="146">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C22" s="160" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" s="146" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146">
+        <f>物量試算!G6</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="146">
+        <v>40</v>
+      </c>
+      <c r="H22" s="146">
+        <f t="shared" ref="H22:H73" si="1">F22*G22</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C23" s="129"/>
+      <c r="D23" s="146" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146">
+        <v>1</v>
+      </c>
+      <c r="G23" s="146">
+        <v>40</v>
+      </c>
+      <c r="H23" s="146">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C24" s="129"/>
+      <c r="D24" s="146" t="s">
+        <v>232</v>
+      </c>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146">
+        <v>1</v>
+      </c>
+      <c r="G24" s="146">
+        <v>40</v>
+      </c>
+      <c r="H24" s="146">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C25" s="129"/>
+      <c r="D25" s="158" t="s">
+        <v>234</v>
+      </c>
+      <c r="E25" s="158"/>
+      <c r="F25" s="146">
+        <v>1</v>
+      </c>
+      <c r="G25" s="146">
+        <v>20</v>
+      </c>
+      <c r="H25" s="146">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C26" s="129"/>
+      <c r="D26" s="158" t="s">
+        <v>235</v>
+      </c>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158">
+        <v>1</v>
+      </c>
+      <c r="G26" s="158">
+        <v>60</v>
+      </c>
+      <c r="H26" s="158">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C27" s="160" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="158" t="s">
+        <v>237</v>
+      </c>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158">
+        <v>1</v>
+      </c>
+      <c r="G27" s="158">
+        <v>20</v>
+      </c>
+      <c r="H27" s="158">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C28" s="129"/>
+      <c r="D28" s="158" t="s">
+        <v>238</v>
+      </c>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158">
+        <v>1</v>
+      </c>
+      <c r="G28" s="158">
+        <v>20</v>
+      </c>
+      <c r="H28" s="158">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C29" s="129"/>
+      <c r="D29" s="158" t="s">
+        <v>239</v>
+      </c>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158">
+        <v>1</v>
+      </c>
+      <c r="G29" s="158">
+        <v>40</v>
+      </c>
+      <c r="H29" s="158">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C30" s="160" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" s="146" t="s">
+        <v>244</v>
+      </c>
+      <c r="E30" s="146"/>
+      <c r="F30" s="158">
+        <v>1</v>
+      </c>
+      <c r="G30" s="158">
+        <v>40</v>
+      </c>
+      <c r="H30" s="158">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C31" s="129"/>
+      <c r="D31" s="146" t="s">
+        <v>267</v>
+      </c>
+      <c r="E31" s="146"/>
+      <c r="F31" s="158">
+        <v>1</v>
+      </c>
+      <c r="G31" s="158">
+        <v>40</v>
+      </c>
+      <c r="H31" s="158">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C32" s="160" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="129"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="158">
+        <v>1</v>
+      </c>
+      <c r="G32" s="158">
+        <v>60</v>
+      </c>
+      <c r="H32" s="158">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C33" s="161" t="s">
+        <v>246</v>
+      </c>
+      <c r="D33" s="129"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="158">
+        <v>1</v>
+      </c>
+      <c r="G33" s="158">
+        <v>40</v>
+      </c>
+      <c r="H33" s="158">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C34" s="160" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" s="129"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="158">
+        <f>物量試算!G10</f>
+        <v>40</v>
+      </c>
+      <c r="G34" s="158">
+        <v>10</v>
+      </c>
+      <c r="H34" s="158">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C35" s="160" t="s">
+        <v>241</v>
+      </c>
+      <c r="D35" s="129"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="146">
+        <f>物量試算!G11</f>
+        <v>40</v>
+      </c>
+      <c r="G35" s="146">
+        <v>10</v>
+      </c>
+      <c r="H35" s="158">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C36" s="160" t="s">
+        <v>258</v>
+      </c>
+      <c r="D36" s="146" t="s">
+        <v>242</v>
+      </c>
+      <c r="E36" s="146"/>
+      <c r="F36" s="146">
+        <f>物量試算!G8</f>
+        <v>20</v>
+      </c>
+      <c r="G36" s="146">
+        <v>10</v>
+      </c>
+      <c r="H36" s="146">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C37" s="129"/>
+      <c r="D37" s="146" t="s">
+        <v>259</v>
+      </c>
+      <c r="E37" s="146"/>
+      <c r="F37" s="146">
+        <v>1</v>
+      </c>
+      <c r="G37" s="158">
+        <v>20</v>
+      </c>
+      <c r="H37" s="146">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C38" s="129"/>
+      <c r="D38" s="146" t="s">
+        <v>275</v>
+      </c>
+      <c r="E38" s="146"/>
+      <c r="F38" s="146">
+        <f>物量試算!G8</f>
+        <v>20</v>
+      </c>
+      <c r="G38" s="158">
+        <v>20</v>
+      </c>
+      <c r="H38" s="146">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C39" s="161" t="s">
+        <v>272</v>
+      </c>
+      <c r="D39" s="146" t="s">
+        <v>273</v>
+      </c>
+      <c r="E39" s="146"/>
+      <c r="F39" s="146">
+        <f>物量試算!G9</f>
+        <v>20</v>
+      </c>
+      <c r="G39" s="158">
+        <v>10</v>
+      </c>
+      <c r="H39" s="146">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C40" s="129"/>
+      <c r="D40" s="158" t="s">
+        <v>274</v>
+      </c>
+      <c r="E40" s="158"/>
+      <c r="F40" s="146">
+        <v>1</v>
+      </c>
+      <c r="G40" s="158">
+        <v>20</v>
+      </c>
+      <c r="H40" s="146">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C41" s="129"/>
+      <c r="D41" s="158" t="s">
+        <v>276</v>
+      </c>
+      <c r="E41" s="158"/>
+      <c r="F41" s="146">
+        <f>物量試算!G9</f>
+        <v>20</v>
+      </c>
+      <c r="G41" s="158">
+        <v>20</v>
+      </c>
+      <c r="H41" s="146">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C42" s="160" t="s">
+        <v>243</v>
+      </c>
+      <c r="D42" s="129"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="146">
+        <v>1</v>
+      </c>
+      <c r="G42" s="146">
+        <v>20</v>
+      </c>
+      <c r="H42" s="146">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C43" s="160" t="s">
+        <v>247</v>
+      </c>
+      <c r="D43" s="129"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="146">
+        <v>1</v>
+      </c>
+      <c r="G43" s="146">
+        <v>40</v>
+      </c>
+      <c r="H43" s="146">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C44" s="161" t="s">
+        <v>248</v>
+      </c>
+      <c r="D44" t="s">
+        <v>249</v>
+      </c>
+      <c r="F44">
+        <f>物量試算!G13</f>
+        <v>3</v>
+      </c>
+      <c r="G44" s="158">
+        <v>20</v>
+      </c>
+      <c r="H44" s="158">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C45" s="129"/>
+      <c r="D45" t="s">
+        <v>250</v>
+      </c>
+      <c r="F45">
+        <f>物量試算!G13</f>
+        <v>3</v>
+      </c>
+      <c r="G45" s="158">
+        <v>60</v>
+      </c>
+      <c r="H45" s="158">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C46" s="129"/>
+      <c r="D46" t="s">
+        <v>251</v>
+      </c>
+      <c r="F46">
+        <f>物量試算!G13</f>
+        <v>3</v>
+      </c>
+      <c r="G46" s="158">
+        <v>40</v>
+      </c>
+      <c r="H46" s="158">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C47" s="129"/>
+      <c r="D47" t="s">
+        <v>252</v>
+      </c>
+      <c r="F47">
+        <f>物量試算!G13</f>
+        <v>3</v>
+      </c>
+      <c r="G47" s="158">
+        <v>40</v>
+      </c>
+      <c r="H47" s="158">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C48" s="129" t="s">
+        <v>311</v>
+      </c>
+      <c r="D48" s="129"/>
+      <c r="E48" s="147"/>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" s="158">
+        <v>10</v>
+      </c>
+      <c r="H48" s="158">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C49" s="129" t="s">
+        <v>299</v>
+      </c>
+      <c r="D49" s="129"/>
+      <c r="E49" s="147"/>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" s="158">
+        <v>40</v>
+      </c>
+      <c r="H49" s="158">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C50" s="129" t="s">
+        <v>300</v>
+      </c>
+      <c r="D50" s="129"/>
+      <c r="E50" s="147"/>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" s="158">
+        <v>40</v>
+      </c>
+      <c r="H50" s="158">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C51" s="129" t="s">
+        <v>277</v>
+      </c>
+      <c r="D51" s="129"/>
+      <c r="E51" s="147"/>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" s="158">
+        <v>10</v>
+      </c>
+      <c r="H51" s="158">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C52" s="129" t="s">
+        <v>278</v>
+      </c>
+      <c r="D52" s="129"/>
+      <c r="E52" s="147"/>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="158">
+        <v>20</v>
+      </c>
+      <c r="H52" s="158">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C53" s="129" t="s">
+        <v>279</v>
+      </c>
+      <c r="D53" s="129"/>
+      <c r="E53" s="147"/>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="158">
+        <v>20</v>
+      </c>
+      <c r="H53" s="158">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C54" s="129" t="s">
+        <v>280</v>
+      </c>
+      <c r="D54" s="129"/>
+      <c r="E54" s="147"/>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" s="158">
+        <v>20</v>
+      </c>
+      <c r="H54" s="158">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C55" s="129" t="s">
+        <v>281</v>
+      </c>
+      <c r="D55" s="129"/>
+      <c r="E55" s="147"/>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" s="158">
+        <v>40</v>
+      </c>
+      <c r="H55" s="158">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C56" s="129" t="s">
+        <v>282</v>
+      </c>
+      <c r="D56" t="s">
+        <v>306</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" s="158">
+        <v>3</v>
+      </c>
+      <c r="H56" s="158">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C57" s="129"/>
+      <c r="D57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" s="158">
+        <v>3</v>
+      </c>
+      <c r="H57" s="158">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C58" s="129"/>
+      <c r="D58" t="s">
+        <v>308</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" s="158">
+        <v>10</v>
+      </c>
+      <c r="H58" s="158">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C59" s="129"/>
+      <c r="D59" t="s">
+        <v>309</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" s="158">
+        <v>20</v>
+      </c>
+      <c r="H59" s="158">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C60" s="129"/>
+      <c r="D60" t="s">
+        <v>310</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" s="158">
+        <v>20</v>
+      </c>
+      <c r="H60" s="158">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C61" s="129" t="s">
+        <v>283</v>
+      </c>
+      <c r="D61" s="129"/>
+      <c r="E61" s="147"/>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" s="158">
+        <v>20</v>
+      </c>
+      <c r="H61" s="158">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C62" s="129" t="s">
+        <v>284</v>
+      </c>
+      <c r="D62" s="129"/>
+      <c r="E62" s="147"/>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" s="158">
+        <v>20</v>
+      </c>
+      <c r="H62" s="158">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C63" s="129" t="s">
+        <v>285</v>
+      </c>
+      <c r="D63" s="129"/>
+      <c r="E63" s="147"/>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" s="158">
+        <v>20</v>
+      </c>
+      <c r="H63" s="158">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C64" s="129" t="s">
+        <v>286</v>
+      </c>
+      <c r="D64" s="129"/>
+      <c r="E64" s="147"/>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" s="158">
+        <v>10</v>
+      </c>
+      <c r="H64" s="158">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C65" s="129" t="s">
+        <v>287</v>
+      </c>
+      <c r="D65" s="129"/>
+      <c r="E65" s="147"/>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" s="158">
+        <v>20</v>
+      </c>
+      <c r="H65" s="158">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C66" s="129" t="s">
+        <v>288</v>
+      </c>
+      <c r="D66" s="129"/>
+      <c r="E66" s="147"/>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" s="158">
+        <v>30</v>
+      </c>
+      <c r="H66" s="158">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C67" s="129" t="s">
+        <v>289</v>
+      </c>
+      <c r="D67" s="129"/>
+      <c r="E67" s="147"/>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" s="158">
+        <v>30</v>
+      </c>
+      <c r="H67" s="158">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C68" s="129" t="s">
+        <v>290</v>
+      </c>
+      <c r="D68" s="129"/>
+      <c r="E68" s="147"/>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" s="158">
+        <v>40</v>
+      </c>
+      <c r="H68" s="158">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C69" s="129" t="s">
+        <v>291</v>
+      </c>
+      <c r="D69" s="129"/>
+      <c r="E69" s="147"/>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" s="158">
+        <v>40</v>
+      </c>
+      <c r="H69" s="158">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C70" s="129" t="s">
+        <v>292</v>
+      </c>
+      <c r="D70" s="129"/>
+      <c r="E70" s="147"/>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" s="158">
+        <v>20</v>
+      </c>
+      <c r="H70" s="158">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C71" s="129" t="s">
+        <v>293</v>
+      </c>
+      <c r="D71" s="129"/>
+      <c r="E71" s="147"/>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" s="158">
+        <v>10</v>
+      </c>
+      <c r="H71" s="158">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C72" s="129" t="s">
+        <v>328</v>
+      </c>
+      <c r="D72" s="129"/>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" s="158">
+        <v>60</v>
+      </c>
+      <c r="H72" s="158">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C73" s="129" t="s">
+        <v>329</v>
+      </c>
+      <c r="D73" s="129"/>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73" s="158">
+        <v>30</v>
+      </c>
+      <c r="H73" s="158">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C44:C47"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9262C68-27CE-44FF-AC9E-9300FE5BBC38}">
+  <dimension ref="C1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="50.75" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E2" s="141" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="139">
+        <f>SUM(F9:F88)</f>
+        <v>154</v>
+      </c>
+      <c r="G2" s="136" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E3" s="142" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="134">
+        <f>SUM(H9:H88)</f>
+        <v>5560</v>
+      </c>
+      <c r="G3" s="137" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E4" s="142" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="134">
+        <f>F3/20</f>
+        <v>278</v>
+      </c>
+      <c r="G4" s="137" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E5" s="142" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="135">
+        <v>850000</v>
+      </c>
+      <c r="G5" s="137" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E6" s="143" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="140">
+        <f>F4*F5</f>
+        <v>236300000</v>
+      </c>
+      <c r="G6" s="138" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C8" s="132" t="s">
+        <v>323</v>
+      </c>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="133" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="133" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="133" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="131"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C9" s="129" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" s="129"/>
+      <c r="E9" t="s">
+        <v>331</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>720</v>
+      </c>
+      <c r="H9">
+        <f>F9*G9</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C10" s="129" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="129"/>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>120</v>
+      </c>
+      <c r="H10">
+        <f>F10*G10</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C11" s="129" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="129"/>
+      <c r="F11">
+        <f>物量試算!G8</f>
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:H16" si="0">F11*G11</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C12" s="129" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="129"/>
+      <c r="E12" s="128"/>
+      <c r="F12">
+        <f>物量試算!G9</f>
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C13" s="129" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="129"/>
+      <c r="E13" s="128"/>
+      <c r="F13">
+        <f>物量試算!G10</f>
+        <v>40</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C14" s="129" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="129"/>
+      <c r="F14">
+        <f>物量試算!G11</f>
+        <v>40</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C15" s="129" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="129"/>
+      <c r="F15">
+        <f>物量試算!G12</f>
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C16" s="129" t="s">
+        <v>332</v>
+      </c>
+      <c r="D16" s="129"/>
+      <c r="F16">
+        <f>物量試算!G16</f>
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>60</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project/EBA/EBA制作用資料サンプル.xlsx
+++ b/Project/EBA/EBA制作用資料サンプル.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RandD\Validation\Project\EBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9272AA92-53CE-4A85-8828-033679F72A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D78BDC-1670-4CDB-9F26-E4E9002DE4F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="予算" sheetId="5" r:id="rId1"/>
@@ -24,8 +24,11 @@
     <sheet name="Model工数試算表" sheetId="13" r:id="rId9"/>
     <sheet name="Environmentl工数試算表" sheetId="14" r:id="rId10"/>
     <sheet name="Motion工数試算表" sheetId="15" r:id="rId11"/>
-    <sheet name="Effect工数試算表" sheetId="16" r:id="rId12"/>
-    <sheet name="UI工数試算表" sheetId="7" r:id="rId13"/>
+    <sheet name="Program工数試算表" sheetId="17" r:id="rId12"/>
+    <sheet name="Effect工数試算表" sheetId="16" r:id="rId13"/>
+    <sheet name="Sound工数試算表" sheetId="19" r:id="rId14"/>
+    <sheet name="UI工数試算表" sheetId="7" r:id="rId15"/>
+    <sheet name="その他工数試算表" sheetId="20" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="440">
   <si>
     <t>MS01</t>
     <phoneticPr fontId="1"/>
@@ -1745,16 +1748,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アート総物量</t>
-    <rPh sb="3" eb="4">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ブツリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アート</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1768,16 +1761,6 @@
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プランナー総物量</t>
-    <rPh sb="5" eb="6">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ブツリョウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2437,10 +2420,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プランニングリード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UIリード</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2738,6 +2717,927 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ブツリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1プレイヤー辺り1000モーションで計算</t>
+    <rPh sb="6" eb="7">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1体のレイドボスに対して100モーションを想定して計算</t>
+    <rPh sb="1" eb="2">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Program総物量</t>
+    <rPh sb="7" eb="8">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ブツリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PROGRAMリード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PROGRAMセクションのチームリード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイドボス仕様作成</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木・枝作成ツール</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マッチング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロードキャスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクワッド対戦</t>
+    <rPh sb="5" eb="7">
+      <t>タイセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衣装変更処理作成</t>
+    <rPh sb="0" eb="2">
+      <t>イショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームフロー遷移システム作成</t>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソロマッチング処理実装</t>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デュオマッチング処理実装</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カルテットマッチング処理実装</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クワッドマッチング処理実装</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム実装</t>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マッチングシステム実装</t>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキングシステム実装</t>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンライン大会システム実装</t>
+    <rPh sb="5" eb="7">
+      <t>タイカイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>団体戦システム実装</t>
+    <rPh sb="0" eb="3">
+      <t>ダンタイセン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>団体戦ルール実装</t>
+    <rPh sb="0" eb="3">
+      <t>ダンタイセン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイド戦システム実装</t>
+    <rPh sb="3" eb="4">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイドボス作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガーデニングシステム実装</t>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器システム作成</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器パラメータデータ管理システム作成</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器作成</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムシステム作成</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムパラメータデータ管理システム作成</t>
+    <rPh sb="12" eb="14">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ管理システム実装</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージシステム実装</t>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリア収縮システム実装</t>
+    <rPh sb="3" eb="5">
+      <t>シュウシュク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーアカウント管理システム実装</t>
+    <rPh sb="9" eb="11">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー変更パラメータ管理システム実装</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エモート組み込み</t>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面実装</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モードセレクト画面実装</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターエディット画面実装</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マッチング画面実装</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプション画面実装</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力ゲージ実装</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾ゲージ実装</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミニマップ実装</t>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器切り替え実装</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種アイコン実装</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DLCシステム実装</t>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム中UI画面実装</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面実装</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロード画面実装</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント作成画面実装</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショップ画面実装</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール確認画面実装</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラインキング画面実装</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リプレイ画面実装</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種エラー画面実装</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績アイコン実装</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレーディングカード実装</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフィック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Steam対応</t>
+    <rPh sb="5" eb="7">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UIシステム実装</t>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソース管理</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シェーダーの作成・システムの拡張など</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UEアップデート対応</t>
+    <rPh sb="8" eb="10">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6回程度を想定</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルチプラットフォーム対応</t>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各プラットフォームごとのアセット管理環境の構築</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Steamのレギュレーション対応など</t>
+    <rPh sb="14" eb="16">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理最適化対応</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>サイテキカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理演算系フィジックス対応</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>エンザン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IK、Clothシミュレーションなどのシステム作成</t>
+    <rPh sb="23" eb="25">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカライズ対応</t>
+    <rPh sb="6" eb="8">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンラインシステム作成、および管理</t>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SOUNDリード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SOUNDセクションのチームリード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境音</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1つの武器あたり3人日で計算</t>
+    <rPh sb="3" eb="5">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1つのアイテム辺り3人日で計算</t>
+    <rPh sb="7" eb="8">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウンドシステム構築</t>
+    <rPh sb="8" eb="10">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1つの植物ギミックあたり7人日で計算</t>
+    <rPh sb="3" eb="5">
+      <t>ショクブツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニンニチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1つの虫ギミック辺り7人日で計算</t>
+    <rPh sb="3" eb="4">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Environment総物量</t>
+    <rPh sb="11" eb="12">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブツリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Art総物量</t>
+    <rPh sb="3" eb="4">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブツリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Plan総物量</t>
+    <rPh sb="4" eb="5">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブツリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PLANリード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Effect総物量</t>
+    <rPh sb="6" eb="7">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブツリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sound総物量</t>
+    <rPh sb="5" eb="6">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブツリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機材</t>
+    <rPh sb="0" eb="2">
+      <t>キザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UEライセンス料</t>
+    <rPh sb="7" eb="8">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバー管理費</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QAコスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DCCライセンス料</t>
+    <rPh sb="8" eb="9">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョン管理ツールライセンス料</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slackライセンス料</t>
+    <rPh sb="10" eb="11">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティツール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウンドミドルウェアライセンス料</t>
+    <rPh sb="15" eb="16">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CRIの場合、F2P販売ではタイトルの月間売上に応じて月額許諾料が変化する様です。</t>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゲッカン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゲツガク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キョダク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金額(円)</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2747,7 +3647,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="#,##0_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -2948,7 +3848,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -3625,13 +4525,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3920,6 +4833,81 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="52" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="14" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3935,21 +4923,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3968,24 +4947,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3998,128 +4974,137 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="52" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="14" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7239,7 +8224,7 @@
   <dimension ref="B2:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -7786,13 +8771,13 @@
   <dimension ref="C1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="50.75" customWidth="1"/>
     <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.625" customWidth="1"/>
@@ -7801,144 +8786,146 @@
   <sheetData>
     <row r="1" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="E2" s="141" t="s">
-        <v>214</v>
-      </c>
-      <c r="F2" s="139">
+      <c r="E2" s="182" t="s">
+        <v>422</v>
+      </c>
+      <c r="F2" s="106">
         <f>SUM(F9:F88)</f>
-        <v>4</v>
-      </c>
-      <c r="G2" s="136" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="103" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="E3" s="142" t="s">
+      <c r="E3" s="183" t="s">
         <v>215</v>
       </c>
-      <c r="F3" s="134">
+      <c r="F3" s="101">
         <f>SUM(H9:H88)</f>
-        <v>1800</v>
-      </c>
-      <c r="G3" s="137" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G3" s="104" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="E4" s="142" t="s">
+      <c r="E4" s="183" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="134">
+      <c r="F4" s="101">
         <f>F3/20</f>
-        <v>90</v>
-      </c>
-      <c r="G4" s="137" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="104" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="E5" s="142" t="s">
+      <c r="E5" s="183" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="135">
-        <v>850000</v>
-      </c>
-      <c r="G5" s="137" t="s">
+      <c r="F5" s="102">
+        <v>800000</v>
+      </c>
+      <c r="G5" s="104" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="6" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E6" s="143" t="s">
+      <c r="E6" s="184" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="140">
+      <c r="F6" s="107">
         <f>F4*F5</f>
-        <v>76500000</v>
-      </c>
-      <c r="G6" s="138" t="s">
+        <v>57600000</v>
+      </c>
+      <c r="G6" s="105" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C8" s="132" t="s">
-        <v>323</v>
-      </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="133" t="s">
+    <row r="7" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="166" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="172"/>
+      <c r="E8" s="157" t="s">
         <v>197</v>
       </c>
-      <c r="F8" s="133" t="s">
+      <c r="F8" s="157" t="s">
         <v>175</v>
       </c>
-      <c r="G8" s="133" t="s">
+      <c r="G8" s="157" t="s">
         <v>176</v>
       </c>
-      <c r="H8" s="133" t="s">
+      <c r="H8" s="173" t="s">
         <v>213</v>
       </c>
-      <c r="I8" s="131"/>
+      <c r="I8" s="99"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C9" s="129" t="s">
-        <v>333</v>
-      </c>
-      <c r="D9" s="129"/>
-      <c r="E9" t="s">
-        <v>334</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
+      <c r="C9" s="170" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" s="171"/>
+      <c r="E9" s="154" t="s">
+        <v>331</v>
+      </c>
+      <c r="F9" s="154">
+        <v>1</v>
+      </c>
+      <c r="G9" s="154">
         <v>720</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="155">
         <f>F9*G9</f>
         <v>720</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C10" s="129" t="s">
-        <v>335</v>
-      </c>
-      <c r="D10" s="129"/>
-      <c r="F10">
+    <row r="10" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="164" t="s">
+        <v>332</v>
+      </c>
+      <c r="D10" s="165"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="150">
         <f>物量試算!G13</f>
-        <v>3</v>
-      </c>
-      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="150">
         <v>360</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="169">
         <f>F10*G10</f>
-        <v>1080</v>
+        <v>720</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="128"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="98"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="128"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="98"/>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7961,8 +8948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944E240F-6483-4F29-852D-396A21B70BDF}">
   <dimension ref="C1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7977,208 +8964,225 @@
   <sheetData>
     <row r="1" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="E2" s="141" t="s">
-        <v>340</v>
-      </c>
-      <c r="F2" s="139">
+      <c r="E2" s="182" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2" s="106">
         <f>SUM(F9:F88)</f>
-        <v>2321</v>
-      </c>
-      <c r="G2" s="136" t="s">
+        <v>1701</v>
+      </c>
+      <c r="G2" s="103" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="E3" s="142" t="s">
+      <c r="E3" s="183" t="s">
         <v>215</v>
       </c>
-      <c r="F3" s="134">
+      <c r="F3" s="101">
         <f>SUM(H9:H88)</f>
-        <v>12720</v>
-      </c>
-      <c r="G3" s="137" t="s">
+        <v>9260</v>
+      </c>
+      <c r="G3" s="104" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="E4" s="142" t="s">
+      <c r="E4" s="183" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="134">
+      <c r="F4" s="101">
         <f>F3/20</f>
-        <v>636</v>
-      </c>
-      <c r="G4" s="137" t="s">
+        <v>463</v>
+      </c>
+      <c r="G4" s="104" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="E5" s="142" t="s">
+      <c r="E5" s="183" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="135">
-        <v>850000</v>
-      </c>
-      <c r="G5" s="137" t="s">
+      <c r="F5" s="102">
+        <v>800000</v>
+      </c>
+      <c r="G5" s="104" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="6" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E6" s="143" t="s">
+      <c r="E6" s="184" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="140">
+      <c r="F6" s="107">
         <f>F4*F5</f>
-        <v>540600000</v>
-      </c>
-      <c r="G6" s="138" t="s">
+        <v>370400000</v>
+      </c>
+      <c r="G6" s="105" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C8" s="132" t="s">
-        <v>323</v>
-      </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="133" t="s">
+    <row r="7" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="166" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="172"/>
+      <c r="E8" s="157" t="s">
         <v>197</v>
       </c>
-      <c r="F8" s="133" t="s">
+      <c r="F8" s="157" t="s">
         <v>175</v>
       </c>
-      <c r="G8" s="133" t="s">
+      <c r="G8" s="157" t="s">
         <v>176</v>
       </c>
-      <c r="H8" s="133" t="s">
+      <c r="H8" s="173" t="s">
         <v>213</v>
       </c>
-      <c r="I8" s="131"/>
+      <c r="I8" s="99"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C9" s="129" t="s">
-        <v>336</v>
-      </c>
-      <c r="D9" s="129"/>
-      <c r="E9" t="s">
-        <v>337</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
+      <c r="C9" s="170" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" s="171"/>
+      <c r="E9" s="154" t="s">
+        <v>334</v>
+      </c>
+      <c r="F9" s="154">
+        <v>1</v>
+      </c>
+      <c r="G9" s="154">
         <v>720</v>
       </c>
-      <c r="H9">
-        <f>F9*G9</f>
+      <c r="H9" s="155">
+        <f t="shared" ref="H9:H15" si="0">F9*G9</f>
         <v>720</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C10" s="129" t="s">
-        <v>255</v>
-      </c>
-      <c r="D10" s="129"/>
-      <c r="F10">
+      <c r="C10" s="159" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="161"/>
+      <c r="E10" s="145" t="s">
+        <v>338</v>
+      </c>
+      <c r="F10" s="145">
         <v>1000</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="145">
         <v>5</v>
       </c>
-      <c r="H10">
-        <f>F10*G10</f>
+      <c r="H10" s="146">
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C11" s="129" t="s">
-        <v>258</v>
-      </c>
-      <c r="D11" s="129"/>
-      <c r="F11">
+      <c r="C11" s="159" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="161"/>
+      <c r="E11" s="145" t="s">
+        <v>417</v>
+      </c>
+      <c r="F11" s="145">
         <f>物量試算!G8</f>
         <v>20</v>
       </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <f>F11*G11</f>
-        <v>100</v>
+      <c r="G11" s="145">
+        <v>3</v>
+      </c>
+      <c r="H11" s="146">
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C12" s="129" t="s">
-        <v>272</v>
-      </c>
-      <c r="D12" s="129"/>
-      <c r="E12" s="128"/>
-      <c r="F12">
+      <c r="C12" s="159" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="161"/>
+      <c r="E12" s="168" t="s">
+        <v>418</v>
+      </c>
+      <c r="F12" s="145">
         <f>物量試算!G9</f>
         <v>20</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="145">
+        <v>3</v>
+      </c>
+      <c r="H12" s="146">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C13" s="159" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="161"/>
+      <c r="E13" s="168" t="s">
+        <v>420</v>
+      </c>
+      <c r="F13" s="145">
+        <f>物量試算!G10</f>
+        <v>30</v>
+      </c>
+      <c r="G13" s="145">
+        <v>7</v>
+      </c>
+      <c r="H13" s="146">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C14" s="159" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="161"/>
+      <c r="E14" s="145" t="s">
+        <v>421</v>
+      </c>
+      <c r="F14" s="145">
+        <f>物量試算!G11</f>
+        <v>30</v>
+      </c>
+      <c r="G14" s="145">
+        <v>7</v>
+      </c>
+      <c r="H14" s="146">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="164" t="s">
+        <v>329</v>
+      </c>
+      <c r="D15" s="165"/>
+      <c r="E15" s="150" t="s">
+        <v>339</v>
+      </c>
+      <c r="F15" s="150">
+        <f>物量試算!G16*100</f>
+        <v>600</v>
+      </c>
+      <c r="G15" s="150">
         <v>5</v>
       </c>
-      <c r="H12">
-        <f>F12*G12</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C13" s="129" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="128"/>
-      <c r="F13">
-        <f>物量試算!G10</f>
-        <v>40</v>
-      </c>
-      <c r="G13">
-        <v>10</v>
-      </c>
-      <c r="H13">
-        <f>F13*G13</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C14" s="129" t="s">
-        <v>193</v>
-      </c>
-      <c r="D14" s="129"/>
-      <c r="F14">
-        <f>物量試算!G11</f>
-        <v>40</v>
-      </c>
-      <c r="G14">
-        <v>10</v>
-      </c>
-      <c r="H14">
-        <f>F14*G14</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C15" s="129" t="s">
-        <v>332</v>
-      </c>
-      <c r="D15" s="129"/>
-      <c r="F15">
-        <f>物量試算!G16*100</f>
-        <v>1200</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <f>F15*G15</f>
-        <v>6000</v>
+      <c r="H15" s="169">
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8198,11 +9202,1343 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC0FA80-5E38-4DDA-9DEA-9A94F26B538F}">
+  <dimension ref="C1:I75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="50.75" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E2" s="182" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" s="106">
+        <f>SUM(F9:F86)</f>
+        <v>332</v>
+      </c>
+      <c r="G2" s="103" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E3" s="183" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="101">
+        <f>SUM(H9:H86)</f>
+        <v>8075</v>
+      </c>
+      <c r="G3" s="104" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E4" s="183" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="101">
+        <f>F3/20</f>
+        <v>403.75</v>
+      </c>
+      <c r="G4" s="104" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E5" s="183" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="102">
+        <v>800000</v>
+      </c>
+      <c r="G5" s="104" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E6" s="184" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="107">
+        <f>F4*F5</f>
+        <v>323000000</v>
+      </c>
+      <c r="G6" s="105" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="166" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="172"/>
+      <c r="E8" s="157" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="173" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="99"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C9" s="170" t="s">
+        <v>341</v>
+      </c>
+      <c r="D9" s="171"/>
+      <c r="E9" s="154" t="s">
+        <v>342</v>
+      </c>
+      <c r="F9" s="154">
+        <v>1</v>
+      </c>
+      <c r="G9" s="154">
+        <v>720</v>
+      </c>
+      <c r="H9" s="155">
+        <f t="shared" ref="H9:H75" si="0">F9*G9</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C10" s="159" t="s">
+        <v>397</v>
+      </c>
+      <c r="D10" s="161"/>
+      <c r="E10" s="145" t="s">
+        <v>401</v>
+      </c>
+      <c r="F10" s="145">
+        <v>1</v>
+      </c>
+      <c r="G10" s="145">
+        <v>720</v>
+      </c>
+      <c r="H10" s="146">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C11" s="159" t="s">
+        <v>419</v>
+      </c>
+      <c r="D11" s="161"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145">
+        <v>1</v>
+      </c>
+      <c r="G11" s="145">
+        <v>120</v>
+      </c>
+      <c r="H11" s="146">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C12" s="159" t="s">
+        <v>400</v>
+      </c>
+      <c r="D12" s="161"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145">
+        <v>1</v>
+      </c>
+      <c r="G12" s="145">
+        <v>60</v>
+      </c>
+      <c r="H12" s="146">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C13" s="159" t="s">
+        <v>411</v>
+      </c>
+      <c r="D13" s="161"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145">
+        <v>1</v>
+      </c>
+      <c r="G13" s="145">
+        <v>480</v>
+      </c>
+      <c r="H13" s="146">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C14" s="159" t="s">
+        <v>402</v>
+      </c>
+      <c r="D14" s="161"/>
+      <c r="E14" s="145" t="s">
+        <v>403</v>
+      </c>
+      <c r="F14" s="145">
+        <v>6</v>
+      </c>
+      <c r="G14" s="145">
+        <v>40</v>
+      </c>
+      <c r="H14" s="146">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C15" s="159" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" s="161"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145">
+        <v>1</v>
+      </c>
+      <c r="G15" s="145">
+        <v>720</v>
+      </c>
+      <c r="H15" s="146">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C16" s="159" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="161"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145">
+        <v>1</v>
+      </c>
+      <c r="G16" s="145">
+        <v>120</v>
+      </c>
+      <c r="H16" s="146">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C17" s="144" t="s">
+        <v>344</v>
+      </c>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145">
+        <v>1</v>
+      </c>
+      <c r="G17" s="145">
+        <v>120</v>
+      </c>
+      <c r="H17" s="146">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C18" s="159" t="s">
+        <v>345</v>
+      </c>
+      <c r="D18" s="148" t="s">
+        <v>355</v>
+      </c>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145">
+        <v>1</v>
+      </c>
+      <c r="G18" s="145">
+        <v>40</v>
+      </c>
+      <c r="H18" s="146">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C19" s="159"/>
+      <c r="D19" s="148" t="s">
+        <v>350</v>
+      </c>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145">
+        <v>1</v>
+      </c>
+      <c r="G19" s="145">
+        <v>10</v>
+      </c>
+      <c r="H19" s="146">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C20" s="159"/>
+      <c r="D20" s="148" t="s">
+        <v>351</v>
+      </c>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145">
+        <v>1</v>
+      </c>
+      <c r="G20" s="145">
+        <v>10</v>
+      </c>
+      <c r="H20" s="146">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C21" s="159"/>
+      <c r="D21" s="148" t="s">
+        <v>352</v>
+      </c>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145">
+        <v>1</v>
+      </c>
+      <c r="G21" s="145">
+        <v>10</v>
+      </c>
+      <c r="H21" s="146">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C22" s="159"/>
+      <c r="D22" s="148" t="s">
+        <v>353</v>
+      </c>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145">
+        <v>1</v>
+      </c>
+      <c r="G22" s="145">
+        <v>10</v>
+      </c>
+      <c r="H22" s="146">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C23" s="159" t="s">
+        <v>231</v>
+      </c>
+      <c r="D23" s="145" t="s">
+        <v>354</v>
+      </c>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145">
+        <v>1</v>
+      </c>
+      <c r="G23" s="145">
+        <v>120</v>
+      </c>
+      <c r="H23" s="146">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C24" s="159"/>
+      <c r="D24" s="148" t="s">
+        <v>356</v>
+      </c>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145">
+        <v>1</v>
+      </c>
+      <c r="G24" s="145">
+        <v>60</v>
+      </c>
+      <c r="H24" s="146">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C25" s="159"/>
+      <c r="D25" s="148" t="s">
+        <v>357</v>
+      </c>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145">
+        <v>1</v>
+      </c>
+      <c r="G25" s="145">
+        <v>120</v>
+      </c>
+      <c r="H25" s="146">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C26" s="159" t="s">
+        <v>234</v>
+      </c>
+      <c r="D26" s="148" t="s">
+        <v>358</v>
+      </c>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145">
+        <v>1</v>
+      </c>
+      <c r="G26" s="145">
+        <v>120</v>
+      </c>
+      <c r="H26" s="146">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C27" s="159"/>
+      <c r="D27" s="148" t="s">
+        <v>359</v>
+      </c>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145">
+        <v>5</v>
+      </c>
+      <c r="G27" s="145">
+        <v>20</v>
+      </c>
+      <c r="H27" s="146">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C28" s="159"/>
+      <c r="D28" s="148" t="s">
+        <v>360</v>
+      </c>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145">
+        <v>1</v>
+      </c>
+      <c r="G28" s="145">
+        <v>60</v>
+      </c>
+      <c r="H28" s="146">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C29" s="159"/>
+      <c r="D29" s="148" t="s">
+        <v>361</v>
+      </c>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145">
+        <f>物量試算!G16</f>
+        <v>6</v>
+      </c>
+      <c r="G29" s="145">
+        <v>60</v>
+      </c>
+      <c r="H29" s="146">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C30" s="159" t="s">
+        <v>362</v>
+      </c>
+      <c r="D30" s="161"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145">
+        <v>1</v>
+      </c>
+      <c r="G30" s="145">
+        <v>180</v>
+      </c>
+      <c r="H30" s="146">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C31" s="159" t="s">
+        <v>346</v>
+      </c>
+      <c r="D31" s="161"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145">
+        <v>1</v>
+      </c>
+      <c r="G31" s="145">
+        <v>180</v>
+      </c>
+      <c r="H31" s="146">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C32" s="163" t="s">
+        <v>347</v>
+      </c>
+      <c r="D32" s="161"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145">
+        <v>1</v>
+      </c>
+      <c r="G32" s="145">
+        <v>60</v>
+      </c>
+      <c r="H32" s="146">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C33" s="159" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="161"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145">
+        <f>物量試算!G10</f>
+        <v>30</v>
+      </c>
+      <c r="G33" s="145">
+        <v>15</v>
+      </c>
+      <c r="H33" s="146">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C34" s="159" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="161"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145">
+        <f>物量試算!G11</f>
+        <v>30</v>
+      </c>
+      <c r="G34" s="145">
+        <v>15</v>
+      </c>
+      <c r="H34" s="146">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C35" s="159" t="s">
+        <v>256</v>
+      </c>
+      <c r="D35" s="145" t="s">
+        <v>363</v>
+      </c>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145">
+        <v>1</v>
+      </c>
+      <c r="G35" s="145">
+        <v>40</v>
+      </c>
+      <c r="H35" s="146">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C36" s="159"/>
+      <c r="D36" s="145" t="s">
+        <v>364</v>
+      </c>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145">
+        <v>1</v>
+      </c>
+      <c r="G36" s="145">
+        <v>20</v>
+      </c>
+      <c r="H36" s="146">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C37" s="159"/>
+      <c r="D37" s="145" t="s">
+        <v>365</v>
+      </c>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145">
+        <f>物量試算!G8</f>
+        <v>20</v>
+      </c>
+      <c r="G37" s="145">
+        <v>10</v>
+      </c>
+      <c r="H37" s="146">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C38" s="163" t="s">
+        <v>270</v>
+      </c>
+      <c r="D38" s="145" t="s">
+        <v>366</v>
+      </c>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145">
+        <v>1</v>
+      </c>
+      <c r="G38" s="145">
+        <v>20</v>
+      </c>
+      <c r="H38" s="146">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C39" s="159"/>
+      <c r="D39" s="148" t="s">
+        <v>367</v>
+      </c>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145">
+        <v>1</v>
+      </c>
+      <c r="G39" s="145">
+        <v>20</v>
+      </c>
+      <c r="H39" s="146">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C40" s="159"/>
+      <c r="D40" s="148" t="s">
+        <v>368</v>
+      </c>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145">
+        <f>物量試算!G9</f>
+        <v>20</v>
+      </c>
+      <c r="G40" s="145">
+        <v>5</v>
+      </c>
+      <c r="H40" s="146">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C41" s="159" t="s">
+        <v>348</v>
+      </c>
+      <c r="D41" s="161"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145">
+        <v>1</v>
+      </c>
+      <c r="G41" s="145">
+        <v>20</v>
+      </c>
+      <c r="H41" s="146">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C42" s="159" t="s">
+        <v>349</v>
+      </c>
+      <c r="D42" s="161"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145">
+        <v>1</v>
+      </c>
+      <c r="G42" s="145">
+        <v>20</v>
+      </c>
+      <c r="H42" s="146">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C43" s="163" t="s">
+        <v>246</v>
+      </c>
+      <c r="D43" s="145" t="s">
+        <v>370</v>
+      </c>
+      <c r="E43" s="145"/>
+      <c r="F43" s="145">
+        <v>1</v>
+      </c>
+      <c r="G43" s="145">
+        <v>40</v>
+      </c>
+      <c r="H43" s="146">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C44" s="159"/>
+      <c r="D44" s="145" t="s">
+        <v>369</v>
+      </c>
+      <c r="E44" s="145"/>
+      <c r="F44" s="145">
+        <v>1</v>
+      </c>
+      <c r="G44" s="145">
+        <v>60</v>
+      </c>
+      <c r="H44" s="146">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C45" s="159"/>
+      <c r="D45" s="145" t="s">
+        <v>371</v>
+      </c>
+      <c r="E45" s="145"/>
+      <c r="F45" s="145">
+        <v>1</v>
+      </c>
+      <c r="G45" s="145">
+        <v>60</v>
+      </c>
+      <c r="H45" s="146">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C46" s="159" t="s">
+        <v>372</v>
+      </c>
+      <c r="D46" s="161"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145">
+        <v>1</v>
+      </c>
+      <c r="G46" s="145">
+        <v>60</v>
+      </c>
+      <c r="H46" s="146">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C47" s="159" t="s">
+        <v>373</v>
+      </c>
+      <c r="D47" s="161"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145">
+        <v>1</v>
+      </c>
+      <c r="G47" s="145">
+        <v>40</v>
+      </c>
+      <c r="H47" s="146">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C48" s="159" t="s">
+        <v>374</v>
+      </c>
+      <c r="D48" s="161"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145">
+        <v>20</v>
+      </c>
+      <c r="G48" s="145">
+        <v>3</v>
+      </c>
+      <c r="H48" s="146">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C49" s="159" t="s">
+        <v>375</v>
+      </c>
+      <c r="D49" s="161"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="145">
+        <v>1</v>
+      </c>
+      <c r="G49" s="145">
+        <v>20</v>
+      </c>
+      <c r="H49" s="146">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C50" s="159" t="s">
+        <v>376</v>
+      </c>
+      <c r="D50" s="161"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145">
+        <v>1</v>
+      </c>
+      <c r="G50" s="145">
+        <v>20</v>
+      </c>
+      <c r="H50" s="146">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C51" s="159" t="s">
+        <v>377</v>
+      </c>
+      <c r="D51" s="161"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="145">
+        <v>1</v>
+      </c>
+      <c r="G51" s="145">
+        <v>40</v>
+      </c>
+      <c r="H51" s="146">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C52" s="159" t="s">
+        <v>378</v>
+      </c>
+      <c r="D52" s="161"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145">
+        <v>1</v>
+      </c>
+      <c r="G52" s="145">
+        <v>20</v>
+      </c>
+      <c r="H52" s="146">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C53" s="159" t="s">
+        <v>379</v>
+      </c>
+      <c r="D53" s="161"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145">
+        <v>1</v>
+      </c>
+      <c r="G53" s="145">
+        <v>60</v>
+      </c>
+      <c r="H53" s="146">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C54" s="159" t="s">
+        <v>399</v>
+      </c>
+      <c r="D54" s="161"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145">
+        <v>1</v>
+      </c>
+      <c r="G54" s="145">
+        <v>120</v>
+      </c>
+      <c r="H54" s="146">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C55" s="159" t="s">
+        <v>386</v>
+      </c>
+      <c r="D55" s="145" t="s">
+        <v>380</v>
+      </c>
+      <c r="E55" s="145"/>
+      <c r="F55" s="145">
+        <v>1</v>
+      </c>
+      <c r="G55" s="145">
+        <v>5</v>
+      </c>
+      <c r="H55" s="146">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C56" s="159"/>
+      <c r="D56" s="145" t="s">
+        <v>381</v>
+      </c>
+      <c r="E56" s="145"/>
+      <c r="F56" s="145">
+        <v>1</v>
+      </c>
+      <c r="G56" s="145">
+        <v>5</v>
+      </c>
+      <c r="H56" s="146">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C57" s="159"/>
+      <c r="D57" s="145" t="s">
+        <v>382</v>
+      </c>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145">
+        <v>1</v>
+      </c>
+      <c r="G57" s="145">
+        <v>40</v>
+      </c>
+      <c r="H57" s="146">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C58" s="159"/>
+      <c r="D58" s="145" t="s">
+        <v>383</v>
+      </c>
+      <c r="E58" s="145"/>
+      <c r="F58" s="145">
+        <v>1</v>
+      </c>
+      <c r="G58" s="145">
+        <v>30</v>
+      </c>
+      <c r="H58" s="146">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C59" s="159"/>
+      <c r="D59" s="145" t="s">
+        <v>384</v>
+      </c>
+      <c r="E59" s="145"/>
+      <c r="F59" s="145">
+        <f>UI工数試算表!F20</f>
+        <v>10</v>
+      </c>
+      <c r="G59" s="145">
+        <v>5</v>
+      </c>
+      <c r="H59" s="146">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C60" s="159" t="s">
+        <v>387</v>
+      </c>
+      <c r="D60" s="161"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="145">
+        <v>1</v>
+      </c>
+      <c r="G60" s="145">
+        <v>30</v>
+      </c>
+      <c r="H60" s="146">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C61" s="159" t="s">
+        <v>388</v>
+      </c>
+      <c r="D61" s="161"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="145">
+        <v>1</v>
+      </c>
+      <c r="G61" s="145">
+        <v>40</v>
+      </c>
+      <c r="H61" s="146">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C62" s="159" t="s">
+        <v>389</v>
+      </c>
+      <c r="D62" s="161"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="145">
+        <v>1</v>
+      </c>
+      <c r="G62" s="145">
+        <v>30</v>
+      </c>
+      <c r="H62" s="146">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C63" s="159" t="s">
+        <v>390</v>
+      </c>
+      <c r="D63" s="161"/>
+      <c r="E63" s="145"/>
+      <c r="F63" s="145">
+        <v>1</v>
+      </c>
+      <c r="G63" s="145">
+        <v>60</v>
+      </c>
+      <c r="H63" s="146">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C64" s="159" t="s">
+        <v>391</v>
+      </c>
+      <c r="D64" s="161"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="145">
+        <v>1</v>
+      </c>
+      <c r="G64" s="145">
+        <v>30</v>
+      </c>
+      <c r="H64" s="146">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C65" s="159" t="s">
+        <v>392</v>
+      </c>
+      <c r="D65" s="161"/>
+      <c r="E65" s="145"/>
+      <c r="F65" s="145">
+        <v>1</v>
+      </c>
+      <c r="G65" s="145">
+        <v>30</v>
+      </c>
+      <c r="H65" s="146">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C66" s="159" t="s">
+        <v>393</v>
+      </c>
+      <c r="D66" s="161"/>
+      <c r="E66" s="145"/>
+      <c r="F66" s="145">
+        <v>1</v>
+      </c>
+      <c r="G66" s="145">
+        <v>40</v>
+      </c>
+      <c r="H66" s="146">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C67" s="159" t="s">
+        <v>394</v>
+      </c>
+      <c r="D67" s="161"/>
+      <c r="E67" s="145"/>
+      <c r="F67" s="145">
+        <f>UI工数試算表!F28</f>
+        <v>20</v>
+      </c>
+      <c r="G67" s="145">
+        <v>2</v>
+      </c>
+      <c r="H67" s="146">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C68" s="159" t="s">
+        <v>395</v>
+      </c>
+      <c r="D68" s="161"/>
+      <c r="E68" s="145"/>
+      <c r="F68" s="145">
+        <f>物量試算!G14</f>
+        <v>100</v>
+      </c>
+      <c r="G68" s="145">
+        <v>0.25</v>
+      </c>
+      <c r="H68" s="146">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C69" s="159" t="s">
+        <v>396</v>
+      </c>
+      <c r="D69" s="161"/>
+      <c r="E69" s="145"/>
+      <c r="F69" s="145">
+        <f>物量試算!G15</f>
+        <v>10</v>
+      </c>
+      <c r="G69" s="145">
+        <v>2</v>
+      </c>
+      <c r="H69" s="146">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C70" s="159" t="s">
+        <v>385</v>
+      </c>
+      <c r="D70" s="161"/>
+      <c r="E70" s="145"/>
+      <c r="F70" s="145">
+        <v>1</v>
+      </c>
+      <c r="G70" s="145">
+        <v>60</v>
+      </c>
+      <c r="H70" s="146">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C71" s="159" t="s">
+        <v>398</v>
+      </c>
+      <c r="D71" s="161"/>
+      <c r="E71" s="145" t="s">
+        <v>406</v>
+      </c>
+      <c r="F71" s="145">
+        <v>1</v>
+      </c>
+      <c r="G71" s="145">
+        <v>120</v>
+      </c>
+      <c r="H71" s="146">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C72" s="159" t="s">
+        <v>404</v>
+      </c>
+      <c r="D72" s="161"/>
+      <c r="E72" s="145" t="s">
+        <v>405</v>
+      </c>
+      <c r="F72" s="145">
+        <v>1</v>
+      </c>
+      <c r="G72" s="145">
+        <v>80</v>
+      </c>
+      <c r="H72" s="146">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C73" s="159" t="s">
+        <v>407</v>
+      </c>
+      <c r="D73" s="161"/>
+      <c r="E73" s="145"/>
+      <c r="F73" s="145">
+        <v>1</v>
+      </c>
+      <c r="G73" s="145">
+        <v>360</v>
+      </c>
+      <c r="H73" s="146">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C74" s="159" t="s">
+        <v>408</v>
+      </c>
+      <c r="D74" s="161"/>
+      <c r="E74" s="145" t="s">
+        <v>409</v>
+      </c>
+      <c r="F74" s="145">
+        <v>1</v>
+      </c>
+      <c r="G74" s="145">
+        <v>180</v>
+      </c>
+      <c r="H74" s="146">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C75" s="164" t="s">
+        <v>410</v>
+      </c>
+      <c r="D75" s="165"/>
+      <c r="E75" s="150"/>
+      <c r="F75" s="150">
+        <v>1</v>
+      </c>
+      <c r="G75" s="150">
+        <v>120</v>
+      </c>
+      <c r="H75" s="169">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C15:D15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C25833-1334-403B-BD14-E0E2032C1BEB}">
   <dimension ref="C1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8217,208 +10553,213 @@
   <sheetData>
     <row r="1" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="E2" s="141" t="s">
-        <v>214</v>
-      </c>
-      <c r="F2" s="139">
+      <c r="E2" s="182" t="s">
+        <v>427</v>
+      </c>
+      <c r="F2" s="106">
         <f>SUM(F9:F88)</f>
-        <v>2321</v>
-      </c>
-      <c r="G2" s="136" t="s">
+        <v>1701</v>
+      </c>
+      <c r="G2" s="103" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="E3" s="142" t="s">
+      <c r="E3" s="183" t="s">
         <v>215</v>
       </c>
-      <c r="F3" s="134">
+      <c r="F3" s="101">
         <f>SUM(H9:H88)</f>
-        <v>7620</v>
-      </c>
-      <c r="G3" s="137" t="s">
+        <v>5780</v>
+      </c>
+      <c r="G3" s="104" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="E4" s="142" t="s">
+      <c r="E4" s="183" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="134">
+      <c r="F4" s="101">
         <f>F3/20</f>
-        <v>381</v>
-      </c>
-      <c r="G4" s="137" t="s">
+        <v>289</v>
+      </c>
+      <c r="G4" s="104" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="E5" s="142" t="s">
+      <c r="E5" s="183" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="135">
-        <v>850000</v>
-      </c>
-      <c r="G5" s="137" t="s">
+      <c r="F5" s="102">
+        <v>800000</v>
+      </c>
+      <c r="G5" s="104" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="6" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E6" s="143" t="s">
+      <c r="E6" s="184" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="140">
+      <c r="F6" s="107">
         <f>F4*F5</f>
-        <v>323850000</v>
-      </c>
-      <c r="G6" s="138" t="s">
+        <v>231200000</v>
+      </c>
+      <c r="G6" s="105" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C8" s="132" t="s">
-        <v>323</v>
-      </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="133" t="s">
+    <row r="7" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="166" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="172"/>
+      <c r="E8" s="157" t="s">
         <v>197</v>
       </c>
-      <c r="F8" s="133" t="s">
+      <c r="F8" s="157" t="s">
         <v>175</v>
       </c>
-      <c r="G8" s="133" t="s">
+      <c r="G8" s="157" t="s">
         <v>176</v>
       </c>
-      <c r="H8" s="133" t="s">
+      <c r="H8" s="173" t="s">
         <v>213</v>
       </c>
-      <c r="I8" s="131"/>
+      <c r="I8" s="99"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C9" s="129" t="s">
-        <v>338</v>
-      </c>
-      <c r="D9" s="129"/>
-      <c r="E9" t="s">
-        <v>339</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
+      <c r="C9" s="170" t="s">
+        <v>335</v>
+      </c>
+      <c r="D9" s="171"/>
+      <c r="E9" s="154" t="s">
+        <v>336</v>
+      </c>
+      <c r="F9" s="154">
+        <v>1</v>
+      </c>
+      <c r="G9" s="154">
         <v>720</v>
       </c>
-      <c r="H9">
-        <f>F9*G9</f>
+      <c r="H9" s="155">
+        <f t="shared" ref="H9:H15" si="0">F9*G9</f>
         <v>720</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C10" s="129" t="s">
-        <v>255</v>
-      </c>
-      <c r="D10" s="129"/>
-      <c r="F10">
+      <c r="C10" s="159" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="161"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145">
         <v>1000</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="145">
         <v>3</v>
       </c>
-      <c r="H10">
-        <f>F10*G10</f>
+      <c r="H10" s="146">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C11" s="129" t="s">
-        <v>258</v>
-      </c>
-      <c r="D11" s="129"/>
-      <c r="F11">
+      <c r="C11" s="159" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="161"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145">
         <f>物量試算!G8</f>
         <v>20</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="145">
         <v>5</v>
       </c>
-      <c r="H11">
-        <f>F11*G11</f>
+      <c r="H11" s="146">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C12" s="129" t="s">
-        <v>272</v>
-      </c>
-      <c r="D12" s="129"/>
-      <c r="E12" s="128"/>
-      <c r="F12">
+      <c r="C12" s="159" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="161"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="145">
         <f>物量試算!G9</f>
         <v>20</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="145">
         <v>2</v>
       </c>
-      <c r="H12">
-        <f>F12*G12</f>
+      <c r="H12" s="146">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="159" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="128"/>
-      <c r="F13">
+      <c r="D13" s="161"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="145">
         <f>物量試算!G10</f>
-        <v>40</v>
-      </c>
-      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="G13" s="145">
         <v>2</v>
       </c>
-      <c r="H13">
-        <f>F13*G13</f>
-        <v>80</v>
+      <c r="H13" s="146">
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C14" s="129" t="s">
+      <c r="C14" s="159" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="129"/>
-      <c r="F14">
+      <c r="D14" s="161"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145">
         <f>物量試算!G11</f>
-        <v>40</v>
-      </c>
-      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="G14" s="145">
         <v>2</v>
       </c>
-      <c r="H14">
-        <f>F14*G14</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C15" s="129" t="s">
-        <v>332</v>
-      </c>
-      <c r="D15" s="129"/>
-      <c r="F15">
+      <c r="H14" s="146">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="164" t="s">
+        <v>329</v>
+      </c>
+      <c r="D15" s="165"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150">
         <f>物量試算!G16*100</f>
-        <v>1200</v>
-      </c>
-      <c r="G15">
+        <v>600</v>
+      </c>
+      <c r="G15" s="150">
         <v>3</v>
       </c>
-      <c r="H15">
-        <f>F15*G15</f>
-        <v>3600</v>
+      <c r="H15" s="169">
+        <f t="shared" si="0"/>
+        <v>1800</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8437,12 +10778,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AF688B-00AF-44A9-8695-A28B9E4133F2}">
-  <dimension ref="C1:I31"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0B030C-FEBA-407F-AAF5-885F3BA9C465}">
+  <dimension ref="C1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8457,538 +10798,808 @@
   <sheetData>
     <row r="1" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="E2" s="141" t="s">
+      <c r="E2" s="182" t="s">
+        <v>428</v>
+      </c>
+      <c r="F2" s="106">
+        <f>SUM(F9:F88)</f>
+        <v>1821</v>
+      </c>
+      <c r="G2" s="103" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E3" s="183" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="101">
+        <f>SUM(H9:H88)</f>
+        <v>5120</v>
+      </c>
+      <c r="G3" s="104" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E4" s="183" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="101">
+        <f>F3/20</f>
+        <v>256</v>
+      </c>
+      <c r="G4" s="104" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E5" s="183" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="102">
+        <v>800000</v>
+      </c>
+      <c r="G5" s="104" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E6" s="184" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="107">
+        <f>F4*F5</f>
+        <v>204800000</v>
+      </c>
+      <c r="G6" s="105" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="166" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="172"/>
+      <c r="E8" s="157" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="173" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="99"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C9" s="170" t="s">
+        <v>413</v>
+      </c>
+      <c r="D9" s="171"/>
+      <c r="E9" s="154" t="s">
+        <v>414</v>
+      </c>
+      <c r="F9" s="154">
+        <v>1</v>
+      </c>
+      <c r="G9" s="154">
+        <v>720</v>
+      </c>
+      <c r="H9" s="155">
+        <f t="shared" ref="H9:H17" si="0">F9*G9</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C10" s="159" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="161"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="145">
+        <v>2</v>
+      </c>
+      <c r="H10" s="146">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C11" s="159" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="161"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145">
+        <f>物量試算!G8</f>
+        <v>20</v>
+      </c>
+      <c r="G11" s="145">
+        <v>2</v>
+      </c>
+      <c r="H11" s="146">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C12" s="159" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="161"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="145">
+        <f>物量試算!G9</f>
+        <v>20</v>
+      </c>
+      <c r="G12" s="145">
+        <v>2</v>
+      </c>
+      <c r="H12" s="146">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C13" s="159" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="161"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="145">
+        <f>物量試算!G10</f>
+        <v>30</v>
+      </c>
+      <c r="G13" s="145">
+        <v>2</v>
+      </c>
+      <c r="H13" s="146">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C14" s="159" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="161"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145">
+        <f>物量試算!G11</f>
+        <v>30</v>
+      </c>
+      <c r="G14" s="145">
+        <v>2</v>
+      </c>
+      <c r="H14" s="146">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C15" s="159" t="s">
+        <v>329</v>
+      </c>
+      <c r="D15" s="161"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145">
+        <f>物量試算!G16*100</f>
+        <v>600</v>
+      </c>
+      <c r="G15" s="145">
+        <v>2</v>
+      </c>
+      <c r="H15" s="146">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C16" s="159" t="s">
+        <v>415</v>
+      </c>
+      <c r="D16" s="161"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145">
+        <v>100</v>
+      </c>
+      <c r="G16" s="145">
+        <v>2</v>
+      </c>
+      <c r="H16" s="146">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="164" t="s">
+        <v>416</v>
+      </c>
+      <c r="D17" s="165"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150">
+        <v>20</v>
+      </c>
+      <c r="G17" s="150">
+        <v>40</v>
+      </c>
+      <c r="H17" s="169">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AF688B-00AF-44A9-8695-A28B9E4133F2}">
+  <dimension ref="C1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="50.75" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E2" s="182" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="139">
+      <c r="F2" s="106">
         <f>SUM(F9:F103)</f>
         <v>201</v>
       </c>
-      <c r="G2" s="136" t="s">
+      <c r="G2" s="103" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="E3" s="142" t="s">
+      <c r="E3" s="183" t="s">
         <v>215</v>
       </c>
-      <c r="F3" s="134">
+      <c r="F3" s="101">
         <f>SUM(H9:H103)</f>
         <v>1550</v>
       </c>
-      <c r="G3" s="137" t="s">
+      <c r="G3" s="104" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="E4" s="142" t="s">
+      <c r="E4" s="183" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="134">
+      <c r="F4" s="101">
         <f>F3/20</f>
         <v>77.5</v>
       </c>
-      <c r="G4" s="137" t="s">
+      <c r="G4" s="104" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="E5" s="142" t="s">
+      <c r="E5" s="183" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="135">
-        <v>850000</v>
-      </c>
-      <c r="G5" s="137" t="s">
+      <c r="F5" s="102">
+        <v>800000</v>
+      </c>
+      <c r="G5" s="104" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="6" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E6" s="143" t="s">
+      <c r="E6" s="184" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="140">
+      <c r="F6" s="107">
         <f>F4*F5</f>
-        <v>65875000</v>
-      </c>
-      <c r="G6" s="138" t="s">
+        <v>62000000</v>
+      </c>
+      <c r="G6" s="105" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C8" s="132" t="s">
-        <v>322</v>
-      </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="133" t="s">
+    <row r="7" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="166" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" s="172"/>
+      <c r="E8" s="157" t="s">
         <v>197</v>
       </c>
-      <c r="F8" s="133" t="s">
+      <c r="F8" s="157" t="s">
         <v>175</v>
       </c>
-      <c r="G8" s="133" t="s">
+      <c r="G8" s="157" t="s">
         <v>176</v>
       </c>
-      <c r="H8" s="133" t="s">
+      <c r="H8" s="173" t="s">
         <v>213</v>
       </c>
-      <c r="I8" s="131"/>
+      <c r="I8" s="99"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C9" s="129" t="s">
-        <v>304</v>
-      </c>
-      <c r="D9" s="129"/>
-      <c r="E9" t="s">
-        <v>302</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
+      <c r="C9" s="170" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="171"/>
+      <c r="E9" s="154" t="s">
+        <v>300</v>
+      </c>
+      <c r="F9" s="154">
+        <v>1</v>
+      </c>
+      <c r="G9" s="154">
         <v>720</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="155">
         <f>F9*G9</f>
         <v>720</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="159" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="129"/>
-      <c r="E10" t="s">
+      <c r="D10" s="161"/>
+      <c r="E10" s="145" t="s">
         <v>145</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="145">
+        <v>1</v>
+      </c>
+      <c r="G10" s="145">
         <v>20</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="146">
         <f>F10*G10</f>
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="159" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="129"/>
-      <c r="E11" t="s">
+      <c r="D11" s="161"/>
+      <c r="E11" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="145">
+        <v>1</v>
+      </c>
+      <c r="G11" s="145">
         <v>30</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="146">
         <f t="shared" ref="H11:H31" si="0">F11*G11</f>
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="3:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="129"/>
-      <c r="E12" s="128" t="s">
+      <c r="D12" s="161"/>
+      <c r="E12" s="168" t="s">
         <v>149</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="145">
+        <v>1</v>
+      </c>
+      <c r="G12" s="145">
         <v>30</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="146">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="3:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="159" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="128" t="s">
+      <c r="D13" s="161"/>
+      <c r="E13" s="168" t="s">
         <v>151</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="145">
+        <v>1</v>
+      </c>
+      <c r="G13" s="145">
         <v>30</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="146">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C14" s="129" t="s">
+      <c r="C14" s="159" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="129"/>
-      <c r="E14" t="s">
+      <c r="D14" s="161"/>
+      <c r="E14" s="145" t="s">
         <v>153</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="145">
+        <v>1</v>
+      </c>
+      <c r="G14" s="145">
         <v>40</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="146">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C15" s="129" t="s">
+      <c r="C15" s="159" t="s">
         <v>154</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="145" t="s">
         <v>177</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="145" t="s">
         <v>183</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="145">
+        <v>1</v>
+      </c>
+      <c r="G15" s="145">
         <v>10</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="146">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C16" s="129"/>
-      <c r="D16" t="s">
+      <c r="C16" s="159"/>
+      <c r="D16" s="145" t="s">
         <v>178</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="145" t="s">
         <v>184</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="145">
+        <v>1</v>
+      </c>
+      <c r="G16" s="145">
         <v>10</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="146">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C17" s="129"/>
-      <c r="D17" t="s">
+      <c r="C17" s="159"/>
+      <c r="D17" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="145" t="s">
         <v>185</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="145">
+        <v>1</v>
+      </c>
+      <c r="G17" s="145">
         <v>40</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="146">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C18" s="129"/>
-      <c r="D18" t="s">
+      <c r="C18" s="159"/>
+      <c r="D18" s="145" t="s">
         <v>181</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="145" t="s">
         <v>186</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="145">
+        <v>1</v>
+      </c>
+      <c r="G18" s="145">
         <v>20</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="146">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C19" s="129"/>
-      <c r="D19" t="s">
+      <c r="C19" s="159"/>
+      <c r="D19" s="145" t="s">
         <v>180</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="145" t="s">
         <v>187</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="145">
         <f>物量試算!G8</f>
         <v>20</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="145">
         <v>3</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="146">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C20" s="129"/>
-      <c r="D20" t="s">
+      <c r="C20" s="159"/>
+      <c r="D20" s="145" t="s">
         <v>182</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="145" t="s">
         <v>188</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="145">
         <v>10</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="145">
         <v>3</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="146">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C21" s="129" t="s">
+      <c r="C21" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="D21" s="129"/>
-      <c r="E21" t="s">
+      <c r="D21" s="161"/>
+      <c r="E21" s="145" t="s">
         <v>156</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
+      <c r="F21" s="145">
+        <v>1</v>
+      </c>
+      <c r="G21" s="145">
         <v>20</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="146">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C22" s="129" t="s">
+      <c r="C22" s="159" t="s">
         <v>157</v>
       </c>
-      <c r="D22" s="129"/>
-      <c r="E22" t="s">
+      <c r="D22" s="161"/>
+      <c r="E22" s="145" t="s">
         <v>158</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="145">
         <v>5</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="145">
         <v>10</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="146">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C23" s="129" t="s">
+      <c r="C23" s="159" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="129"/>
-      <c r="E23" t="s">
+      <c r="D23" s="161"/>
+      <c r="E23" s="145" t="s">
         <v>160</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
+      <c r="F23" s="145">
+        <v>1</v>
+      </c>
+      <c r="G23" s="145">
         <v>30</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="146">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C24" s="129" t="s">
+      <c r="C24" s="159" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="129"/>
-      <c r="E24" t="s">
+      <c r="D24" s="161"/>
+      <c r="E24" s="145" t="s">
         <v>162</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
+      <c r="F24" s="145">
+        <v>1</v>
+      </c>
+      <c r="G24" s="145">
         <v>40</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="146">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C25" s="129" t="s">
+      <c r="C25" s="159" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="129"/>
-      <c r="E25" t="s">
+      <c r="D25" s="161"/>
+      <c r="E25" s="145" t="s">
         <v>164</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
+      <c r="F25" s="145">
+        <v>1</v>
+      </c>
+      <c r="G25" s="145">
         <v>30</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="146">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C26" s="129" t="s">
+      <c r="C26" s="159" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="129"/>
-      <c r="E26" t="s">
+      <c r="D26" s="161"/>
+      <c r="E26" s="145" t="s">
         <v>166</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
+      <c r="F26" s="145">
+        <v>1</v>
+      </c>
+      <c r="G26" s="145">
         <v>30</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="146">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C27" s="129" t="s">
+      <c r="C27" s="159" t="s">
         <v>167</v>
       </c>
-      <c r="D27" s="129"/>
-      <c r="E27" t="s">
+      <c r="D27" s="161"/>
+      <c r="E27" s="145" t="s">
         <v>168</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
+      <c r="F27" s="145">
+        <v>1</v>
+      </c>
+      <c r="G27" s="145">
         <v>20</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="146">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C28" s="129" t="s">
+      <c r="C28" s="159" t="s">
         <v>169</v>
       </c>
-      <c r="D28" s="129"/>
-      <c r="E28" t="s">
+      <c r="D28" s="161"/>
+      <c r="E28" s="145" t="s">
         <v>170</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="145">
         <v>20</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="145">
         <v>5</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="146">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C29" s="129" t="s">
+      <c r="C29" s="159" t="s">
         <v>171</v>
       </c>
-      <c r="D29" s="129"/>
-      <c r="E29" t="s">
+      <c r="D29" s="161"/>
+      <c r="E29" s="145" t="s">
         <v>172</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="145">
         <f>物量試算!G14</f>
         <v>100</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
+      <c r="G29" s="145">
+        <v>1</v>
+      </c>
+      <c r="H29" s="146">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C30" s="129" t="s">
+      <c r="C30" s="159" t="s">
         <v>173</v>
       </c>
-      <c r="D30" s="129"/>
-      <c r="E30" t="s">
+      <c r="D30" s="161"/>
+      <c r="E30" s="145" t="s">
         <v>174</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="145">
         <f>物量試算!G15</f>
         <v>10</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="145">
         <v>5</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="146">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C31" s="129" t="s">
+    <row r="31" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C31" s="164" t="s">
         <v>195</v>
       </c>
-      <c r="D31" s="129"/>
-      <c r="E31" t="s">
+      <c r="D31" s="165"/>
+      <c r="E31" s="150" t="s">
         <v>196</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="150">
         <f>物量試算!G9</f>
         <v>20</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="150">
         <v>2</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="169">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
@@ -8998,6 +11609,222 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D56576-1BE3-4101-966B-BC9297401472}">
+  <dimension ref="C1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="50.75" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E2" s="182" t="s">
+        <v>428</v>
+      </c>
+      <c r="F2" s="106">
+        <f>SUM(F9:F88)</f>
+        <v>10000000</v>
+      </c>
+      <c r="G2" s="103" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E3" s="183" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="101">
+        <f>SUM(H9:H88)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="104" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E4" s="183" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="101">
+        <f>F3/20</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="104" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="E5" s="183" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="102">
+        <v>800000</v>
+      </c>
+      <c r="G5" s="104" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E6" s="184" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="107">
+        <f>F4*F5</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="105" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="166" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="172"/>
+      <c r="E8" s="157" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="157" t="s">
+        <v>439</v>
+      </c>
+      <c r="G8" s="157"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="99"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C9" s="170" t="s">
+        <v>429</v>
+      </c>
+      <c r="D9" s="171"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="186">
+        <v>10000000</v>
+      </c>
+      <c r="G9" s="154"/>
+      <c r="H9" s="155"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C10" s="159" t="s">
+        <v>432</v>
+      </c>
+      <c r="D10" s="161"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="146"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C11" s="159" t="s">
+        <v>433</v>
+      </c>
+      <c r="D11" s="161"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="146"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C12" s="159" t="s">
+        <v>430</v>
+      </c>
+      <c r="D12" s="161"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="146"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C13" s="159" t="s">
+        <v>434</v>
+      </c>
+      <c r="D13" s="161"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="146"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C14" s="159" t="s">
+        <v>435</v>
+      </c>
+      <c r="D14" s="161"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="146"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C15" s="159" t="s">
+        <v>431</v>
+      </c>
+      <c r="D15" s="161"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="146"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C16" s="159" t="s">
+        <v>436</v>
+      </c>
+      <c r="D16" s="161"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="146"/>
+    </row>
+    <row r="17" spans="3:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="164" t="s">
+        <v>437</v>
+      </c>
+      <c r="D17" s="165"/>
+      <c r="E17" s="185" t="s">
+        <v>438</v>
+      </c>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="169"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9008,7 +11835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AM43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -9032,11 +11859,11 @@
     <row r="4" spans="2:6" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="98"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="123"/>
     </row>
     <row r="5" spans="2:6" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="21"/>
@@ -9052,25 +11879,25 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="104"/>
+      <c r="C6" s="127"/>
       <c r="D6" s="18"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="107"/>
+      <c r="C7" s="129"/>
       <c r="D7" s="18"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="108"/>
+      <c r="B8" s="130"/>
       <c r="C8" s="16" t="s">
         <v>37</v>
       </c>
@@ -9079,7 +11906,7 @@
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="108"/>
+      <c r="B9" s="130"/>
       <c r="C9" s="16" t="s">
         <v>34</v>
       </c>
@@ -9088,7 +11915,7 @@
       <c r="F9" s="75"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="108"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="16" t="s">
         <v>36</v>
       </c>
@@ -9097,7 +11924,7 @@
       <c r="F10" s="75"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="108"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="16" t="s">
         <v>133</v>
       </c>
@@ -9106,7 +11933,7 @@
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="108"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="16" t="s">
         <v>133</v>
       </c>
@@ -9115,16 +11942,16 @@
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="110"/>
+      <c r="C13" s="132"/>
       <c r="D13" s="18"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="108"/>
+      <c r="B14" s="130"/>
       <c r="C14" s="16" t="s">
         <v>133</v>
       </c>
@@ -9133,7 +11960,7 @@
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="108"/>
+      <c r="B15" s="130"/>
       <c r="C15" s="16" t="s">
         <v>133</v>
       </c>
@@ -9142,7 +11969,7 @@
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="108"/>
+      <c r="B16" s="130"/>
       <c r="C16" s="16" t="s">
         <v>133</v>
       </c>
@@ -9151,7 +11978,7 @@
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B17" s="108"/>
+      <c r="B17" s="130"/>
       <c r="C17" s="16" t="s">
         <v>133</v>
       </c>
@@ -9160,7 +11987,7 @@
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="2:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="111"/>
+      <c r="B18" s="133"/>
       <c r="C18" s="17" t="s">
         <v>133</v>
       </c>
@@ -9384,182 +12211,191 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="101" t="s">
+      <c r="E21" s="124"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="115" t="s">
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="101" t="s">
+      <c r="N21" s="118"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="T21" s="102"/>
-      <c r="U21" s="102"/>
-      <c r="V21" s="102"/>
-      <c r="W21" s="102"/>
-      <c r="X21" s="102"/>
-      <c r="Y21" s="102"/>
-      <c r="Z21" s="102"/>
-      <c r="AA21" s="102"/>
-      <c r="AB21" s="102"/>
-      <c r="AC21" s="102"/>
-      <c r="AD21" s="102"/>
-      <c r="AE21" s="115" t="s">
+      <c r="T21" s="120"/>
+      <c r="U21" s="120"/>
+      <c r="V21" s="120"/>
+      <c r="W21" s="120"/>
+      <c r="X21" s="120"/>
+      <c r="Y21" s="120"/>
+      <c r="Z21" s="120"/>
+      <c r="AA21" s="120"/>
+      <c r="AB21" s="120"/>
+      <c r="AC21" s="120"/>
+      <c r="AD21" s="120"/>
+      <c r="AE21" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="AF21" s="116"/>
-      <c r="AG21" s="116"/>
-      <c r="AH21" s="116"/>
-      <c r="AI21" s="116"/>
-      <c r="AJ21" s="116"/>
+      <c r="AF21" s="118"/>
+      <c r="AG21" s="118"/>
+      <c r="AH21" s="118"/>
+      <c r="AI21" s="118"/>
+      <c r="AJ21" s="118"/>
       <c r="AK21" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="AL21" s="113" t="s">
+      <c r="AL21" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="AM21" s="114"/>
+      <c r="AM21" s="116"/>
     </row>
     <row r="22" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E22" s="112" t="s">
+      <c r="E22" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="112"/>
+      <c r="F22" s="113"/>
     </row>
     <row r="23" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E23" s="105"/>
+      <c r="E23" s="114"/>
       <c r="F23" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E24" s="105"/>
+      <c r="E24" s="114"/>
       <c r="F24" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E25" s="105"/>
+      <c r="E25" s="114"/>
       <c r="F25" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E26" s="105"/>
+      <c r="E26" s="114"/>
       <c r="F26" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="27" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E27" s="105"/>
+      <c r="E27" s="114"/>
       <c r="F27" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="28" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E28" s="112" t="s">
+      <c r="E28" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="112"/>
+      <c r="F28" s="113"/>
     </row>
     <row r="29" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E29" s="105"/>
+      <c r="E29" s="114"/>
       <c r="F29" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E30" s="105"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E31" s="105"/>
+      <c r="E31" s="114"/>
       <c r="F31" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E32" s="105"/>
+      <c r="E32" s="114"/>
       <c r="F32" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E33" s="112" t="s">
+      <c r="E33" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="113"/>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E34" s="105"/>
+      <c r="E34" s="114"/>
       <c r="F34" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E35" s="105"/>
+      <c r="E35" s="114"/>
       <c r="F35" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E36" s="105"/>
+      <c r="E36" s="114"/>
       <c r="F36" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E37" s="105"/>
+      <c r="E37" s="114"/>
       <c r="F37" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E38" s="105"/>
+      <c r="E38" s="114"/>
       <c r="F38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E40" s="112" t="s">
+      <c r="E40" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="F40" s="112"/>
+      <c r="F40" s="113"/>
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E41" s="112" t="s">
+      <c r="E41" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="112"/>
+      <c r="F41" s="113"/>
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E42" s="112" t="s">
+      <c r="E42" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="112"/>
+      <c r="F42" s="113"/>
     </row>
     <row r="43" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E43" s="112" t="s">
+      <c r="E43" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="112"/>
+      <c r="F43" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B18"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:E27"/>
@@ -9573,15 +12409,6 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E40:F40"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9670,7 +12497,7 @@
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
       <c r="H8" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I8" s="36"/>
     </row>
@@ -9782,7 +12609,7 @@
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="30" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I17" s="36"/>
     </row>
@@ -9796,7 +12623,7 @@
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="29" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I18" s="36"/>
     </row>
@@ -9818,7 +12645,7 @@
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
       <c r="F20" s="29" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
@@ -9893,7 +12720,7 @@
   <dimension ref="B2:AM54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -9913,11 +12740,11 @@
     <row r="4" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B4" s="57"/>
       <c r="C4" s="60"/>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="118"/>
-      <c r="F4" s="119"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="140"/>
       <c r="G4" s="45" t="s">
         <v>0</v>
       </c>
@@ -12121,10 +14948,10 @@
       <c r="G44" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="H44" s="120" t="s">
+      <c r="H44" s="141" t="s">
         <v>122</v>
       </c>
-      <c r="I44" s="121"/>
+      <c r="I44" s="142"/>
     </row>
     <row r="45" spans="2:39" x14ac:dyDescent="0.4">
       <c r="E45" s="69">
@@ -12132,8 +14959,8 @@
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="117"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="134"/>
     </row>
     <row r="46" spans="2:39" x14ac:dyDescent="0.4">
       <c r="E46" s="69">
@@ -12141,8 +14968,8 @@
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="117"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="134"/>
     </row>
     <row r="47" spans="2:39" x14ac:dyDescent="0.4">
       <c r="E47" s="69">
@@ -12150,8 +14977,8 @@
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="117"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="134"/>
     </row>
     <row r="48" spans="2:39" x14ac:dyDescent="0.4">
       <c r="E48" s="69">
@@ -12159,8 +14986,8 @@
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="117"/>
+      <c r="H48" s="114"/>
+      <c r="I48" s="134"/>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.4">
       <c r="E49" s="69">
@@ -12168,8 +14995,8 @@
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="117"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="134"/>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.4">
       <c r="E50" s="69">
@@ -12177,8 +15004,8 @@
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="117"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="134"/>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.4">
       <c r="E51" s="69">
@@ -12186,8 +15013,8 @@
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="117"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="134"/>
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.4">
       <c r="E52" s="72">
@@ -12195,8 +15022,8 @@
       </c>
       <c r="F52" s="73"/>
       <c r="G52" s="73"/>
-      <c r="H52" s="105"/>
-      <c r="I52" s="117"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="134"/>
     </row>
     <row r="53" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E53" s="70">
@@ -12204,31 +15031,31 @@
       </c>
       <c r="F53" s="50"/>
       <c r="G53" s="50"/>
-      <c r="H53" s="122"/>
-      <c r="I53" s="123"/>
+      <c r="H53" s="135"/>
+      <c r="I53" s="136"/>
     </row>
     <row r="54" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G54" s="71">
         <f>SUM(C6:C41)</f>
         <v>247</v>
       </c>
-      <c r="H54" s="124"/>
-      <c r="I54" s="125"/>
+      <c r="H54" s="137"/>
+      <c r="I54" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="H54:I54"/>
     <mergeCell ref="H50:I50"/>
     <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12254,16 +15081,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D5" s="133" t="s">
-        <v>319</v>
-      </c>
-      <c r="E5" s="133" t="s">
-        <v>320</v>
-      </c>
-      <c r="F5" s="133" t="s">
-        <v>321</v>
-      </c>
-      <c r="G5" s="133" t="s">
+      <c r="D5" s="100" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5" s="100" t="s">
+        <v>317</v>
+      </c>
+      <c r="F5" s="100" t="s">
+        <v>318</v>
+      </c>
+      <c r="G5" s="100" t="s">
         <v>175</v>
       </c>
     </row>
@@ -12274,7 +15101,7 @@
       <c r="E6" t="s">
         <v>202</v>
       </c>
-      <c r="F6" s="127" t="s">
+      <c r="F6" s="97" t="s">
         <v>209</v>
       </c>
       <c r="G6">
@@ -12283,13 +15110,13 @@
     </row>
     <row r="7" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="112" t="s">
         <v>263</v>
-      </c>
-      <c r="E7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F7" s="159" t="s">
-        <v>265</v>
       </c>
       <c r="G7">
         <v>18</v>
@@ -12325,7 +15152,7 @@
         <v>205</v>
       </c>
       <c r="G10">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="4:7" x14ac:dyDescent="0.4">
@@ -12336,7 +15163,7 @@
         <v>206</v>
       </c>
       <c r="G11">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="4:7" x14ac:dyDescent="0.4">
@@ -12346,7 +15173,7 @@
       <c r="E12" t="s">
         <v>207</v>
       </c>
-      <c r="F12" s="127" t="s">
+      <c r="F12" s="97" t="s">
         <v>210</v>
       </c>
       <c r="G12">
@@ -12361,14 +15188,14 @@
         <v>208</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="4:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="128" t="s">
+      <c r="E14" s="98" t="s">
         <v>211</v>
       </c>
       <c r="G14">
@@ -12388,13 +15215,13 @@
     </row>
     <row r="16" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E16" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G16">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -12405,10 +15232,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C221845-BF52-470F-85E5-613A24522890}">
-  <dimension ref="D5:F14"/>
+  <dimension ref="D5:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12420,91 +15247,109 @@
   <sheetData>
     <row r="5" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D5" t="s">
-        <v>312</v>
-      </c>
-      <c r="E5" s="126">
-        <f>36*850000*3</f>
-        <v>91800000</v>
+        <v>309</v>
+      </c>
+      <c r="E5" s="96">
+        <f>36*800000*3</f>
+        <v>86400000</v>
       </c>
       <c r="F5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
-        <v>224</v>
-      </c>
-      <c r="E6" s="126">
+        <v>223</v>
+      </c>
+      <c r="E6" s="96">
         <f>Art工数試算表!G6</f>
-        <v>167237500</v>
+        <v>144600000</v>
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E7" s="126">
+        <v>224</v>
+      </c>
+      <c r="E7" s="96">
         <f>Plan工数試算表!G6</f>
-        <v>214880000</v>
+        <v>195040000</v>
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="126">
+      <c r="E8" s="96">
         <f>Model工数試算表!F6</f>
-        <v>236300000</v>
+        <v>184000000</v>
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
-        <v>316</v>
-      </c>
-      <c r="E9" s="126">
+        <v>313</v>
+      </c>
+      <c r="E9" s="96">
         <f>Environmentl工数試算表!F6</f>
-        <v>76500000</v>
+        <v>57600000</v>
       </c>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="126">
+      <c r="E10" s="96">
         <f>Motion工数試算表!F6</f>
-        <v>540600000</v>
+        <v>370400000</v>
       </c>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
-        <v>226</v>
-      </c>
-      <c r="E11" s="126"/>
+        <v>225</v>
+      </c>
+      <c r="E11" s="96">
+        <f>Program工数試算表!F6</f>
+        <v>323000000</v>
+      </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
-        <v>253</v>
-      </c>
-      <c r="E12" s="126">
+        <v>251</v>
+      </c>
+      <c r="E12" s="96">
         <f>Effect工数試算表!F6</f>
-        <v>323850000</v>
+        <v>231200000</v>
       </c>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
-        <v>227</v>
-      </c>
-      <c r="E13" s="126">
+        <v>412</v>
+      </c>
+      <c r="E13" s="96">
+        <f>Sound工数試算表!F6</f>
+        <v>204800000</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D14" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="96">
         <f>UI工数試算表!F6</f>
-        <v>65875000</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="E14" s="126">
-        <f>SUM(E5:E13)</f>
-        <v>1717042500</v>
-      </c>
-      <c r="F14" s="126"/>
+        <v>62000000</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D15" t="s">
+        <v>426</v>
+      </c>
+      <c r="E15" s="96"/>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="E16" s="96">
+        <f>SUM(E5:E14)</f>
+        <v>1859040000</v>
+      </c>
+      <c r="F16" s="96"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -12517,13 +15362,13 @@
   <dimension ref="C1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="10.375" customWidth="1"/>
     <col min="6" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
@@ -12532,106 +15377,107 @@
   <sheetData>
     <row r="1" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="E2" s="148" t="s">
-        <v>223</v>
-      </c>
-      <c r="F2" s="149"/>
-      <c r="G2" s="154">
+      <c r="E2" s="176" t="s">
+        <v>423</v>
+      </c>
+      <c r="F2" s="177"/>
+      <c r="G2" s="108">
         <f>SUM(D9:D102)</f>
-        <v>391</v>
-      </c>
-      <c r="H2" s="136" t="s">
+        <v>365</v>
+      </c>
+      <c r="H2" s="103" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="E3" s="150" t="s">
+      <c r="E3" s="178" t="s">
         <v>215</v>
       </c>
-      <c r="F3" s="151"/>
-      <c r="G3" s="155">
+      <c r="F3" s="179"/>
+      <c r="G3" s="109">
         <f>SUM(F9:F204)</f>
-        <v>3935</v>
-      </c>
-      <c r="H3" s="137" t="s">
+        <v>3615</v>
+      </c>
+      <c r="H3" s="104" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="E4" s="150" t="s">
+      <c r="E4" s="178" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="151"/>
-      <c r="G4" s="155">
+      <c r="F4" s="179"/>
+      <c r="G4" s="109">
         <f>G3/20</f>
-        <v>196.75</v>
-      </c>
-      <c r="H4" s="137" t="s">
+        <v>180.75</v>
+      </c>
+      <c r="H4" s="104" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="E5" s="150" t="s">
+      <c r="E5" s="178" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="151"/>
-      <c r="G5" s="156">
-        <v>850000</v>
-      </c>
-      <c r="H5" s="137" t="s">
+      <c r="F5" s="179"/>
+      <c r="G5" s="110">
+        <v>800000</v>
+      </c>
+      <c r="H5" s="104" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E6" s="152" t="s">
+      <c r="E6" s="180" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="153"/>
-      <c r="G6" s="157">
+      <c r="F6" s="181"/>
+      <c r="G6" s="111">
         <f>G4*G5</f>
-        <v>167237500</v>
-      </c>
-      <c r="H6" s="138" t="s">
+        <v>144600000</v>
+      </c>
+      <c r="H6" s="105" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C8" s="144" t="s">
+    <row r="7" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="156" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="144" t="s">
+      <c r="D8" s="157" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="144" t="s">
+      <c r="E8" s="157" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="145" t="s">
+      <c r="F8" s="158" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C9" s="146" t="s">
-        <v>301</v>
-      </c>
-      <c r="D9" s="146">
-        <v>1</v>
-      </c>
-      <c r="E9" s="146">
+      <c r="C9" s="153" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" s="154">
+        <v>1</v>
+      </c>
+      <c r="E9" s="154">
         <v>720</v>
       </c>
-      <c r="F9" s="146">
+      <c r="F9" s="155">
         <f>D9*E9</f>
         <v>720</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C10" s="146" t="s">
+      <c r="C10" s="144" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="146">
+      <c r="D10" s="145">
         <v>30</v>
       </c>
-      <c r="E10" s="146">
+      <c r="E10" s="145">
         <v>10</v>
       </c>
       <c r="F10" s="146">
@@ -12640,14 +15486,14 @@
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="144" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="146">
+      <c r="D11" s="145">
         <f>物量試算!G6</f>
         <v>1</v>
       </c>
-      <c r="E11" s="146">
+      <c r="E11" s="145">
         <v>40</v>
       </c>
       <c r="F11" s="146">
@@ -12656,13 +15502,13 @@
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C12" s="146" t="s">
+      <c r="C12" s="144" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="146">
+      <c r="D12" s="145">
         <v>5</v>
       </c>
-      <c r="E12" s="146">
+      <c r="E12" s="145">
         <v>40</v>
       </c>
       <c r="F12" s="146">
@@ -12671,14 +15517,14 @@
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C13" s="146" t="s">
+      <c r="C13" s="144" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="146">
+      <c r="D13" s="145">
         <f>物量試算!G9</f>
         <v>20</v>
       </c>
-      <c r="E13" s="146">
+      <c r="E13" s="145">
         <v>10</v>
       </c>
       <c r="F13" s="146">
@@ -12687,13 +15533,13 @@
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C14" s="158" t="s">
-        <v>254</v>
-      </c>
-      <c r="D14" s="146">
-        <v>1</v>
-      </c>
-      <c r="E14" s="158">
+      <c r="C14" s="147" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="145">
+        <v>1</v>
+      </c>
+      <c r="E14" s="148">
         <v>30</v>
       </c>
       <c r="F14" s="146">
@@ -12702,46 +15548,46 @@
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C15" s="146" t="s">
+      <c r="C15" s="144" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="146">
+      <c r="D15" s="145">
         <f>物量試算!G10</f>
-        <v>40</v>
-      </c>
-      <c r="E15" s="146">
+        <v>30</v>
+      </c>
+      <c r="E15" s="145">
         <v>10</v>
       </c>
       <c r="F15" s="146">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C16" s="146" t="s">
+      <c r="C16" s="144" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="146">
+      <c r="D16" s="145">
         <f>物量試算!G11</f>
-        <v>40</v>
-      </c>
-      <c r="E16" s="146">
+        <v>30</v>
+      </c>
+      <c r="E16" s="145">
         <v>10</v>
       </c>
       <c r="F16" s="146">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C17" s="146" t="s">
+      <c r="C17" s="144" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="146">
+      <c r="D17" s="145">
         <f>物量試算!G8</f>
         <v>20</v>
       </c>
-      <c r="E17" s="146">
+      <c r="E17" s="145">
         <v>10</v>
       </c>
       <c r="F17" s="146">
@@ -12750,14 +15596,14 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C18" s="146" t="s">
+      <c r="C18" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="146">
+      <c r="D18" s="145">
         <f>物量試算!G12</f>
         <v>20</v>
       </c>
-      <c r="E18" s="146">
+      <c r="E18" s="145">
         <v>10</v>
       </c>
       <c r="F18" s="146">
@@ -12766,14 +15612,14 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C19" s="146" t="s">
+      <c r="C19" s="144" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="146">
+      <c r="D19" s="145">
         <f>UI工数試算表!F2</f>
         <v>201</v>
       </c>
-      <c r="E19" s="146">
+      <c r="E19" s="145">
         <v>5</v>
       </c>
       <c r="F19" s="146">
@@ -12781,20 +15627,20 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C20" s="158" t="s">
-        <v>327</v>
-      </c>
-      <c r="D20">
+    <row r="20" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="149" t="s">
+        <v>324</v>
+      </c>
+      <c r="D20" s="150">
         <f>物量試算!G16</f>
-        <v>12</v>
-      </c>
-      <c r="E20" s="158">
+        <v>6</v>
+      </c>
+      <c r="E20" s="151">
         <v>20</v>
       </c>
-      <c r="F20" s="158">
+      <c r="F20" s="152">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -12812,10 +15658,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB52490-15A1-4F60-8EA0-27304E08D866}">
-  <dimension ref="C1:H73"/>
+  <dimension ref="C1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12832,1266 +15681,1297 @@
   <sheetData>
     <row r="1" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="176" t="s">
+        <v>424</v>
+      </c>
+      <c r="F2" s="177"/>
+      <c r="G2" s="108">
+        <f>SUM(F9:F129)</f>
         <v>228</v>
       </c>
-      <c r="F2" s="149"/>
-      <c r="G2" s="154">
-        <f>SUM(F9:F128)</f>
-        <v>246</v>
-      </c>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="103" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="E3" s="150" t="s">
+      <c r="E3" s="178" t="s">
         <v>215</v>
       </c>
-      <c r="F3" s="151"/>
-      <c r="G3" s="155">
-        <f>SUM(H9:H230)</f>
-        <v>5056</v>
-      </c>
-      <c r="H3" s="137" t="s">
+      <c r="F3" s="179"/>
+      <c r="G3" s="109">
+        <f>SUM(H9:H231)</f>
+        <v>4876</v>
+      </c>
+      <c r="H3" s="104" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="E4" s="150" t="s">
+      <c r="E4" s="178" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="151"/>
-      <c r="G4" s="155">
+      <c r="F4" s="179"/>
+      <c r="G4" s="109">
         <f>G3/20</f>
-        <v>252.8</v>
-      </c>
-      <c r="H4" s="137" t="s">
+        <v>243.8</v>
+      </c>
+      <c r="H4" s="104" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="E5" s="150" t="s">
+      <c r="E5" s="178" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="151"/>
-      <c r="G5" s="156">
-        <v>850000</v>
-      </c>
-      <c r="H5" s="137" t="s">
+      <c r="F5" s="179"/>
+      <c r="G5" s="110">
+        <v>800000</v>
+      </c>
+      <c r="H5" s="104" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E6" s="152" t="s">
+      <c r="E6" s="180" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="153"/>
-      <c r="G6" s="157">
+      <c r="F6" s="181"/>
+      <c r="G6" s="111">
         <f>G4*G5</f>
-        <v>214880000</v>
-      </c>
-      <c r="H6" s="138" t="s">
+        <v>195040000</v>
+      </c>
+      <c r="H6" s="105" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C8" s="162" t="s">
-        <v>323</v>
-      </c>
-      <c r="D8" s="130"/>
-      <c r="E8" s="144" t="s">
+    <row r="7" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="166" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="167"/>
+      <c r="E8" s="157" t="s">
         <v>197</v>
       </c>
-      <c r="F8" s="144" t="s">
+      <c r="F8" s="157" t="s">
         <v>175</v>
       </c>
-      <c r="G8" s="144" t="s">
+      <c r="G8" s="157" t="s">
         <v>176</v>
       </c>
-      <c r="H8" s="145" t="s">
+      <c r="H8" s="158" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C9" s="146" t="s">
-        <v>303</v>
-      </c>
-      <c r="D9" s="146" t="s">
-        <v>305</v>
-      </c>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146">
-        <v>1</v>
-      </c>
-      <c r="G9" s="146">
+      <c r="C9" s="174" t="s">
+        <v>425</v>
+      </c>
+      <c r="D9" s="175"/>
+      <c r="E9" s="154" t="s">
+        <v>302</v>
+      </c>
+      <c r="F9" s="154">
+        <v>1</v>
+      </c>
+      <c r="G9" s="154">
         <v>720</v>
       </c>
-      <c r="H9" s="146">
-        <f>F9*G9</f>
+      <c r="H9" s="155">
+        <f t="shared" ref="H9:H17" si="0">F9*G9</f>
         <v>720</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C10" s="160" t="s">
+      <c r="C10" s="159" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="145" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="145" t="s">
+        <v>321</v>
+      </c>
+      <c r="F10" s="145">
+        <v>1</v>
+      </c>
+      <c r="G10" s="145">
+        <v>60</v>
+      </c>
+      <c r="H10" s="146">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C11" s="159"/>
+      <c r="D11" s="145" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145">
+        <v>1</v>
+      </c>
+      <c r="G11" s="145">
+        <v>20</v>
+      </c>
+      <c r="H11" s="146">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C12" s="159"/>
+      <c r="D12" s="145" t="s">
         <v>255</v>
       </c>
-      <c r="D10" s="146" t="s">
-        <v>229</v>
-      </c>
-      <c r="E10" s="146" t="s">
-        <v>324</v>
-      </c>
-      <c r="F10" s="146">
-        <v>1</v>
-      </c>
-      <c r="G10" s="146">
+      <c r="E12" s="145"/>
+      <c r="F12" s="145">
+        <f>物量試算!G6</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="145">
+        <v>120</v>
+      </c>
+      <c r="H12" s="146">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C13" s="159" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148">
+        <v>1</v>
+      </c>
+      <c r="G13" s="148">
+        <v>40</v>
+      </c>
+      <c r="H13" s="146">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C14" s="159"/>
+      <c r="D14" s="148" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148">
+        <v>1</v>
+      </c>
+      <c r="G14" s="148">
+        <v>30</v>
+      </c>
+      <c r="H14" s="146">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C15" s="159"/>
+      <c r="D15" s="148" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148">
+        <v>1</v>
+      </c>
+      <c r="G15" s="148">
         <v>60</v>
       </c>
-      <c r="H10" s="146">
-        <f>F10*G10</f>
+      <c r="H15" s="146">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C11" s="129"/>
-      <c r="D11" s="146" t="s">
-        <v>256</v>
-      </c>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146">
-        <v>1</v>
-      </c>
-      <c r="G11" s="146">
-        <v>20</v>
-      </c>
-      <c r="H11" s="146">
-        <f>F11*G11</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C12" s="129"/>
-      <c r="D12" s="146" t="s">
-        <v>257</v>
-      </c>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146">
-        <f>物量試算!G6</f>
-        <v>1</v>
-      </c>
-      <c r="G12" s="146">
-        <v>120</v>
-      </c>
-      <c r="H12" s="146">
-        <f>F12*G12</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C13" s="160" t="s">
-        <v>268</v>
-      </c>
-      <c r="D13" s="158" t="s">
-        <v>269</v>
-      </c>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158">
-        <v>1</v>
-      </c>
-      <c r="G13" s="158">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C16" s="159" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="148" t="s">
+        <v>259</v>
+      </c>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148">
+        <v>1</v>
+      </c>
+      <c r="G16" s="148">
         <v>40</v>
       </c>
-      <c r="H13" s="146">
-        <f>F13*G13</f>
+      <c r="H16" s="146">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C14" s="129"/>
-      <c r="D14" s="158" t="s">
-        <v>270</v>
-      </c>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158">
-        <v>1</v>
-      </c>
-      <c r="G14" s="158">
-        <v>30</v>
-      </c>
-      <c r="H14" s="146">
-        <f>F14*G14</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C15" s="129"/>
-      <c r="D15" s="158" t="s">
-        <v>271</v>
-      </c>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158">
-        <v>1</v>
-      </c>
-      <c r="G15" s="158">
-        <v>60</v>
-      </c>
-      <c r="H15" s="146">
-        <f>F15*G15</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C16" s="160" t="s">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C17" s="159"/>
+      <c r="D17" s="148" t="s">
         <v>260</v>
       </c>
-      <c r="D16" s="158" t="s">
-        <v>261</v>
-      </c>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158">
-        <v>1</v>
-      </c>
-      <c r="G16" s="158">
-        <v>40</v>
-      </c>
-      <c r="H16" s="146">
-        <f>F16*G16</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C17" s="129"/>
-      <c r="D17" s="158" t="s">
-        <v>262</v>
-      </c>
-      <c r="E17" s="158"/>
-      <c r="F17" s="146">
+      <c r="E17" s="148"/>
+      <c r="F17" s="145">
         <f>物量試算!G7</f>
         <v>18</v>
       </c>
-      <c r="G17" s="158">
+      <c r="G17" s="148">
         <v>10</v>
       </c>
       <c r="H17" s="146">
-        <f>F17*G17</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C18" s="160" t="s">
+      <c r="C18" s="159" t="s">
+        <v>292</v>
+      </c>
+      <c r="D18" s="148" t="s">
         <v>294</v>
       </c>
-      <c r="D18" s="158" t="s">
-        <v>296</v>
-      </c>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158">
-        <v>1</v>
-      </c>
-      <c r="G18" s="158">
+      <c r="E18" s="148"/>
+      <c r="F18" s="148">
+        <v>1</v>
+      </c>
+      <c r="G18" s="148">
         <v>20</v>
       </c>
       <c r="H18" s="146">
-        <f t="shared" ref="H18:H21" si="0">F18*G18</f>
+        <f t="shared" ref="H18:H21" si="1">F18*G18</f>
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C19" s="129"/>
-      <c r="D19" s="158" t="s">
-        <v>295</v>
-      </c>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158">
-        <v>1</v>
-      </c>
-      <c r="G19" s="158">
+      <c r="C19" s="159"/>
+      <c r="D19" s="148" t="s">
+        <v>293</v>
+      </c>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148">
+        <v>1</v>
+      </c>
+      <c r="G19" s="148">
         <v>20</v>
       </c>
       <c r="H19" s="146">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C20" s="129"/>
-      <c r="D20" s="158" t="s">
-        <v>297</v>
-      </c>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158">
-        <v>1</v>
-      </c>
-      <c r="G20" s="158">
-        <v>20</v>
-      </c>
-      <c r="H20" s="146">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C21" s="129"/>
-      <c r="D21" s="158" t="s">
-        <v>298</v>
-      </c>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158">
-        <v>1</v>
-      </c>
-      <c r="G21" s="158">
-        <v>20</v>
-      </c>
-      <c r="H21" s="146">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C22" s="160" t="s">
-        <v>233</v>
-      </c>
-      <c r="D22" s="146" t="s">
-        <v>230</v>
-      </c>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146">
-        <f>物量試算!G6</f>
-        <v>1</v>
-      </c>
-      <c r="G22" s="146">
-        <v>40</v>
-      </c>
-      <c r="H22" s="146">
-        <f t="shared" ref="H22:H73" si="1">F22*G22</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C23" s="129"/>
-      <c r="D23" s="146" t="s">
-        <v>231</v>
-      </c>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146">
-        <v>1</v>
-      </c>
-      <c r="G23" s="146">
-        <v>40</v>
-      </c>
-      <c r="H23" s="146">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C24" s="129"/>
-      <c r="D24" s="146" t="s">
-        <v>232</v>
-      </c>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146">
-        <v>1</v>
-      </c>
-      <c r="G24" s="146">
-        <v>40</v>
-      </c>
-      <c r="H24" s="146">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C25" s="129"/>
-      <c r="D25" s="158" t="s">
-        <v>234</v>
-      </c>
-      <c r="E25" s="158"/>
-      <c r="F25" s="146">
-        <v>1</v>
-      </c>
-      <c r="G25" s="146">
-        <v>20</v>
-      </c>
-      <c r="H25" s="146">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C26" s="129"/>
-      <c r="D26" s="158" t="s">
-        <v>235</v>
-      </c>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158">
-        <v>1</v>
-      </c>
-      <c r="G26" s="158">
-        <v>60</v>
-      </c>
-      <c r="H26" s="158">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C27" s="160" t="s">
-        <v>236</v>
-      </c>
-      <c r="D27" s="158" t="s">
-        <v>237</v>
-      </c>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158">
-        <v>1</v>
-      </c>
-      <c r="G27" s="158">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C20" s="159"/>
+      <c r="D20" s="148" t="s">
+        <v>295</v>
+      </c>
+      <c r="E20" s="148"/>
+      <c r="F20" s="148">
+        <v>1</v>
+      </c>
+      <c r="G20" s="148">
         <v>20</v>
       </c>
-      <c r="H27" s="158">
+      <c r="H20" s="146">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C28" s="129"/>
-      <c r="D28" s="158" t="s">
-        <v>238</v>
-      </c>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158">
-        <v>1</v>
-      </c>
-      <c r="G28" s="158">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C21" s="159"/>
+      <c r="D21" s="148" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148">
+        <v>1</v>
+      </c>
+      <c r="G21" s="148">
         <v>20</v>
       </c>
-      <c r="H28" s="158">
+      <c r="H21" s="146">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C22" s="159" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="145" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145">
+        <f>物量試算!G6</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="145">
+        <v>40</v>
+      </c>
+      <c r="H22" s="146">
+        <f t="shared" ref="H22:H74" si="2">F22*G22</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C23" s="159"/>
+      <c r="D23" s="145" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145">
+        <v>1</v>
+      </c>
+      <c r="G23" s="145">
+        <v>40</v>
+      </c>
+      <c r="H23" s="146">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C24" s="159"/>
+      <c r="D24" s="145" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145">
+        <v>1</v>
+      </c>
+      <c r="G24" s="145">
+        <v>40</v>
+      </c>
+      <c r="H24" s="146">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C25" s="159"/>
+      <c r="D25" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" s="148"/>
+      <c r="F25" s="145">
+        <v>1</v>
+      </c>
+      <c r="G25" s="145">
+        <v>20</v>
+      </c>
+      <c r="H25" s="146">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C26" s="159"/>
+      <c r="D26" s="148" t="s">
+        <v>233</v>
+      </c>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148">
+        <v>1</v>
+      </c>
+      <c r="G26" s="148">
+        <v>60</v>
+      </c>
+      <c r="H26" s="160">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C27" s="159" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" s="148" t="s">
+        <v>235</v>
+      </c>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148">
+        <v>1</v>
+      </c>
+      <c r="G27" s="148">
+        <v>20</v>
+      </c>
+      <c r="H27" s="160">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C28" s="159"/>
+      <c r="D28" s="148" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148">
+        <v>1</v>
+      </c>
+      <c r="G28" s="148">
+        <v>20</v>
+      </c>
+      <c r="H28" s="160">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C29" s="129"/>
-      <c r="D29" s="158" t="s">
+      <c r="C29" s="159"/>
+      <c r="D29" s="148" t="s">
+        <v>237</v>
+      </c>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148">
+        <v>1</v>
+      </c>
+      <c r="G29" s="148">
+        <v>40</v>
+      </c>
+      <c r="H29" s="160">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C30" s="159"/>
+      <c r="D30" s="148" t="s">
+        <v>343</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148">
+        <f>物量試算!G16</f>
+        <v>6</v>
+      </c>
+      <c r="G30" s="148">
+        <v>30</v>
+      </c>
+      <c r="H30" s="160">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C31" s="159" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" s="145" t="s">
+        <v>242</v>
+      </c>
+      <c r="E31" s="145"/>
+      <c r="F31" s="148">
+        <v>1</v>
+      </c>
+      <c r="G31" s="148">
+        <v>40</v>
+      </c>
+      <c r="H31" s="160">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C32" s="159"/>
+      <c r="D32" s="145" t="s">
+        <v>265</v>
+      </c>
+      <c r="E32" s="145"/>
+      <c r="F32" s="148">
+        <v>1</v>
+      </c>
+      <c r="G32" s="148">
+        <v>40</v>
+      </c>
+      <c r="H32" s="160">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C33" s="159" t="s">
+        <v>243</v>
+      </c>
+      <c r="D33" s="161"/>
+      <c r="E33" s="162"/>
+      <c r="F33" s="148">
+        <v>1</v>
+      </c>
+      <c r="G33" s="148">
+        <v>60</v>
+      </c>
+      <c r="H33" s="160">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C34" s="163" t="s">
+        <v>244</v>
+      </c>
+      <c r="D34" s="161"/>
+      <c r="E34" s="162"/>
+      <c r="F34" s="148">
+        <v>1</v>
+      </c>
+      <c r="G34" s="148">
+        <v>40</v>
+      </c>
+      <c r="H34" s="160">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C35" s="159" t="s">
+        <v>238</v>
+      </c>
+      <c r="D35" s="161"/>
+      <c r="E35" s="162"/>
+      <c r="F35" s="148">
+        <f>物量試算!G10</f>
+        <v>30</v>
+      </c>
+      <c r="G35" s="148">
+        <v>10</v>
+      </c>
+      <c r="H35" s="160">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C36" s="159" t="s">
         <v>239</v>
       </c>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158">
-        <v>1</v>
-      </c>
-      <c r="G29" s="158">
-        <v>40</v>
-      </c>
-      <c r="H29" s="158">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C30" s="160" t="s">
-        <v>266</v>
-      </c>
-      <c r="D30" s="146" t="s">
-        <v>244</v>
-      </c>
-      <c r="E30" s="146"/>
-      <c r="F30" s="158">
-        <v>1</v>
-      </c>
-      <c r="G30" s="158">
-        <v>40</v>
-      </c>
-      <c r="H30" s="158">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C31" s="129"/>
-      <c r="D31" s="146" t="s">
-        <v>267</v>
-      </c>
-      <c r="E31" s="146"/>
-      <c r="F31" s="158">
-        <v>1</v>
-      </c>
-      <c r="G31" s="158">
-        <v>40</v>
-      </c>
-      <c r="H31" s="158">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C32" s="160" t="s">
-        <v>245</v>
-      </c>
-      <c r="D32" s="129"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="158">
-        <v>1</v>
-      </c>
-      <c r="G32" s="158">
-        <v>60</v>
-      </c>
-      <c r="H32" s="158">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C33" s="161" t="s">
-        <v>246</v>
-      </c>
-      <c r="D33" s="129"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="158">
-        <v>1</v>
-      </c>
-      <c r="G33" s="158">
-        <v>40</v>
-      </c>
-      <c r="H33" s="158">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C34" s="160" t="s">
+      <c r="D36" s="161"/>
+      <c r="E36" s="162"/>
+      <c r="F36" s="145">
+        <f>物量試算!G11</f>
+        <v>30</v>
+      </c>
+      <c r="G36" s="145">
+        <v>10</v>
+      </c>
+      <c r="H36" s="160">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C37" s="159" t="s">
+        <v>256</v>
+      </c>
+      <c r="D37" s="145" t="s">
         <v>240</v>
       </c>
-      <c r="D34" s="129"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="158">
-        <f>物量試算!G10</f>
-        <v>40</v>
-      </c>
-      <c r="G34" s="158">
-        <v>10</v>
-      </c>
-      <c r="H34" s="158">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C35" s="160" t="s">
-        <v>241</v>
-      </c>
-      <c r="D35" s="129"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="146">
-        <f>物量試算!G11</f>
-        <v>40</v>
-      </c>
-      <c r="G35" s="146">
-        <v>10</v>
-      </c>
-      <c r="H35" s="158">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C36" s="160" t="s">
-        <v>258</v>
-      </c>
-      <c r="D36" s="146" t="s">
-        <v>242</v>
-      </c>
-      <c r="E36" s="146"/>
-      <c r="F36" s="146">
+      <c r="E37" s="145"/>
+      <c r="F37" s="145">
         <f>物量試算!G8</f>
         <v>20</v>
       </c>
-      <c r="G36" s="146">
+      <c r="G37" s="145">
         <v>10</v>
       </c>
-      <c r="H36" s="146">
-        <f t="shared" si="1"/>
+      <c r="H37" s="146">
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C37" s="129"/>
-      <c r="D37" s="146" t="s">
-        <v>259</v>
-      </c>
-      <c r="E37" s="146"/>
-      <c r="F37" s="146">
-        <v>1</v>
-      </c>
-      <c r="G37" s="158">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C38" s="159"/>
+      <c r="D38" s="145" t="s">
+        <v>257</v>
+      </c>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145">
+        <v>1</v>
+      </c>
+      <c r="G38" s="148">
         <v>20</v>
       </c>
-      <c r="H37" s="146">
-        <f t="shared" si="1"/>
+      <c r="H38" s="146">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C38" s="129"/>
-      <c r="D38" s="146" t="s">
-        <v>275</v>
-      </c>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C39" s="159"/>
+      <c r="D39" s="145" t="s">
+        <v>273</v>
+      </c>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145">
         <f>物量試算!G8</f>
         <v>20</v>
       </c>
-      <c r="G38" s="158">
+      <c r="G39" s="148">
         <v>20</v>
       </c>
-      <c r="H38" s="146">
-        <f t="shared" si="1"/>
+      <c r="H39" s="146">
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C39" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="D39" s="146" t="s">
-        <v>273</v>
-      </c>
-      <c r="E39" s="146"/>
-      <c r="F39" s="146">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C40" s="163" t="s">
+        <v>270</v>
+      </c>
+      <c r="D40" s="145" t="s">
+        <v>271</v>
+      </c>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145">
         <f>物量試算!G9</f>
         <v>20</v>
       </c>
-      <c r="G39" s="158">
+      <c r="G40" s="148">
         <v>10</v>
       </c>
-      <c r="H39" s="146">
-        <f t="shared" si="1"/>
+      <c r="H40" s="146">
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C40" s="129"/>
-      <c r="D40" s="158" t="s">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C41" s="159"/>
+      <c r="D41" s="148" t="s">
+        <v>272</v>
+      </c>
+      <c r="E41" s="148"/>
+      <c r="F41" s="145">
+        <v>1</v>
+      </c>
+      <c r="G41" s="148">
+        <v>20</v>
+      </c>
+      <c r="H41" s="146">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C42" s="159"/>
+      <c r="D42" s="148" t="s">
         <v>274</v>
       </c>
-      <c r="E40" s="158"/>
-      <c r="F40" s="146">
-        <v>1</v>
-      </c>
-      <c r="G40" s="158">
-        <v>20</v>
-      </c>
-      <c r="H40" s="146">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C41" s="129"/>
-      <c r="D41" s="158" t="s">
-        <v>276</v>
-      </c>
-      <c r="E41" s="158"/>
-      <c r="F41" s="146">
+      <c r="E42" s="148"/>
+      <c r="F42" s="145">
         <f>物量試算!G9</f>
         <v>20</v>
       </c>
-      <c r="G41" s="158">
+      <c r="G42" s="148">
         <v>20</v>
       </c>
-      <c r="H41" s="146">
-        <f t="shared" si="1"/>
+      <c r="H42" s="146">
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C42" s="160" t="s">
-        <v>243</v>
-      </c>
-      <c r="D42" s="129"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="146">
-        <v>1</v>
-      </c>
-      <c r="G42" s="146">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C43" s="159" t="s">
+        <v>241</v>
+      </c>
+      <c r="D43" s="161"/>
+      <c r="E43" s="162"/>
+      <c r="F43" s="145">
+        <v>1</v>
+      </c>
+      <c r="G43" s="145">
         <v>20</v>
       </c>
-      <c r="H42" s="146">
-        <f t="shared" si="1"/>
+      <c r="H43" s="146">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C43" s="160" t="s">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C44" s="159" t="s">
+        <v>245</v>
+      </c>
+      <c r="D44" s="161"/>
+      <c r="E44" s="162"/>
+      <c r="F44" s="145">
+        <v>1</v>
+      </c>
+      <c r="G44" s="145">
+        <v>40</v>
+      </c>
+      <c r="H44" s="146">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C45" s="163" t="s">
+        <v>246</v>
+      </c>
+      <c r="D45" s="145" t="s">
         <v>247</v>
       </c>
-      <c r="D43" s="129"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="146">
-        <v>1</v>
-      </c>
-      <c r="G43" s="146">
+      <c r="E45" s="145"/>
+      <c r="F45" s="145">
+        <f>物量試算!G13</f>
+        <v>2</v>
+      </c>
+      <c r="G45" s="148">
+        <v>20</v>
+      </c>
+      <c r="H45" s="160">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="H43" s="146">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C46" s="159"/>
+      <c r="D46" s="145" t="s">
+        <v>248</v>
+      </c>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145">
+        <f>物量試算!G13</f>
+        <v>2</v>
+      </c>
+      <c r="G46" s="148">
+        <v>60</v>
+      </c>
+      <c r="H46" s="160">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C47" s="159"/>
+      <c r="D47" s="145" t="s">
+        <v>249</v>
+      </c>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145">
+        <f>物量試算!G13</f>
+        <v>2</v>
+      </c>
+      <c r="G47" s="148">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C44" s="161" t="s">
-        <v>248</v>
-      </c>
-      <c r="D44" t="s">
-        <v>249</v>
-      </c>
-      <c r="F44">
+      <c r="H47" s="160">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C48" s="159"/>
+      <c r="D48" s="145" t="s">
+        <v>250</v>
+      </c>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145">
         <f>物量試算!G13</f>
+        <v>2</v>
+      </c>
+      <c r="G48" s="148">
+        <v>40</v>
+      </c>
+      <c r="H48" s="160">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C49" s="159" t="s">
+        <v>308</v>
+      </c>
+      <c r="D49" s="161"/>
+      <c r="E49" s="162"/>
+      <c r="F49" s="145">
+        <v>1</v>
+      </c>
+      <c r="G49" s="148">
+        <v>10</v>
+      </c>
+      <c r="H49" s="160">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C50" s="159" t="s">
+        <v>297</v>
+      </c>
+      <c r="D50" s="161"/>
+      <c r="E50" s="162"/>
+      <c r="F50" s="145">
+        <v>1</v>
+      </c>
+      <c r="G50" s="148">
+        <v>40</v>
+      </c>
+      <c r="H50" s="160">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C51" s="159" t="s">
+        <v>298</v>
+      </c>
+      <c r="D51" s="161"/>
+      <c r="E51" s="162"/>
+      <c r="F51" s="145">
+        <v>1</v>
+      </c>
+      <c r="G51" s="148">
+        <v>40</v>
+      </c>
+      <c r="H51" s="160">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C52" s="159" t="s">
+        <v>275</v>
+      </c>
+      <c r="D52" s="161"/>
+      <c r="E52" s="162"/>
+      <c r="F52" s="145">
+        <v>1</v>
+      </c>
+      <c r="G52" s="148">
+        <v>10</v>
+      </c>
+      <c r="H52" s="160">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C53" s="159" t="s">
+        <v>276</v>
+      </c>
+      <c r="D53" s="161"/>
+      <c r="E53" s="162"/>
+      <c r="F53" s="145">
+        <v>1</v>
+      </c>
+      <c r="G53" s="148">
+        <v>20</v>
+      </c>
+      <c r="H53" s="160">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C54" s="159" t="s">
+        <v>277</v>
+      </c>
+      <c r="D54" s="161"/>
+      <c r="E54" s="162"/>
+      <c r="F54" s="145">
+        <v>1</v>
+      </c>
+      <c r="G54" s="148">
+        <v>20</v>
+      </c>
+      <c r="H54" s="160">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C55" s="159" t="s">
+        <v>278</v>
+      </c>
+      <c r="D55" s="161"/>
+      <c r="E55" s="162"/>
+      <c r="F55" s="145">
+        <v>1</v>
+      </c>
+      <c r="G55" s="148">
+        <v>20</v>
+      </c>
+      <c r="H55" s="160">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C56" s="159" t="s">
+        <v>279</v>
+      </c>
+      <c r="D56" s="161"/>
+      <c r="E56" s="162"/>
+      <c r="F56" s="145">
+        <v>1</v>
+      </c>
+      <c r="G56" s="148">
+        <v>40</v>
+      </c>
+      <c r="H56" s="160">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C57" s="159" t="s">
+        <v>280</v>
+      </c>
+      <c r="D57" s="145" t="s">
+        <v>303</v>
+      </c>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145">
+        <v>1</v>
+      </c>
+      <c r="G57" s="148">
         <v>3</v>
       </c>
-      <c r="G44" s="158">
+      <c r="H57" s="160">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C58" s="159"/>
+      <c r="D58" s="145" t="s">
+        <v>304</v>
+      </c>
+      <c r="E58" s="145"/>
+      <c r="F58" s="145">
+        <v>1</v>
+      </c>
+      <c r="G58" s="148">
+        <v>3</v>
+      </c>
+      <c r="H58" s="160">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C59" s="159"/>
+      <c r="D59" s="145" t="s">
+        <v>305</v>
+      </c>
+      <c r="E59" s="145"/>
+      <c r="F59" s="145">
+        <v>1</v>
+      </c>
+      <c r="G59" s="148">
+        <v>10</v>
+      </c>
+      <c r="H59" s="160">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C60" s="159"/>
+      <c r="D60" s="145" t="s">
+        <v>306</v>
+      </c>
+      <c r="E60" s="145"/>
+      <c r="F60" s="145">
+        <v>1</v>
+      </c>
+      <c r="G60" s="148">
         <v>20</v>
       </c>
-      <c r="H44" s="158">
-        <f t="shared" si="1"/>
+      <c r="H60" s="160">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C61" s="159"/>
+      <c r="D61" s="145" t="s">
+        <v>307</v>
+      </c>
+      <c r="E61" s="145"/>
+      <c r="F61" s="145">
+        <v>1</v>
+      </c>
+      <c r="G61" s="148">
+        <v>20</v>
+      </c>
+      <c r="H61" s="160">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C62" s="159" t="s">
+        <v>281</v>
+      </c>
+      <c r="D62" s="161"/>
+      <c r="E62" s="162"/>
+      <c r="F62" s="145">
+        <v>1</v>
+      </c>
+      <c r="G62" s="148">
+        <v>20</v>
+      </c>
+      <c r="H62" s="160">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C63" s="159" t="s">
+        <v>282</v>
+      </c>
+      <c r="D63" s="161"/>
+      <c r="E63" s="162"/>
+      <c r="F63" s="145">
+        <v>1</v>
+      </c>
+      <c r="G63" s="148">
+        <v>20</v>
+      </c>
+      <c r="H63" s="160">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C64" s="159" t="s">
+        <v>283</v>
+      </c>
+      <c r="D64" s="161"/>
+      <c r="E64" s="162"/>
+      <c r="F64" s="145">
+        <v>1</v>
+      </c>
+      <c r="G64" s="148">
+        <v>20</v>
+      </c>
+      <c r="H64" s="160">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C65" s="159" t="s">
+        <v>284</v>
+      </c>
+      <c r="D65" s="161"/>
+      <c r="E65" s="162"/>
+      <c r="F65" s="145">
+        <v>1</v>
+      </c>
+      <c r="G65" s="148">
+        <v>10</v>
+      </c>
+      <c r="H65" s="160">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C66" s="159" t="s">
+        <v>285</v>
+      </c>
+      <c r="D66" s="161"/>
+      <c r="E66" s="162"/>
+      <c r="F66" s="145">
+        <v>1</v>
+      </c>
+      <c r="G66" s="148">
+        <v>20</v>
+      </c>
+      <c r="H66" s="160">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C67" s="159" t="s">
+        <v>286</v>
+      </c>
+      <c r="D67" s="161"/>
+      <c r="E67" s="162"/>
+      <c r="F67" s="145">
+        <v>1</v>
+      </c>
+      <c r="G67" s="148">
+        <v>30</v>
+      </c>
+      <c r="H67" s="160">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C68" s="159" t="s">
+        <v>287</v>
+      </c>
+      <c r="D68" s="161"/>
+      <c r="E68" s="162"/>
+      <c r="F68" s="145">
+        <v>1</v>
+      </c>
+      <c r="G68" s="148">
+        <v>30</v>
+      </c>
+      <c r="H68" s="160">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C69" s="159" t="s">
+        <v>288</v>
+      </c>
+      <c r="D69" s="161"/>
+      <c r="E69" s="162"/>
+      <c r="F69" s="145">
+        <v>1</v>
+      </c>
+      <c r="G69" s="148">
+        <v>40</v>
+      </c>
+      <c r="H69" s="160">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C70" s="159" t="s">
+        <v>289</v>
+      </c>
+      <c r="D70" s="161"/>
+      <c r="E70" s="162"/>
+      <c r="F70" s="145">
+        <v>1</v>
+      </c>
+      <c r="G70" s="148">
+        <v>40</v>
+      </c>
+      <c r="H70" s="160">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C71" s="159" t="s">
+        <v>290</v>
+      </c>
+      <c r="D71" s="161"/>
+      <c r="E71" s="162"/>
+      <c r="F71" s="145">
+        <v>1</v>
+      </c>
+      <c r="G71" s="148">
+        <v>20</v>
+      </c>
+      <c r="H71" s="160">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C72" s="159" t="s">
+        <v>291</v>
+      </c>
+      <c r="D72" s="161"/>
+      <c r="E72" s="162"/>
+      <c r="F72" s="145">
+        <v>1</v>
+      </c>
+      <c r="G72" s="148">
+        <v>10</v>
+      </c>
+      <c r="H72" s="160">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C73" s="159" t="s">
+        <v>325</v>
+      </c>
+      <c r="D73" s="161"/>
+      <c r="E73" s="145"/>
+      <c r="F73" s="145">
+        <v>1</v>
+      </c>
+      <c r="G73" s="148">
         <v>60</v>
       </c>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C45" s="129"/>
-      <c r="D45" t="s">
-        <v>250</v>
-      </c>
-      <c r="F45">
-        <f>物量試算!G13</f>
+      <c r="H73" s="160">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C74" s="164" t="s">
+        <v>326</v>
+      </c>
+      <c r="D74" s="165"/>
+      <c r="E74" s="150"/>
+      <c r="F74" s="150">
         <v>3</v>
       </c>
-      <c r="G45" s="158">
-        <v>60</v>
-      </c>
-      <c r="H45" s="158">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C46" s="129"/>
-      <c r="D46" t="s">
-        <v>251</v>
-      </c>
-      <c r="F46">
-        <f>物量試算!G13</f>
-        <v>3</v>
-      </c>
-      <c r="G46" s="158">
-        <v>40</v>
-      </c>
-      <c r="H46" s="158">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C47" s="129"/>
-      <c r="D47" t="s">
-        <v>252</v>
-      </c>
-      <c r="F47">
-        <f>物量試算!G13</f>
-        <v>3</v>
-      </c>
-      <c r="G47" s="158">
-        <v>40</v>
-      </c>
-      <c r="H47" s="158">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C48" s="129" t="s">
-        <v>311</v>
-      </c>
-      <c r="D48" s="129"/>
-      <c r="E48" s="147"/>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" s="158">
-        <v>10</v>
-      </c>
-      <c r="H48" s="158">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C49" s="129" t="s">
-        <v>299</v>
-      </c>
-      <c r="D49" s="129"/>
-      <c r="E49" s="147"/>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" s="158">
-        <v>40</v>
-      </c>
-      <c r="H49" s="158">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C50" s="129" t="s">
-        <v>300</v>
-      </c>
-      <c r="D50" s="129"/>
-      <c r="E50" s="147"/>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" s="158">
-        <v>40</v>
-      </c>
-      <c r="H50" s="158">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C51" s="129" t="s">
-        <v>277</v>
-      </c>
-      <c r="D51" s="129"/>
-      <c r="E51" s="147"/>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" s="158">
-        <v>10</v>
-      </c>
-      <c r="H51" s="158">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C52" s="129" t="s">
-        <v>278</v>
-      </c>
-      <c r="D52" s="129"/>
-      <c r="E52" s="147"/>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" s="158">
-        <v>20</v>
-      </c>
-      <c r="H52" s="158">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C53" s="129" t="s">
-        <v>279</v>
-      </c>
-      <c r="D53" s="129"/>
-      <c r="E53" s="147"/>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" s="158">
-        <v>20</v>
-      </c>
-      <c r="H53" s="158">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C54" s="129" t="s">
-        <v>280</v>
-      </c>
-      <c r="D54" s="129"/>
-      <c r="E54" s="147"/>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" s="158">
-        <v>20</v>
-      </c>
-      <c r="H54" s="158">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C55" s="129" t="s">
-        <v>281</v>
-      </c>
-      <c r="D55" s="129"/>
-      <c r="E55" s="147"/>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" s="158">
-        <v>40</v>
-      </c>
-      <c r="H55" s="158">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C56" s="129" t="s">
-        <v>282</v>
-      </c>
-      <c r="D56" t="s">
-        <v>306</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" s="158">
-        <v>3</v>
-      </c>
-      <c r="H56" s="158">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C57" s="129"/>
-      <c r="D57" t="s">
-        <v>307</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57" s="158">
-        <v>3</v>
-      </c>
-      <c r="H57" s="158">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C58" s="129"/>
-      <c r="D58" t="s">
-        <v>308</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" s="158">
-        <v>10</v>
-      </c>
-      <c r="H58" s="158">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C59" s="129"/>
-      <c r="D59" t="s">
-        <v>309</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59" s="158">
-        <v>20</v>
-      </c>
-      <c r="H59" s="158">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C60" s="129"/>
-      <c r="D60" t="s">
-        <v>310</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" s="158">
-        <v>20</v>
-      </c>
-      <c r="H60" s="158">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C61" s="129" t="s">
-        <v>283</v>
-      </c>
-      <c r="D61" s="129"/>
-      <c r="E61" s="147"/>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" s="158">
-        <v>20</v>
-      </c>
-      <c r="H61" s="158">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C62" s="129" t="s">
-        <v>284</v>
-      </c>
-      <c r="D62" s="129"/>
-      <c r="E62" s="147"/>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" s="158">
-        <v>20</v>
-      </c>
-      <c r="H62" s="158">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C63" s="129" t="s">
-        <v>285</v>
-      </c>
-      <c r="D63" s="129"/>
-      <c r="E63" s="147"/>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63" s="158">
-        <v>20</v>
-      </c>
-      <c r="H63" s="158">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C64" s="129" t="s">
-        <v>286</v>
-      </c>
-      <c r="D64" s="129"/>
-      <c r="E64" s="147"/>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64" s="158">
-        <v>10</v>
-      </c>
-      <c r="H64" s="158">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C65" s="129" t="s">
-        <v>287</v>
-      </c>
-      <c r="D65" s="129"/>
-      <c r="E65" s="147"/>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65" s="158">
-        <v>20</v>
-      </c>
-      <c r="H65" s="158">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C66" s="129" t="s">
-        <v>288</v>
-      </c>
-      <c r="D66" s="129"/>
-      <c r="E66" s="147"/>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66" s="158">
+      <c r="G74" s="151">
         <v>30</v>
       </c>
-      <c r="H66" s="158">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C67" s="129" t="s">
-        <v>289</v>
-      </c>
-      <c r="D67" s="129"/>
-      <c r="E67" s="147"/>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67" s="158">
-        <v>30</v>
-      </c>
-      <c r="H67" s="158">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C68" s="129" t="s">
-        <v>290</v>
-      </c>
-      <c r="D68" s="129"/>
-      <c r="E68" s="147"/>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" s="158">
-        <v>40</v>
-      </c>
-      <c r="H68" s="158">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C69" s="129" t="s">
-        <v>291</v>
-      </c>
-      <c r="D69" s="129"/>
-      <c r="E69" s="147"/>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69" s="158">
-        <v>40</v>
-      </c>
-      <c r="H69" s="158">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C70" s="129" t="s">
-        <v>292</v>
-      </c>
-      <c r="D70" s="129"/>
-      <c r="E70" s="147"/>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" s="158">
-        <v>20</v>
-      </c>
-      <c r="H70" s="158">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C71" s="129" t="s">
-        <v>293</v>
-      </c>
-      <c r="D71" s="129"/>
-      <c r="E71" s="147"/>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" s="158">
-        <v>10</v>
-      </c>
-      <c r="H71" s="158">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C72" s="129" t="s">
-        <v>328</v>
-      </c>
-      <c r="D72" s="129"/>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72" s="158">
-        <v>60</v>
-      </c>
-      <c r="H72" s="158">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C73" s="129" t="s">
-        <v>329</v>
-      </c>
-      <c r="D73" s="129"/>
-      <c r="F73">
-        <v>3</v>
-      </c>
-      <c r="G73" s="158">
-        <v>30</v>
-      </c>
-      <c r="H73" s="158">
-        <f t="shared" si="1"/>
+      <c r="H74" s="152">
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="45">
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
     <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
     <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C44:C47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14103,13 +16983,13 @@
   <dimension ref="C1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
     <col min="5" max="5" width="50.75" customWidth="1"/>
     <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.625" customWidth="1"/>
@@ -14118,220 +16998,226 @@
   <sheetData>
     <row r="1" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="E2" s="141" t="s">
+      <c r="E2" s="182" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="139">
+      <c r="F2" s="106">
         <f>SUM(F9:F88)</f>
-        <v>154</v>
-      </c>
-      <c r="G2" s="136" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="103" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="E3" s="142" t="s">
+      <c r="E3" s="183" t="s">
         <v>215</v>
       </c>
-      <c r="F3" s="134">
+      <c r="F3" s="101">
         <f>SUM(H9:H88)</f>
-        <v>5560</v>
-      </c>
-      <c r="G3" s="137" t="s">
+        <v>4600</v>
+      </c>
+      <c r="G3" s="104" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="E4" s="142" t="s">
+      <c r="E4" s="183" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="134">
+      <c r="F4" s="101">
         <f>F3/20</f>
-        <v>278</v>
-      </c>
-      <c r="G4" s="137" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="104" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="E5" s="142" t="s">
+      <c r="E5" s="183" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="135">
-        <v>850000</v>
-      </c>
-      <c r="G5" s="137" t="s">
+      <c r="F5" s="102">
+        <v>800000</v>
+      </c>
+      <c r="G5" s="104" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="6" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E6" s="143" t="s">
+      <c r="E6" s="184" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="140">
+      <c r="F6" s="107">
         <f>F4*F5</f>
-        <v>236300000</v>
-      </c>
-      <c r="G6" s="138" t="s">
+        <v>184000000</v>
+      </c>
+      <c r="G6" s="105" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C8" s="132" t="s">
-        <v>323</v>
-      </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="133" t="s">
+    <row r="7" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="166" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="172"/>
+      <c r="E8" s="157" t="s">
         <v>197</v>
       </c>
-      <c r="F8" s="133" t="s">
+      <c r="F8" s="157" t="s">
         <v>175</v>
       </c>
-      <c r="G8" s="133" t="s">
+      <c r="G8" s="157" t="s">
         <v>176</v>
       </c>
-      <c r="H8" s="133" t="s">
+      <c r="H8" s="173" t="s">
         <v>213</v>
       </c>
-      <c r="I8" s="131"/>
+      <c r="I8" s="99"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C9" s="129" t="s">
-        <v>330</v>
-      </c>
-      <c r="D9" s="129"/>
-      <c r="E9" t="s">
-        <v>331</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
+      <c r="C9" s="170" t="s">
+        <v>327</v>
+      </c>
+      <c r="D9" s="171"/>
+      <c r="E9" s="154" t="s">
+        <v>328</v>
+      </c>
+      <c r="F9" s="154">
+        <v>1</v>
+      </c>
+      <c r="G9" s="154">
         <v>720</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="155">
         <f>F9*G9</f>
         <v>720</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C10" s="129" t="s">
-        <v>255</v>
-      </c>
-      <c r="D10" s="129"/>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
+      <c r="C10" s="159" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="161"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145">
+        <v>1</v>
+      </c>
+      <c r="G10" s="145">
         <v>120</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="146">
         <f>F10*G10</f>
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C11" s="129" t="s">
-        <v>258</v>
-      </c>
-      <c r="D11" s="129"/>
-      <c r="F11">
+      <c r="C11" s="159" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="161"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145">
         <f>物量試算!G8</f>
         <v>20</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="145">
         <v>30</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="146">
         <f t="shared" ref="H11:H16" si="0">F11*G11</f>
         <v>600</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C12" s="129" t="s">
-        <v>272</v>
-      </c>
-      <c r="D12" s="129"/>
-      <c r="E12" s="128"/>
-      <c r="F12">
+      <c r="C12" s="159" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="161"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="145">
         <f>物量試算!G9</f>
         <v>20</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="145">
         <v>20</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="146">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="159" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="128"/>
-      <c r="F13">
+      <c r="D13" s="161"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="145">
         <f>物量試算!G10</f>
-        <v>40</v>
-      </c>
-      <c r="G13">
         <v>30</v>
       </c>
-      <c r="H13">
+      <c r="G13" s="145">
+        <v>30</v>
+      </c>
+      <c r="H13" s="146">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C14" s="129" t="s">
+      <c r="C14" s="159" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="129"/>
-      <c r="F14">
+      <c r="D14" s="161"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145">
         <f>物量試算!G11</f>
-        <v>40</v>
-      </c>
-      <c r="G14">
         <v>30</v>
       </c>
-      <c r="H14">
+      <c r="G14" s="145">
+        <v>30</v>
+      </c>
+      <c r="H14" s="146">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>900</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C15" s="129" t="s">
+      <c r="C15" s="159" t="s">
         <v>194</v>
       </c>
-      <c r="D15" s="129"/>
-      <c r="F15">
+      <c r="D15" s="161"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145">
         <f>物量試算!G12</f>
         <v>20</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="145">
         <v>30</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="146">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C16" s="129" t="s">
-        <v>332</v>
-      </c>
-      <c r="D16" s="129"/>
-      <c r="F16">
+    <row r="16" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="164" t="s">
+        <v>329</v>
+      </c>
+      <c r="D16" s="165"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="150">
         <f>物量試算!G16</f>
-        <v>12</v>
-      </c>
-      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="G16" s="150">
         <v>60</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="169">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/Project/EBA/EBA制作用資料サンプル.xlsx
+++ b/Project/EBA/EBA制作用資料サンプル.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RandD\Validation\Project\EBA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\RandD\Validation\Project\EBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A187F2-2B1D-498B-AB0E-D1A371FE1699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="予算" sheetId="5" r:id="rId1"/>
@@ -30,7 +29,10 @@
     <sheet name="UI工数試算表" sheetId="7" r:id="rId15"/>
     <sheet name="その他工数試算表" sheetId="20" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Plan工数試算表!$C$9:$J$76</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="476">
   <si>
     <t>MS01</t>
     <phoneticPr fontId="1"/>
@@ -3783,11 +3785,19 @@
     <t>Slack</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>プランナーC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイドボスデザイナー - A</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
@@ -4829,7 +4839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="315">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5412,9 +5422,6 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5521,9 +5528,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5616,12 +5620,57 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5634,64 +5683,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5706,6 +5698,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -5727,16 +5731,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5750,24 +5772,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8344,6 +8348,14 @@
             </a:rPr>
             <a:t>組織図に合わせて、その人員がいつからいつまで業務するかの人月工数を表します</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
@@ -8461,13 +8473,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8895,7 +8907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9442,7 +9454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D03C11C-D420-4E83-8D3C-9B553DB71F6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9496,7 +9508,7 @@
         <v>221</v>
       </c>
       <c r="H4">
-        <f>F4-人月表!C33-人月表!C34-人月表!C35</f>
+        <f>F4-人月表!C35-人月表!C36-人月表!C37</f>
         <v>0</v>
       </c>
     </row>
@@ -9537,10 +9549,10 @@
     </row>
     <row r="8" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="305" t="s">
+      <c r="C9" s="309" t="s">
         <v>318</v>
       </c>
-      <c r="D9" s="313"/>
+      <c r="D9" s="311"/>
       <c r="E9" s="126" t="s">
         <v>197</v>
       </c>
@@ -9556,10 +9568,10 @@
       <c r="I9" s="99"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C10" s="314" t="s">
+      <c r="C10" s="312" t="s">
         <v>328</v>
       </c>
-      <c r="D10" s="315"/>
+      <c r="D10" s="313"/>
       <c r="E10" s="123" t="s">
         <v>329</v>
       </c>
@@ -9575,10 +9587,10 @@
       </c>
     </row>
     <row r="11" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="303" t="s">
+      <c r="C11" s="307" t="s">
         <v>330</v>
       </c>
-      <c r="D11" s="304"/>
+      <c r="D11" s="308"/>
       <c r="E11" s="119"/>
       <c r="F11" s="119">
         <f>物量試算!G13</f>
@@ -9593,30 +9605,30 @@
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C12" s="316"/>
-      <c r="D12" s="316"/>
+      <c r="C12" s="314"/>
+      <c r="D12" s="314"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C13" s="316"/>
-      <c r="D13" s="316"/>
+      <c r="C13" s="314"/>
+      <c r="D13" s="314"/>
       <c r="E13" s="98"/>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C14" s="316"/>
-      <c r="D14" s="316"/>
+      <c r="C14" s="314"/>
+      <c r="D14" s="314"/>
       <c r="E14" s="98"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C15" s="316"/>
-      <c r="D15" s="316"/>
+      <c r="C15" s="314"/>
+      <c r="D15" s="314"/>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C16" s="316"/>
-      <c r="D16" s="316"/>
+      <c r="C16" s="314"/>
+      <c r="D16" s="314"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C17" s="316"/>
-      <c r="D17" s="316"/>
+      <c r="C17" s="314"/>
+      <c r="D17" s="314"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9636,7 +9648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944E240F-6483-4F29-852D-396A21B70BDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9727,10 +9739,10 @@
     </row>
     <row r="8" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="305" t="s">
+      <c r="C9" s="309" t="s">
         <v>318</v>
       </c>
-      <c r="D9" s="313"/>
+      <c r="D9" s="311"/>
       <c r="E9" s="126" t="s">
         <v>197</v>
       </c>
@@ -9746,10 +9758,10 @@
       <c r="I9" s="99"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C10" s="314" t="s">
+      <c r="C10" s="312" t="s">
         <v>331</v>
       </c>
-      <c r="D10" s="315"/>
+      <c r="D10" s="313"/>
       <c r="E10" s="123" t="s">
         <v>332</v>
       </c>
@@ -9765,10 +9777,10 @@
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C11" s="301" t="s">
+      <c r="C11" s="297" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="302"/>
+      <c r="D11" s="300"/>
       <c r="E11" s="114" t="s">
         <v>336</v>
       </c>
@@ -9784,10 +9796,10 @@
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C12" s="301" t="s">
+      <c r="C12" s="297" t="s">
         <v>256</v>
       </c>
-      <c r="D12" s="302"/>
+      <c r="D12" s="300"/>
       <c r="E12" s="114" t="s">
         <v>415</v>
       </c>
@@ -9804,10 +9816,10 @@
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C13" s="301" t="s">
+      <c r="C13" s="297" t="s">
         <v>270</v>
       </c>
-      <c r="D13" s="302"/>
+      <c r="D13" s="300"/>
       <c r="E13" s="131" t="s">
         <v>416</v>
       </c>
@@ -9824,10 +9836,10 @@
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C14" s="301" t="s">
+      <c r="C14" s="297" t="s">
         <v>192</v>
       </c>
-      <c r="D14" s="302"/>
+      <c r="D14" s="300"/>
       <c r="E14" s="131" t="s">
         <v>418</v>
       </c>
@@ -9844,10 +9856,10 @@
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C15" s="301" t="s">
+      <c r="C15" s="297" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="302"/>
+      <c r="D15" s="300"/>
       <c r="E15" s="114" t="s">
         <v>419</v>
       </c>
@@ -9864,10 +9876,10 @@
       </c>
     </row>
     <row r="16" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="303" t="s">
+      <c r="C16" s="307" t="s">
         <v>327</v>
       </c>
-      <c r="D16" s="304"/>
+      <c r="D16" s="308"/>
       <c r="E16" s="119" t="s">
         <v>337</v>
       </c>
@@ -9884,8 +9896,8 @@
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C17" s="316"/>
-      <c r="D17" s="316"/>
+      <c r="C17" s="314"/>
+      <c r="D17" s="314"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9905,7 +9917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC0FA80-5E38-4DDA-9DEA-9A94F26B538F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9999,10 +10011,10 @@
     </row>
     <row r="8" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="305" t="s">
+      <c r="C9" s="309" t="s">
         <v>318</v>
       </c>
-      <c r="D9" s="313"/>
+      <c r="D9" s="311"/>
       <c r="E9" s="126" t="s">
         <v>197</v>
       </c>
@@ -10018,10 +10030,10 @@
       <c r="I9" s="99"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C10" s="314" t="s">
+      <c r="C10" s="312" t="s">
         <v>339</v>
       </c>
-      <c r="D10" s="315"/>
+      <c r="D10" s="313"/>
       <c r="E10" s="123" t="s">
         <v>340</v>
       </c>
@@ -10037,10 +10049,10 @@
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C11" s="301" t="s">
+      <c r="C11" s="297" t="s">
         <v>395</v>
       </c>
-      <c r="D11" s="302"/>
+      <c r="D11" s="300"/>
       <c r="E11" s="114" t="s">
         <v>399</v>
       </c>
@@ -10056,10 +10068,10 @@
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C12" s="301" t="s">
+      <c r="C12" s="297" t="s">
         <v>417</v>
       </c>
-      <c r="D12" s="302"/>
+      <c r="D12" s="300"/>
       <c r="E12" s="114"/>
       <c r="F12" s="114">
         <v>1</v>
@@ -10073,10 +10085,10 @@
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C13" s="301" t="s">
+      <c r="C13" s="297" t="s">
         <v>398</v>
       </c>
-      <c r="D13" s="302"/>
+      <c r="D13" s="300"/>
       <c r="E13" s="114"/>
       <c r="F13" s="114">
         <v>1</v>
@@ -10090,10 +10102,10 @@
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C14" s="301" t="s">
+      <c r="C14" s="297" t="s">
         <v>409</v>
       </c>
-      <c r="D14" s="302"/>
+      <c r="D14" s="300"/>
       <c r="E14" s="114"/>
       <c r="F14" s="114">
         <v>1</v>
@@ -10107,10 +10119,10 @@
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C15" s="301" t="s">
+      <c r="C15" s="297" t="s">
         <v>400</v>
       </c>
-      <c r="D15" s="302"/>
+      <c r="D15" s="300"/>
       <c r="E15" s="114" t="s">
         <v>401</v>
       </c>
@@ -10126,10 +10138,10 @@
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C16" s="301" t="s">
+      <c r="C16" s="297" t="s">
         <v>253</v>
       </c>
-      <c r="D16" s="302"/>
+      <c r="D16" s="300"/>
       <c r="E16" s="114"/>
       <c r="F16" s="114">
         <v>1</v>
@@ -10143,10 +10155,10 @@
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C17" s="301" t="s">
+      <c r="C17" s="297" t="s">
         <v>266</v>
       </c>
-      <c r="D17" s="302"/>
+      <c r="D17" s="300"/>
       <c r="E17" s="114"/>
       <c r="F17" s="114">
         <v>1</v>
@@ -10177,7 +10189,7 @@
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C19" s="301" t="s">
+      <c r="C19" s="297" t="s">
         <v>343</v>
       </c>
       <c r="D19" s="117" t="s">
@@ -10196,7 +10208,7 @@
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C20" s="301"/>
+      <c r="C20" s="297"/>
       <c r="D20" s="117" t="s">
         <v>348</v>
       </c>
@@ -10213,7 +10225,7 @@
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C21" s="301"/>
+      <c r="C21" s="297"/>
       <c r="D21" s="117" t="s">
         <v>349</v>
       </c>
@@ -10230,7 +10242,7 @@
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C22" s="301"/>
+      <c r="C22" s="297"/>
       <c r="D22" s="117" t="s">
         <v>350</v>
       </c>
@@ -10247,7 +10259,7 @@
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C23" s="301"/>
+      <c r="C23" s="297"/>
       <c r="D23" s="117" t="s">
         <v>351</v>
       </c>
@@ -10264,7 +10276,7 @@
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C24" s="301" t="s">
+      <c r="C24" s="297" t="s">
         <v>231</v>
       </c>
       <c r="D24" s="114" t="s">
@@ -10283,7 +10295,7 @@
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C25" s="301"/>
+      <c r="C25" s="297"/>
       <c r="D25" s="117" t="s">
         <v>354</v>
       </c>
@@ -10300,7 +10312,7 @@
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C26" s="301"/>
+      <c r="C26" s="297"/>
       <c r="D26" s="117" t="s">
         <v>355</v>
       </c>
@@ -10317,7 +10329,7 @@
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C27" s="301" t="s">
+      <c r="C27" s="297" t="s">
         <v>234</v>
       </c>
       <c r="D27" s="117" t="s">
@@ -10336,7 +10348,7 @@
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C28" s="301"/>
+      <c r="C28" s="297"/>
       <c r="D28" s="117" t="s">
         <v>357</v>
       </c>
@@ -10353,7 +10365,7 @@
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C29" s="301"/>
+      <c r="C29" s="297"/>
       <c r="D29" s="117" t="s">
         <v>358</v>
       </c>
@@ -10370,7 +10382,7 @@
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C30" s="301"/>
+      <c r="C30" s="297"/>
       <c r="D30" s="117" t="s">
         <v>359</v>
       </c>
@@ -10388,10 +10400,10 @@
       </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C31" s="301" t="s">
+      <c r="C31" s="297" t="s">
         <v>360</v>
       </c>
-      <c r="D31" s="302"/>
+      <c r="D31" s="300"/>
       <c r="E31" s="114"/>
       <c r="F31" s="114">
         <v>1</v>
@@ -10405,10 +10417,10 @@
       </c>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C32" s="301" t="s">
+      <c r="C32" s="297" t="s">
         <v>344</v>
       </c>
-      <c r="D32" s="302"/>
+      <c r="D32" s="300"/>
       <c r="E32" s="114"/>
       <c r="F32" s="114">
         <v>1</v>
@@ -10422,10 +10434,10 @@
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C33" s="307" t="s">
+      <c r="C33" s="303" t="s">
         <v>345</v>
       </c>
-      <c r="D33" s="302"/>
+      <c r="D33" s="300"/>
       <c r="E33" s="114"/>
       <c r="F33" s="114">
         <v>1</v>
@@ -10439,10 +10451,10 @@
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C34" s="301" t="s">
+      <c r="C34" s="297" t="s">
         <v>192</v>
       </c>
-      <c r="D34" s="302"/>
+      <c r="D34" s="300"/>
       <c r="E34" s="114"/>
       <c r="F34" s="114">
         <f>物量試算!G10</f>
@@ -10457,10 +10469,10 @@
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C35" s="301" t="s">
+      <c r="C35" s="297" t="s">
         <v>193</v>
       </c>
-      <c r="D35" s="302"/>
+      <c r="D35" s="300"/>
       <c r="E35" s="114"/>
       <c r="F35" s="114">
         <f>物量試算!G11</f>
@@ -10475,7 +10487,7 @@
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C36" s="301" t="s">
+      <c r="C36" s="297" t="s">
         <v>256</v>
       </c>
       <c r="D36" s="114" t="s">
@@ -10494,7 +10506,7 @@
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C37" s="301"/>
+      <c r="C37" s="297"/>
       <c r="D37" s="114" t="s">
         <v>362</v>
       </c>
@@ -10511,7 +10523,7 @@
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C38" s="301"/>
+      <c r="C38" s="297"/>
       <c r="D38" s="114" t="s">
         <v>363</v>
       </c>
@@ -10529,7 +10541,7 @@
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C39" s="307" t="s">
+      <c r="C39" s="303" t="s">
         <v>270</v>
       </c>
       <c r="D39" s="114" t="s">
@@ -10548,7 +10560,7 @@
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C40" s="301"/>
+      <c r="C40" s="297"/>
       <c r="D40" s="117" t="s">
         <v>365</v>
       </c>
@@ -10565,7 +10577,7 @@
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C41" s="301"/>
+      <c r="C41" s="297"/>
       <c r="D41" s="117" t="s">
         <v>366</v>
       </c>
@@ -10583,10 +10595,10 @@
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C42" s="301" t="s">
+      <c r="C42" s="297" t="s">
         <v>346</v>
       </c>
-      <c r="D42" s="302"/>
+      <c r="D42" s="300"/>
       <c r="E42" s="114"/>
       <c r="F42" s="114">
         <v>1</v>
@@ -10600,10 +10612,10 @@
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C43" s="301" t="s">
+      <c r="C43" s="297" t="s">
         <v>347</v>
       </c>
-      <c r="D43" s="302"/>
+      <c r="D43" s="300"/>
       <c r="E43" s="114"/>
       <c r="F43" s="114">
         <v>1</v>
@@ -10617,7 +10629,7 @@
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C44" s="307" t="s">
+      <c r="C44" s="303" t="s">
         <v>246</v>
       </c>
       <c r="D44" s="114" t="s">
@@ -10636,7 +10648,7 @@
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C45" s="301"/>
+      <c r="C45" s="297"/>
       <c r="D45" s="114" t="s">
         <v>367</v>
       </c>
@@ -10653,7 +10665,7 @@
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C46" s="301"/>
+      <c r="C46" s="297"/>
       <c r="D46" s="114" t="s">
         <v>369</v>
       </c>
@@ -10670,10 +10682,10 @@
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C47" s="301" t="s">
+      <c r="C47" s="297" t="s">
         <v>370</v>
       </c>
-      <c r="D47" s="302"/>
+      <c r="D47" s="300"/>
       <c r="E47" s="114"/>
       <c r="F47" s="114">
         <v>1</v>
@@ -10687,10 +10699,10 @@
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C48" s="301" t="s">
+      <c r="C48" s="297" t="s">
         <v>371</v>
       </c>
-      <c r="D48" s="302"/>
+      <c r="D48" s="300"/>
       <c r="E48" s="114"/>
       <c r="F48" s="114">
         <v>1</v>
@@ -10704,10 +10716,10 @@
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C49" s="301" t="s">
+      <c r="C49" s="297" t="s">
         <v>372</v>
       </c>
-      <c r="D49" s="302"/>
+      <c r="D49" s="300"/>
       <c r="E49" s="114"/>
       <c r="F49" s="114">
         <v>20</v>
@@ -10721,10 +10733,10 @@
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C50" s="301" t="s">
+      <c r="C50" s="297" t="s">
         <v>373</v>
       </c>
-      <c r="D50" s="302"/>
+      <c r="D50" s="300"/>
       <c r="E50" s="114"/>
       <c r="F50" s="114">
         <v>1</v>
@@ -10738,10 +10750,10 @@
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C51" s="301" t="s">
+      <c r="C51" s="297" t="s">
         <v>374</v>
       </c>
-      <c r="D51" s="302"/>
+      <c r="D51" s="300"/>
       <c r="E51" s="114"/>
       <c r="F51" s="114">
         <v>1</v>
@@ -10755,10 +10767,10 @@
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C52" s="301" t="s">
+      <c r="C52" s="297" t="s">
         <v>375</v>
       </c>
-      <c r="D52" s="302"/>
+      <c r="D52" s="300"/>
       <c r="E52" s="114"/>
       <c r="F52" s="114">
         <v>1</v>
@@ -10772,10 +10784,10 @@
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C53" s="301" t="s">
+      <c r="C53" s="297" t="s">
         <v>376</v>
       </c>
-      <c r="D53" s="302"/>
+      <c r="D53" s="300"/>
       <c r="E53" s="114"/>
       <c r="F53" s="114">
         <v>1</v>
@@ -10789,10 +10801,10 @@
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C54" s="301" t="s">
+      <c r="C54" s="297" t="s">
         <v>377</v>
       </c>
-      <c r="D54" s="302"/>
+      <c r="D54" s="300"/>
       <c r="E54" s="114"/>
       <c r="F54" s="114">
         <v>1</v>
@@ -10806,10 +10818,10 @@
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C55" s="301" t="s">
+      <c r="C55" s="297" t="s">
         <v>397</v>
       </c>
-      <c r="D55" s="302"/>
+      <c r="D55" s="300"/>
       <c r="E55" s="114"/>
       <c r="F55" s="114">
         <v>1</v>
@@ -10823,7 +10835,7 @@
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C56" s="301" t="s">
+      <c r="C56" s="297" t="s">
         <v>384</v>
       </c>
       <c r="D56" s="114" t="s">
@@ -10842,7 +10854,7 @@
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C57" s="301"/>
+      <c r="C57" s="297"/>
       <c r="D57" s="114" t="s">
         <v>379</v>
       </c>
@@ -10859,7 +10871,7 @@
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C58" s="301"/>
+      <c r="C58" s="297"/>
       <c r="D58" s="114" t="s">
         <v>380</v>
       </c>
@@ -10876,7 +10888,7 @@
       </c>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C59" s="301"/>
+      <c r="C59" s="297"/>
       <c r="D59" s="114" t="s">
         <v>381</v>
       </c>
@@ -10893,7 +10905,7 @@
       </c>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C60" s="301"/>
+      <c r="C60" s="297"/>
       <c r="D60" s="114" t="s">
         <v>382</v>
       </c>
@@ -10911,10 +10923,10 @@
       </c>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C61" s="301" t="s">
+      <c r="C61" s="297" t="s">
         <v>385</v>
       </c>
-      <c r="D61" s="302"/>
+      <c r="D61" s="300"/>
       <c r="E61" s="114"/>
       <c r="F61" s="114">
         <v>1</v>
@@ -10928,10 +10940,10 @@
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C62" s="301" t="s">
+      <c r="C62" s="297" t="s">
         <v>386</v>
       </c>
-      <c r="D62" s="302"/>
+      <c r="D62" s="300"/>
       <c r="E62" s="114"/>
       <c r="F62" s="114">
         <v>1</v>
@@ -10945,10 +10957,10 @@
       </c>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C63" s="301" t="s">
+      <c r="C63" s="297" t="s">
         <v>387</v>
       </c>
-      <c r="D63" s="302"/>
+      <c r="D63" s="300"/>
       <c r="E63" s="114"/>
       <c r="F63" s="114">
         <v>1</v>
@@ -10962,10 +10974,10 @@
       </c>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C64" s="301" t="s">
+      <c r="C64" s="297" t="s">
         <v>388</v>
       </c>
-      <c r="D64" s="302"/>
+      <c r="D64" s="300"/>
       <c r="E64" s="114"/>
       <c r="F64" s="114">
         <v>1</v>
@@ -10979,10 +10991,10 @@
       </c>
     </row>
     <row r="65" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C65" s="301" t="s">
+      <c r="C65" s="297" t="s">
         <v>389</v>
       </c>
-      <c r="D65" s="302"/>
+      <c r="D65" s="300"/>
       <c r="E65" s="114"/>
       <c r="F65" s="114">
         <v>1</v>
@@ -10996,10 +11008,10 @@
       </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C66" s="301" t="s">
+      <c r="C66" s="297" t="s">
         <v>390</v>
       </c>
-      <c r="D66" s="302"/>
+      <c r="D66" s="300"/>
       <c r="E66" s="114"/>
       <c r="F66" s="114">
         <v>1</v>
@@ -11013,10 +11025,10 @@
       </c>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C67" s="301" t="s">
+      <c r="C67" s="297" t="s">
         <v>391</v>
       </c>
-      <c r="D67" s="302"/>
+      <c r="D67" s="300"/>
       <c r="E67" s="114"/>
       <c r="F67" s="114">
         <v>1</v>
@@ -11030,10 +11042,10 @@
       </c>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C68" s="301" t="s">
+      <c r="C68" s="297" t="s">
         <v>392</v>
       </c>
-      <c r="D68" s="302"/>
+      <c r="D68" s="300"/>
       <c r="E68" s="114"/>
       <c r="F68" s="114">
         <f>UI工数試算表!F29</f>
@@ -11048,10 +11060,10 @@
       </c>
     </row>
     <row r="69" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C69" s="301" t="s">
+      <c r="C69" s="297" t="s">
         <v>393</v>
       </c>
-      <c r="D69" s="302"/>
+      <c r="D69" s="300"/>
       <c r="E69" s="114"/>
       <c r="F69" s="114">
         <f>物量試算!G14</f>
@@ -11066,10 +11078,10 @@
       </c>
     </row>
     <row r="70" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C70" s="301" t="s">
+      <c r="C70" s="297" t="s">
         <v>394</v>
       </c>
-      <c r="D70" s="302"/>
+      <c r="D70" s="300"/>
       <c r="E70" s="114"/>
       <c r="F70" s="114">
         <f>物量試算!G15</f>
@@ -11084,10 +11096,10 @@
       </c>
     </row>
     <row r="71" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C71" s="301" t="s">
+      <c r="C71" s="297" t="s">
         <v>383</v>
       </c>
-      <c r="D71" s="302"/>
+      <c r="D71" s="300"/>
       <c r="E71" s="114"/>
       <c r="F71" s="114">
         <v>1</v>
@@ -11101,10 +11113,10 @@
       </c>
     </row>
     <row r="72" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C72" s="301" t="s">
+      <c r="C72" s="297" t="s">
         <v>396</v>
       </c>
-      <c r="D72" s="302"/>
+      <c r="D72" s="300"/>
       <c r="E72" s="114" t="s">
         <v>404</v>
       </c>
@@ -11120,10 +11132,10 @@
       </c>
     </row>
     <row r="73" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C73" s="301" t="s">
+      <c r="C73" s="297" t="s">
         <v>402</v>
       </c>
-      <c r="D73" s="302"/>
+      <c r="D73" s="300"/>
       <c r="E73" s="114" t="s">
         <v>403</v>
       </c>
@@ -11139,10 +11151,10 @@
       </c>
     </row>
     <row r="74" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C74" s="301" t="s">
+      <c r="C74" s="297" t="s">
         <v>405</v>
       </c>
-      <c r="D74" s="302"/>
+      <c r="D74" s="300"/>
       <c r="E74" s="114"/>
       <c r="F74" s="114">
         <v>1</v>
@@ -11156,10 +11168,10 @@
       </c>
     </row>
     <row r="75" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C75" s="301" t="s">
+      <c r="C75" s="297" t="s">
         <v>406</v>
       </c>
-      <c r="D75" s="302"/>
+      <c r="D75" s="300"/>
       <c r="E75" s="114" t="s">
         <v>407</v>
       </c>
@@ -11175,10 +11187,10 @@
       </c>
     </row>
     <row r="76" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C76" s="303" t="s">
+      <c r="C76" s="307" t="s">
         <v>408</v>
       </c>
-      <c r="D76" s="304"/>
+      <c r="D76" s="308"/>
       <c r="E76" s="119"/>
       <c r="F76" s="119">
         <v>1</v>
@@ -11193,6 +11205,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="C76:D76"/>
@@ -11209,38 +11253,6 @@
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11249,7 +11261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C25833-1334-403B-BD14-E0E2032C1BEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11340,10 +11352,10 @@
     </row>
     <row r="8" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="305" t="s">
+      <c r="C9" s="309" t="s">
         <v>318</v>
       </c>
-      <c r="D9" s="313"/>
+      <c r="D9" s="311"/>
       <c r="E9" s="126" t="s">
         <v>197</v>
       </c>
@@ -11359,10 +11371,10 @@
       <c r="I9" s="99"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C10" s="314" t="s">
+      <c r="C10" s="312" t="s">
         <v>333</v>
       </c>
-      <c r="D10" s="315"/>
+      <c r="D10" s="313"/>
       <c r="E10" s="123" t="s">
         <v>334</v>
       </c>
@@ -11378,10 +11390,10 @@
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C11" s="301" t="s">
+      <c r="C11" s="297" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="302"/>
+      <c r="D11" s="300"/>
       <c r="E11" s="114"/>
       <c r="F11" s="114">
         <v>1000</v>
@@ -11395,10 +11407,10 @@
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C12" s="301" t="s">
+      <c r="C12" s="297" t="s">
         <v>256</v>
       </c>
-      <c r="D12" s="302"/>
+      <c r="D12" s="300"/>
       <c r="E12" s="114"/>
       <c r="F12" s="114">
         <f>物量試算!G8</f>
@@ -11413,10 +11425,10 @@
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C13" s="301" t="s">
+      <c r="C13" s="297" t="s">
         <v>270</v>
       </c>
-      <c r="D13" s="302"/>
+      <c r="D13" s="300"/>
       <c r="E13" s="131"/>
       <c r="F13" s="114">
         <f>物量試算!G9</f>
@@ -11431,10 +11443,10 @@
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C14" s="301" t="s">
+      <c r="C14" s="297" t="s">
         <v>192</v>
       </c>
-      <c r="D14" s="302"/>
+      <c r="D14" s="300"/>
       <c r="E14" s="131"/>
       <c r="F14" s="114">
         <f>物量試算!G10</f>
@@ -11449,10 +11461,10 @@
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C15" s="301" t="s">
+      <c r="C15" s="297" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="302"/>
+      <c r="D15" s="300"/>
       <c r="E15" s="114"/>
       <c r="F15" s="114">
         <f>物量試算!G11</f>
@@ -11467,10 +11479,10 @@
       </c>
     </row>
     <row r="16" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="303" t="s">
+      <c r="C16" s="307" t="s">
         <v>327</v>
       </c>
-      <c r="D16" s="304"/>
+      <c r="D16" s="308"/>
       <c r="E16" s="119"/>
       <c r="F16" s="119">
         <f>物量試算!G16*100</f>
@@ -11485,8 +11497,8 @@
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C17" s="316"/>
-      <c r="D17" s="316"/>
+      <c r="C17" s="314"/>
+      <c r="D17" s="314"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11506,11 +11518,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0B030C-FEBA-407F-AAF5-885F3BA9C465}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11597,10 +11609,10 @@
     </row>
     <row r="8" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="305" t="s">
+      <c r="C9" s="309" t="s">
         <v>318</v>
       </c>
-      <c r="D9" s="313"/>
+      <c r="D9" s="311"/>
       <c r="E9" s="126" t="s">
         <v>197</v>
       </c>
@@ -11616,10 +11628,10 @@
       <c r="I9" s="99"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C10" s="314" t="s">
+      <c r="C10" s="312" t="s">
         <v>411</v>
       </c>
-      <c r="D10" s="315"/>
+      <c r="D10" s="313"/>
       <c r="E10" s="123" t="s">
         <v>412</v>
       </c>
@@ -11635,10 +11647,10 @@
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C11" s="301" t="s">
+      <c r="C11" s="297" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="302"/>
+      <c r="D11" s="300"/>
       <c r="E11" s="114"/>
       <c r="F11" s="114">
         <v>1000</v>
@@ -11652,10 +11664,10 @@
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C12" s="301" t="s">
+      <c r="C12" s="297" t="s">
         <v>256</v>
       </c>
-      <c r="D12" s="302"/>
+      <c r="D12" s="300"/>
       <c r="E12" s="114"/>
       <c r="F12" s="114">
         <f>物量試算!G8</f>
@@ -11670,10 +11682,10 @@
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C13" s="301" t="s">
+      <c r="C13" s="297" t="s">
         <v>270</v>
       </c>
-      <c r="D13" s="302"/>
+      <c r="D13" s="300"/>
       <c r="E13" s="131"/>
       <c r="F13" s="114">
         <f>物量試算!G9</f>
@@ -11688,10 +11700,10 @@
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C14" s="301" t="s">
+      <c r="C14" s="297" t="s">
         <v>192</v>
       </c>
-      <c r="D14" s="302"/>
+      <c r="D14" s="300"/>
       <c r="E14" s="131"/>
       <c r="F14" s="114">
         <f>物量試算!G10</f>
@@ -11706,10 +11718,10 @@
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C15" s="301" t="s">
+      <c r="C15" s="297" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="302"/>
+      <c r="D15" s="300"/>
       <c r="E15" s="114"/>
       <c r="F15" s="114">
         <f>物量試算!G11</f>
@@ -11724,10 +11736,10 @@
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C16" s="301" t="s">
+      <c r="C16" s="297" t="s">
         <v>327</v>
       </c>
-      <c r="D16" s="302"/>
+      <c r="D16" s="300"/>
       <c r="E16" s="114"/>
       <c r="F16" s="114">
         <f>物量試算!G16*100</f>
@@ -11742,10 +11754,10 @@
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C17" s="301" t="s">
+      <c r="C17" s="297" t="s">
         <v>413</v>
       </c>
-      <c r="D17" s="302"/>
+      <c r="D17" s="300"/>
       <c r="E17" s="114"/>
       <c r="F17" s="114">
         <v>100</v>
@@ -11759,10 +11771,10 @@
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="303" t="s">
+      <c r="C18" s="307" t="s">
         <v>414</v>
       </c>
-      <c r="D18" s="304"/>
+      <c r="D18" s="308"/>
       <c r="E18" s="119"/>
       <c r="F18" s="119">
         <v>20</v>
@@ -11794,7 +11806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AF688B-00AF-44A9-8695-A28B9E4133F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11888,10 +11900,10 @@
     </row>
     <row r="8" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="305" t="s">
+      <c r="C9" s="309" t="s">
         <v>317</v>
       </c>
-      <c r="D9" s="313"/>
+      <c r="D9" s="311"/>
       <c r="E9" s="126" t="s">
         <v>197</v>
       </c>
@@ -11907,10 +11919,10 @@
       <c r="I9" s="99"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C10" s="314" t="s">
+      <c r="C10" s="312" t="s">
         <v>301</v>
       </c>
-      <c r="D10" s="315"/>
+      <c r="D10" s="313"/>
       <c r="E10" s="123" t="s">
         <v>300</v>
       </c>
@@ -11926,10 +11938,10 @@
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C11" s="301" t="s">
+      <c r="C11" s="297" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="302"/>
+      <c r="D11" s="300"/>
       <c r="E11" s="114" t="s">
         <v>145</v>
       </c>
@@ -11945,10 +11957,10 @@
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C12" s="301" t="s">
+      <c r="C12" s="297" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="302"/>
+      <c r="D12" s="300"/>
       <c r="E12" s="114" t="s">
         <v>147</v>
       </c>
@@ -11964,10 +11976,10 @@
       </c>
     </row>
     <row r="13" spans="3:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="C13" s="301" t="s">
+      <c r="C13" s="297" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="302"/>
+      <c r="D13" s="300"/>
       <c r="E13" s="131" t="s">
         <v>149</v>
       </c>
@@ -11983,10 +11995,10 @@
       </c>
     </row>
     <row r="14" spans="3:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="C14" s="301" t="s">
+      <c r="C14" s="297" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="302"/>
+      <c r="D14" s="300"/>
       <c r="E14" s="131" t="s">
         <v>151</v>
       </c>
@@ -12002,10 +12014,10 @@
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C15" s="301" t="s">
+      <c r="C15" s="297" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="302"/>
+      <c r="D15" s="300"/>
       <c r="E15" s="114" t="s">
         <v>153</v>
       </c>
@@ -12021,7 +12033,7 @@
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C16" s="301" t="s">
+      <c r="C16" s="297" t="s">
         <v>154</v>
       </c>
       <c r="D16" s="114" t="s">
@@ -12042,7 +12054,7 @@
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C17" s="301"/>
+      <c r="C17" s="297"/>
       <c r="D17" s="114" t="s">
         <v>178</v>
       </c>
@@ -12061,7 +12073,7 @@
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C18" s="301"/>
+      <c r="C18" s="297"/>
       <c r="D18" s="114" t="s">
         <v>179</v>
       </c>
@@ -12080,7 +12092,7 @@
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C19" s="301"/>
+      <c r="C19" s="297"/>
       <c r="D19" s="114" t="s">
         <v>181</v>
       </c>
@@ -12099,7 +12111,7 @@
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C20" s="301"/>
+      <c r="C20" s="297"/>
       <c r="D20" s="114" t="s">
         <v>180</v>
       </c>
@@ -12119,7 +12131,7 @@
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C21" s="301"/>
+      <c r="C21" s="297"/>
       <c r="D21" s="114" t="s">
         <v>182</v>
       </c>
@@ -12138,10 +12150,10 @@
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C22" s="301" t="s">
+      <c r="C22" s="297" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="302"/>
+      <c r="D22" s="300"/>
       <c r="E22" s="114" t="s">
         <v>156</v>
       </c>
@@ -12157,10 +12169,10 @@
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C23" s="301" t="s">
+      <c r="C23" s="297" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="302"/>
+      <c r="D23" s="300"/>
       <c r="E23" s="114" t="s">
         <v>158</v>
       </c>
@@ -12176,10 +12188,10 @@
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C24" s="301" t="s">
+      <c r="C24" s="297" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="302"/>
+      <c r="D24" s="300"/>
       <c r="E24" s="114" t="s">
         <v>160</v>
       </c>
@@ -12195,10 +12207,10 @@
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C25" s="301" t="s">
+      <c r="C25" s="297" t="s">
         <v>161</v>
       </c>
-      <c r="D25" s="302"/>
+      <c r="D25" s="300"/>
       <c r="E25" s="114" t="s">
         <v>162</v>
       </c>
@@ -12214,10 +12226,10 @@
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C26" s="301" t="s">
+      <c r="C26" s="297" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="302"/>
+      <c r="D26" s="300"/>
       <c r="E26" s="114" t="s">
         <v>164</v>
       </c>
@@ -12233,10 +12245,10 @@
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C27" s="301" t="s">
+      <c r="C27" s="297" t="s">
         <v>165</v>
       </c>
-      <c r="D27" s="302"/>
+      <c r="D27" s="300"/>
       <c r="E27" s="114" t="s">
         <v>166</v>
       </c>
@@ -12252,10 +12264,10 @@
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C28" s="301" t="s">
+      <c r="C28" s="297" t="s">
         <v>167</v>
       </c>
-      <c r="D28" s="302"/>
+      <c r="D28" s="300"/>
       <c r="E28" s="114" t="s">
         <v>168</v>
       </c>
@@ -12271,10 +12283,10 @@
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C29" s="301" t="s">
+      <c r="C29" s="297" t="s">
         <v>169</v>
       </c>
-      <c r="D29" s="302"/>
+      <c r="D29" s="300"/>
       <c r="E29" s="114" t="s">
         <v>170</v>
       </c>
@@ -12290,10 +12302,10 @@
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C30" s="301" t="s">
+      <c r="C30" s="297" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="302"/>
+      <c r="D30" s="300"/>
       <c r="E30" s="114" t="s">
         <v>172</v>
       </c>
@@ -12310,10 +12322,10 @@
       </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C31" s="301" t="s">
+      <c r="C31" s="297" t="s">
         <v>173</v>
       </c>
-      <c r="D31" s="302"/>
+      <c r="D31" s="300"/>
       <c r="E31" s="114" t="s">
         <v>174</v>
       </c>
@@ -12330,10 +12342,10 @@
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C32" s="303" t="s">
+      <c r="C32" s="307" t="s">
         <v>195</v>
       </c>
-      <c r="D32" s="304"/>
+      <c r="D32" s="308"/>
       <c r="E32" s="119" t="s">
         <v>196</v>
       </c>
@@ -12351,6 +12363,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
@@ -12360,16 +12382,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12377,11 +12389,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D56576-1BE3-4101-966B-BC9297401472}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12453,10 +12465,10 @@
     </row>
     <row r="7" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="305" t="s">
+      <c r="C8" s="309" t="s">
         <v>318</v>
       </c>
-      <c r="D8" s="313"/>
+      <c r="D8" s="311"/>
       <c r="E8" s="126" t="s">
         <v>197</v>
       </c>
@@ -12468,10 +12480,10 @@
       <c r="I8" s="99"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C9" s="314" t="s">
+      <c r="C9" s="312" t="s">
         <v>427</v>
       </c>
-      <c r="D9" s="315"/>
+      <c r="D9" s="313"/>
       <c r="E9" s="123"/>
       <c r="F9" s="139">
         <v>20000000</v>
@@ -12480,10 +12492,10 @@
       <c r="H9" s="124"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C10" s="301" t="s">
+      <c r="C10" s="297" t="s">
         <v>430</v>
       </c>
-      <c r="D10" s="302"/>
+      <c r="D10" s="300"/>
       <c r="E10" s="114"/>
       <c r="F10" s="140">
         <v>50000000</v>
@@ -12492,10 +12504,10 @@
       <c r="H10" s="115"/>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C11" s="301" t="s">
+      <c r="C11" s="297" t="s">
         <v>431</v>
       </c>
-      <c r="D11" s="302"/>
+      <c r="D11" s="300"/>
       <c r="E11" s="114"/>
       <c r="F11" s="140">
         <v>20000000</v>
@@ -12504,10 +12516,10 @@
       <c r="H11" s="115"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C12" s="301" t="s">
+      <c r="C12" s="297" t="s">
         <v>428</v>
       </c>
-      <c r="D12" s="302"/>
+      <c r="D12" s="300"/>
       <c r="E12" s="131"/>
       <c r="F12" s="140">
         <v>30000000</v>
@@ -12516,10 +12528,10 @@
       <c r="H12" s="115"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C13" s="301" t="s">
+      <c r="C13" s="297" t="s">
         <v>432</v>
       </c>
-      <c r="D13" s="302"/>
+      <c r="D13" s="300"/>
       <c r="E13" s="131"/>
       <c r="F13" s="140">
         <v>10000000</v>
@@ -12528,10 +12540,10 @@
       <c r="H13" s="115"/>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C14" s="301" t="s">
+      <c r="C14" s="297" t="s">
         <v>433</v>
       </c>
-      <c r="D14" s="302"/>
+      <c r="D14" s="300"/>
       <c r="E14" s="114"/>
       <c r="F14" s="140">
         <v>4000000</v>
@@ -12540,10 +12552,10 @@
       <c r="H14" s="115"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C15" s="301" t="s">
+      <c r="C15" s="297" t="s">
         <v>429</v>
       </c>
-      <c r="D15" s="302"/>
+      <c r="D15" s="300"/>
       <c r="E15" s="114"/>
       <c r="F15" s="140">
         <v>200000000</v>
@@ -12552,20 +12564,20 @@
       <c r="H15" s="115"/>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C16" s="301" t="s">
+      <c r="C16" s="297" t="s">
         <v>434</v>
       </c>
-      <c r="D16" s="302"/>
+      <c r="D16" s="300"/>
       <c r="E16" s="114"/>
       <c r="F16" s="140"/>
       <c r="G16" s="114"/>
       <c r="H16" s="115"/>
     </row>
     <row r="17" spans="3:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="303" t="s">
+      <c r="C17" s="307" t="s">
         <v>435</v>
       </c>
-      <c r="D17" s="304"/>
+      <c r="D17" s="308"/>
       <c r="E17" s="138" t="s">
         <v>436</v>
       </c>
@@ -12593,7 +12605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AM43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12620,11 +12632,11 @@
     <row r="4" spans="2:6" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="270" t="s">
+      <c r="D4" s="260" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="271"/>
-      <c r="F4" s="272"/>
+      <c r="E4" s="261"/>
+      <c r="F4" s="262"/>
     </row>
     <row r="5" spans="2:6" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="21"/>
@@ -12640,25 +12652,25 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="275" t="s">
+      <c r="B6" s="267" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="276"/>
+      <c r="C6" s="268"/>
       <c r="D6" s="18"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="277" t="s">
+      <c r="B7" s="270" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="278"/>
+      <c r="C7" s="271"/>
       <c r="D7" s="18"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="279"/>
+      <c r="B8" s="272"/>
       <c r="C8" s="16" t="s">
         <v>37</v>
       </c>
@@ -12667,7 +12679,7 @@
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="279"/>
+      <c r="B9" s="272"/>
       <c r="C9" s="16" t="s">
         <v>34</v>
       </c>
@@ -12676,7 +12688,7 @@
       <c r="F9" s="75"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="279"/>
+      <c r="B10" s="272"/>
       <c r="C10" s="16" t="s">
         <v>36</v>
       </c>
@@ -12685,7 +12697,7 @@
       <c r="F10" s="75"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="279"/>
+      <c r="B11" s="272"/>
       <c r="C11" s="16" t="s">
         <v>133</v>
       </c>
@@ -12694,7 +12706,7 @@
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="279"/>
+      <c r="B12" s="272"/>
       <c r="C12" s="16" t="s">
         <v>133</v>
       </c>
@@ -12703,16 +12715,16 @@
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="280" t="s">
+      <c r="B13" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="281"/>
+      <c r="C13" s="274"/>
       <c r="D13" s="18"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="279"/>
+      <c r="B14" s="272"/>
       <c r="C14" s="16" t="s">
         <v>133</v>
       </c>
@@ -12721,7 +12733,7 @@
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="279"/>
+      <c r="B15" s="272"/>
       <c r="C15" s="16" t="s">
         <v>133</v>
       </c>
@@ -12730,7 +12742,7 @@
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="279"/>
+      <c r="B16" s="272"/>
       <c r="C16" s="16" t="s">
         <v>133</v>
       </c>
@@ -12739,7 +12751,7 @@
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B17" s="279"/>
+      <c r="B17" s="272"/>
       <c r="C17" s="16" t="s">
         <v>133</v>
       </c>
@@ -12748,7 +12760,7 @@
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="2:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="282"/>
+      <c r="B18" s="275"/>
       <c r="C18" s="17" t="s">
         <v>133</v>
       </c>
@@ -12972,191 +12984,182 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="273"/>
-      <c r="F21" s="274"/>
-      <c r="G21" s="268" t="s">
+      <c r="E21" s="263"/>
+      <c r="F21" s="264"/>
+      <c r="G21" s="265" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="269"/>
-      <c r="I21" s="269"/>
-      <c r="J21" s="269"/>
-      <c r="K21" s="269"/>
-      <c r="L21" s="269"/>
-      <c r="M21" s="266" t="s">
+      <c r="H21" s="266"/>
+      <c r="I21" s="266"/>
+      <c r="J21" s="266"/>
+      <c r="K21" s="266"/>
+      <c r="L21" s="266"/>
+      <c r="M21" s="279" t="s">
         <v>48</v>
       </c>
-      <c r="N21" s="267"/>
-      <c r="O21" s="267"/>
-      <c r="P21" s="267"/>
-      <c r="Q21" s="267"/>
-      <c r="R21" s="267"/>
-      <c r="S21" s="268" t="s">
+      <c r="N21" s="280"/>
+      <c r="O21" s="280"/>
+      <c r="P21" s="280"/>
+      <c r="Q21" s="280"/>
+      <c r="R21" s="280"/>
+      <c r="S21" s="265" t="s">
         <v>46</v>
       </c>
-      <c r="T21" s="269"/>
-      <c r="U21" s="269"/>
-      <c r="V21" s="269"/>
-      <c r="W21" s="269"/>
-      <c r="X21" s="269"/>
-      <c r="Y21" s="269"/>
-      <c r="Z21" s="269"/>
-      <c r="AA21" s="269"/>
-      <c r="AB21" s="269"/>
-      <c r="AC21" s="269"/>
-      <c r="AD21" s="269"/>
-      <c r="AE21" s="266" t="s">
+      <c r="T21" s="266"/>
+      <c r="U21" s="266"/>
+      <c r="V21" s="266"/>
+      <c r="W21" s="266"/>
+      <c r="X21" s="266"/>
+      <c r="Y21" s="266"/>
+      <c r="Z21" s="266"/>
+      <c r="AA21" s="266"/>
+      <c r="AB21" s="266"/>
+      <c r="AC21" s="266"/>
+      <c r="AD21" s="266"/>
+      <c r="AE21" s="279" t="s">
         <v>47</v>
       </c>
-      <c r="AF21" s="267"/>
-      <c r="AG21" s="267"/>
-      <c r="AH21" s="267"/>
-      <c r="AI21" s="267"/>
-      <c r="AJ21" s="267"/>
+      <c r="AF21" s="280"/>
+      <c r="AG21" s="280"/>
+      <c r="AH21" s="280"/>
+      <c r="AI21" s="280"/>
+      <c r="AJ21" s="280"/>
       <c r="AK21" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="AL21" s="264" t="s">
+      <c r="AL21" s="277" t="s">
         <v>43</v>
       </c>
-      <c r="AM21" s="265"/>
+      <c r="AM21" s="278"/>
     </row>
     <row r="22" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E22" s="262" t="s">
+      <c r="E22" s="276" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="262"/>
+      <c r="F22" s="276"/>
     </row>
     <row r="23" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E23" s="263"/>
+      <c r="E23" s="269"/>
       <c r="F23" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E24" s="263"/>
+      <c r="E24" s="269"/>
       <c r="F24" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E25" s="263"/>
+      <c r="E25" s="269"/>
       <c r="F25" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E26" s="263"/>
+      <c r="E26" s="269"/>
       <c r="F26" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="27" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E27" s="263"/>
+      <c r="E27" s="269"/>
       <c r="F27" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="28" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E28" s="262" t="s">
+      <c r="E28" s="276" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="262"/>
+      <c r="F28" s="276"/>
     </row>
     <row r="29" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E29" s="263"/>
+      <c r="E29" s="269"/>
       <c r="F29" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E30" s="263"/>
+      <c r="E30" s="269"/>
       <c r="F30" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E31" s="263"/>
+      <c r="E31" s="269"/>
       <c r="F31" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E32" s="263"/>
+      <c r="E32" s="269"/>
       <c r="F32" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E33" s="262" t="s">
+      <c r="E33" s="276" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="262"/>
+      <c r="F33" s="276"/>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E34" s="263"/>
+      <c r="E34" s="269"/>
       <c r="F34" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E35" s="263"/>
+      <c r="E35" s="269"/>
       <c r="F35" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E36" s="263"/>
+      <c r="E36" s="269"/>
       <c r="F36" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E37" s="263"/>
+      <c r="E37" s="269"/>
       <c r="F37" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E38" s="263"/>
+      <c r="E38" s="269"/>
       <c r="F38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E40" s="262" t="s">
+      <c r="E40" s="276" t="s">
         <v>33</v>
       </c>
-      <c r="F40" s="262"/>
+      <c r="F40" s="276"/>
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E41" s="262" t="s">
+      <c r="E41" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="262"/>
+      <c r="F41" s="276"/>
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E42" s="262" t="s">
+      <c r="E42" s="276" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="262"/>
+      <c r="F42" s="276"/>
     </row>
     <row r="43" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E43" s="262" t="s">
+      <c r="E43" s="276" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="262"/>
+      <c r="F43" s="276"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B18"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:E27"/>
@@ -13170,6 +13173,15 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E40:F40"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13179,7 +13191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -13477,14 +13489,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:AO57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AO59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="V6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AO17" sqref="AO17"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -13500,7 +13512,7 @@
         <v>115</v>
       </c>
       <c r="D2" s="6">
-        <f>SUM(D6:F44)</f>
+        <f>SUM(D6:F46)</f>
         <v>35</v>
       </c>
       <c r="G2" s="6">
@@ -13512,11 +13524,11 @@
     <row r="4" spans="2:41" x14ac:dyDescent="0.4">
       <c r="B4" s="57"/>
       <c r="C4" s="60"/>
-      <c r="D4" s="288" t="s">
+      <c r="D4" s="282" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="288"/>
-      <c r="F4" s="289"/>
+      <c r="E4" s="282"/>
+      <c r="F4" s="283"/>
       <c r="G4" s="45" t="s">
         <v>0</v>
       </c>
@@ -14759,8 +14771,8 @@
       <c r="AL16" s="3"/>
       <c r="AM16" s="49"/>
       <c r="AO16" s="6">
-        <f>C13+SUM(C25:C32)</f>
-        <v>256.5</v>
+        <f>C13+SUM(C27:C34)</f>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="2:39" x14ac:dyDescent="0.4">
@@ -14769,7 +14781,7 @@
       </c>
       <c r="C17" s="62">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -14802,7 +14814,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -15177,8 +15189,8 @@
         <v>451</v>
       </c>
       <c r="C23" s="62">
-        <f t="shared" ref="C23:C35" si="1">SUM(D23:AM23)</f>
-        <v>0</v>
+        <f t="shared" ref="C23:C37" si="1">SUM(D23:AM23)</f>
+        <v>15</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -15193,21 +15205,51 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
+      <c r="Q23" s="3">
+        <v>1</v>
+      </c>
+      <c r="R23" s="3">
+        <v>1</v>
+      </c>
+      <c r="S23" s="3">
+        <v>1</v>
+      </c>
+      <c r="T23" s="3">
+        <v>1</v>
+      </c>
+      <c r="U23" s="3">
+        <v>1</v>
+      </c>
+      <c r="V23" s="3">
+        <v>1</v>
+      </c>
+      <c r="W23" s="3">
+        <v>1</v>
+      </c>
+      <c r="X23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>1</v>
+      </c>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
@@ -15223,7 +15265,7 @@
       </c>
       <c r="C24" s="62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -15238,21 +15280,51 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
+      <c r="Q24" s="3">
+        <v>1</v>
+      </c>
+      <c r="R24" s="3">
+        <v>1</v>
+      </c>
+      <c r="S24" s="3">
+        <v>1</v>
+      </c>
+      <c r="T24" s="3">
+        <v>1</v>
+      </c>
+      <c r="U24" s="3">
+        <v>1</v>
+      </c>
+      <c r="V24" s="3">
+        <v>1</v>
+      </c>
+      <c r="W24" s="3">
+        <v>1</v>
+      </c>
+      <c r="X24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>1</v>
+      </c>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
@@ -15264,448 +15336,310 @@
     </row>
     <row r="25" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B25" s="48" t="s">
-        <v>453</v>
-      </c>
-      <c r="C25" s="62">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3">
-        <v>1</v>
-      </c>
-      <c r="J25" s="3">
-        <v>1</v>
-      </c>
-      <c r="K25" s="3">
-        <v>1</v>
-      </c>
-      <c r="L25" s="3">
-        <v>1</v>
-      </c>
-      <c r="M25" s="3">
-        <v>1</v>
-      </c>
-      <c r="N25" s="3">
-        <v>1</v>
-      </c>
-      <c r="O25" s="3">
-        <v>1</v>
-      </c>
-      <c r="P25" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>1</v>
-      </c>
-      <c r="R25" s="3">
-        <v>1</v>
-      </c>
-      <c r="S25" s="3">
-        <v>1</v>
-      </c>
-      <c r="T25" s="3">
-        <v>1</v>
-      </c>
-      <c r="U25" s="3">
-        <v>1</v>
-      </c>
-      <c r="V25" s="3">
-        <v>1</v>
-      </c>
-      <c r="W25" s="3">
-        <v>1</v>
-      </c>
-      <c r="X25" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM25" s="49">
-        <v>1</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="49"/>
     </row>
     <row r="26" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B26" s="149" t="s">
-        <v>454</v>
-      </c>
-      <c r="C26" s="62">
-        <f t="shared" si="1"/>
-        <v>32.5</v>
-      </c>
-      <c r="D26" s="148">
-        <v>1</v>
-      </c>
-      <c r="E26" s="148">
-        <v>1</v>
-      </c>
-      <c r="F26" s="148">
-        <v>1</v>
-      </c>
-      <c r="G26" s="152">
-        <v>1</v>
-      </c>
-      <c r="H26" s="155">
-        <v>1</v>
-      </c>
-      <c r="I26" s="155">
-        <v>1</v>
-      </c>
-      <c r="J26" s="158">
-        <v>1</v>
-      </c>
-      <c r="K26" s="158">
-        <v>0.5</v>
-      </c>
-      <c r="L26" s="175">
-        <v>1</v>
-      </c>
-      <c r="M26" s="175">
-        <v>1</v>
-      </c>
-      <c r="N26" s="226">
-        <v>1</v>
-      </c>
-      <c r="O26" s="226">
-        <v>1</v>
-      </c>
-      <c r="P26" s="242">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="253">
-        <v>1</v>
-      </c>
-      <c r="R26" s="253">
-        <v>1</v>
-      </c>
-      <c r="S26" s="171">
-        <v>1</v>
-      </c>
-      <c r="T26" s="171">
-        <v>1</v>
-      </c>
-      <c r="U26" s="171">
-        <v>1</v>
-      </c>
-      <c r="V26" s="171">
-        <v>1</v>
-      </c>
-      <c r="W26" s="171">
-        <v>1</v>
-      </c>
-      <c r="X26" s="171">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="250">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="250">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="250">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="247">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="247">
-        <v>1</v>
-      </c>
-      <c r="AD26" s="247">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="247">
-        <v>1</v>
-      </c>
-      <c r="AF26" s="247">
-        <v>1</v>
-      </c>
-      <c r="AG26" s="247">
-        <v>1</v>
-      </c>
-      <c r="AH26" s="247">
-        <v>1</v>
-      </c>
-      <c r="AI26" s="247">
-        <v>1</v>
-      </c>
-      <c r="AJ26" s="247">
-        <v>1</v>
-      </c>
+      <c r="B26" s="48" t="s">
+        <v>475</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
       <c r="AM26" s="49"/>
     </row>
     <row r="27" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B27" s="48" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C27" s="62">
         <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="D27" s="161">
-        <v>1</v>
-      </c>
-      <c r="E27" s="161">
-        <v>1</v>
-      </c>
-      <c r="F27" s="218">
-        <v>1</v>
-      </c>
-      <c r="G27" s="218">
-        <v>1</v>
-      </c>
-      <c r="H27" s="161">
-        <v>1</v>
-      </c>
-      <c r="I27" s="161">
-        <v>1</v>
-      </c>
-      <c r="J27" s="161">
-        <v>1</v>
-      </c>
-      <c r="K27" s="161">
-        <v>1</v>
-      </c>
-      <c r="L27" s="161">
-        <v>1</v>
-      </c>
-      <c r="M27" s="161">
-        <v>1</v>
-      </c>
-      <c r="N27" s="161">
-        <v>1</v>
-      </c>
-      <c r="O27" s="161">
-        <v>1</v>
-      </c>
-      <c r="P27" s="161">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="155">
-        <v>1</v>
-      </c>
-      <c r="R27" s="155">
-        <v>1</v>
-      </c>
-      <c r="S27" s="155">
-        <v>1</v>
-      </c>
-      <c r="T27" s="155">
-        <v>1</v>
-      </c>
-      <c r="U27" s="155">
-        <v>1</v>
-      </c>
-      <c r="V27" s="155">
-        <v>1</v>
-      </c>
-      <c r="W27" s="256">
-        <v>1</v>
-      </c>
-      <c r="X27" s="256">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="167">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="167">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="167">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="167">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="259">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="259">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="259">
-        <v>1</v>
-      </c>
-      <c r="AF27" s="259">
-        <v>1</v>
-      </c>
-      <c r="AG27" s="250">
-        <v>1</v>
-      </c>
-      <c r="AH27" s="250">
-        <v>1</v>
-      </c>
-      <c r="AI27" s="250">
-        <v>1</v>
-      </c>
-      <c r="AJ27" s="250">
-        <v>1</v>
-      </c>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="49"/>
+        <v>36</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1</v>
+      </c>
+      <c r="R27" s="3">
+        <v>1</v>
+      </c>
+      <c r="S27" s="3">
+        <v>1</v>
+      </c>
+      <c r="T27" s="3">
+        <v>1</v>
+      </c>
+      <c r="U27" s="3">
+        <v>1</v>
+      </c>
+      <c r="V27" s="3">
+        <v>1</v>
+      </c>
+      <c r="W27" s="3">
+        <v>1</v>
+      </c>
+      <c r="X27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="49">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B28" s="48" t="s">
-        <v>456</v>
+      <c r="B28" s="149" t="s">
+        <v>454</v>
       </c>
       <c r="C28" s="62">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="D28" s="162">
-        <v>1</v>
-      </c>
-      <c r="E28" s="162">
-        <v>1</v>
-      </c>
-      <c r="F28" s="162">
-        <v>1</v>
-      </c>
-      <c r="G28" s="162">
-        <v>1</v>
-      </c>
-      <c r="H28" s="162">
-        <v>1</v>
-      </c>
-      <c r="I28" s="162">
-        <v>1</v>
-      </c>
-      <c r="J28" s="162">
-        <v>1</v>
-      </c>
-      <c r="K28" s="162">
-        <v>1</v>
-      </c>
-      <c r="L28" s="162">
-        <v>1</v>
-      </c>
-      <c r="M28" s="162">
-        <v>1</v>
-      </c>
-      <c r="N28" s="167">
-        <v>1</v>
-      </c>
-      <c r="O28" s="226">
-        <v>1</v>
-      </c>
-      <c r="P28" s="226">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="226">
-        <v>1</v>
-      </c>
-      <c r="R28" s="226">
-        <v>1</v>
-      </c>
-      <c r="S28" s="226">
-        <v>1</v>
-      </c>
-      <c r="T28" s="226">
-        <v>1</v>
-      </c>
-      <c r="U28" s="226">
-        <v>1</v>
-      </c>
-      <c r="V28" s="226">
-        <v>1</v>
-      </c>
-      <c r="W28" s="226">
-        <v>1</v>
-      </c>
-      <c r="X28" s="226">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="148">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="155">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="155">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="155">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="155">
-        <v>1</v>
-      </c>
-      <c r="AD28" s="155">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="155">
-        <v>1</v>
-      </c>
-      <c r="AF28" s="155">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="155">
-        <v>1</v>
-      </c>
-      <c r="AH28" s="155">
-        <v>1</v>
-      </c>
-      <c r="AI28" s="155">
-        <v>1</v>
-      </c>
-      <c r="AJ28" s="155">
+      <c r="D28" s="148">
+        <v>1</v>
+      </c>
+      <c r="E28" s="148">
+        <v>1</v>
+      </c>
+      <c r="F28" s="148">
+        <v>1</v>
+      </c>
+      <c r="G28" s="152">
+        <v>1</v>
+      </c>
+      <c r="H28" s="155">
+        <v>1</v>
+      </c>
+      <c r="I28" s="155">
+        <v>1</v>
+      </c>
+      <c r="J28" s="158">
+        <v>1</v>
+      </c>
+      <c r="K28" s="158">
+        <v>1</v>
+      </c>
+      <c r="L28" s="175">
+        <v>1</v>
+      </c>
+      <c r="M28" s="175">
+        <v>1</v>
+      </c>
+      <c r="N28" s="225">
+        <v>1</v>
+      </c>
+      <c r="O28" s="225">
+        <v>1</v>
+      </c>
+      <c r="P28" s="240">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="251">
+        <v>1</v>
+      </c>
+      <c r="R28" s="251">
+        <v>1</v>
+      </c>
+      <c r="S28" s="171">
+        <v>1</v>
+      </c>
+      <c r="T28" s="171">
+        <v>1</v>
+      </c>
+      <c r="U28" s="171">
+        <v>1</v>
+      </c>
+      <c r="V28" s="171">
+        <v>1</v>
+      </c>
+      <c r="W28" s="171">
+        <v>1</v>
+      </c>
+      <c r="X28" s="171">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="248">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="248">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="248">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="189">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="189">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="189">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="245">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="245">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="245">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="245">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="245">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="245">
         <v>1</v>
       </c>
       <c r="AK28" s="3"/>
@@ -15714,52 +15648,58 @@
     </row>
     <row r="29" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B29" s="48" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C29" s="62">
         <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="194">
-        <v>1</v>
-      </c>
-      <c r="H29" s="155">
-        <v>1</v>
-      </c>
-      <c r="I29" s="148">
-        <v>1</v>
-      </c>
-      <c r="J29" s="148">
-        <v>1</v>
-      </c>
-      <c r="K29" s="148">
-        <v>1</v>
-      </c>
-      <c r="L29" s="198">
-        <v>1</v>
-      </c>
-      <c r="M29" s="202">
-        <v>1</v>
-      </c>
-      <c r="N29" s="206">
-        <v>1</v>
-      </c>
-      <c r="O29" s="226">
-        <v>1</v>
-      </c>
-      <c r="P29" s="162">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="162">
-        <v>1</v>
-      </c>
-      <c r="R29" s="175">
-        <v>1</v>
-      </c>
-      <c r="S29" s="231">
+        <v>33</v>
+      </c>
+      <c r="D29" s="161">
+        <v>1</v>
+      </c>
+      <c r="E29" s="161">
+        <v>1</v>
+      </c>
+      <c r="F29" s="217">
+        <v>1</v>
+      </c>
+      <c r="G29" s="217">
+        <v>1</v>
+      </c>
+      <c r="H29" s="161">
+        <v>1</v>
+      </c>
+      <c r="I29" s="161">
+        <v>1</v>
+      </c>
+      <c r="J29" s="161">
+        <v>1</v>
+      </c>
+      <c r="K29" s="161">
+        <v>1</v>
+      </c>
+      <c r="L29" s="161">
+        <v>1</v>
+      </c>
+      <c r="M29" s="161">
+        <v>1</v>
+      </c>
+      <c r="N29" s="161">
+        <v>1</v>
+      </c>
+      <c r="O29" s="161">
+        <v>1</v>
+      </c>
+      <c r="P29" s="161">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="155">
+        <v>1</v>
+      </c>
+      <c r="R29" s="155">
+        <v>1</v>
+      </c>
+      <c r="S29" s="155">
         <v>1</v>
       </c>
       <c r="T29" s="155">
@@ -15771,522 +15711,536 @@
       <c r="V29" s="155">
         <v>1</v>
       </c>
-      <c r="W29" s="155">
-        <v>1</v>
-      </c>
-      <c r="X29" s="155">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="155">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="155">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="155">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="155">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="167">
-        <v>1</v>
-      </c>
-      <c r="AD29" s="167">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="247">
-        <v>1</v>
-      </c>
-      <c r="AF29" s="247">
-        <v>1</v>
-      </c>
-      <c r="AG29" s="247">
-        <v>1</v>
-      </c>
-      <c r="AH29" s="247">
-        <v>1</v>
-      </c>
-      <c r="AI29" s="247">
-        <v>1</v>
-      </c>
-      <c r="AJ29" s="3"/>
+      <c r="W29" s="254">
+        <v>1</v>
+      </c>
+      <c r="X29" s="254">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="167">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="167">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="167">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="167">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="257">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="257">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="257">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="257">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="248">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="248">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="248">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="248">
+        <v>1</v>
+      </c>
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
       <c r="AM29" s="49"/>
     </row>
     <row r="30" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B30" s="48" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C30" s="62">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="171">
-        <v>1</v>
-      </c>
-      <c r="H30" s="184">
-        <v>1</v>
-      </c>
-      <c r="I30" s="184">
-        <v>1</v>
-      </c>
-      <c r="J30" s="184">
-        <v>1</v>
-      </c>
-      <c r="K30" s="184">
-        <v>1</v>
-      </c>
-      <c r="L30" s="181">
-        <v>1</v>
-      </c>
-      <c r="M30" s="188">
-        <v>1</v>
-      </c>
-      <c r="N30" s="188">
-        <v>1</v>
-      </c>
-      <c r="O30" s="210">
-        <v>1</v>
-      </c>
-      <c r="P30" s="210">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="210">
-        <v>1</v>
-      </c>
-      <c r="R30" s="214">
-        <v>1</v>
-      </c>
-      <c r="S30" s="214">
-        <v>1</v>
-      </c>
-      <c r="T30" s="214">
-        <v>1</v>
-      </c>
-      <c r="U30" s="218">
-        <v>1</v>
-      </c>
-      <c r="V30" s="218">
-        <v>1</v>
-      </c>
-      <c r="W30" s="218">
-        <v>1</v>
-      </c>
-      <c r="X30" s="218">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="222">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="226">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="226">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="235">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="238">
-        <v>1</v>
-      </c>
-      <c r="AD30" s="238">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="238">
-        <v>1</v>
-      </c>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
-      <c r="AH30" s="3"/>
-      <c r="AI30" s="3"/>
-      <c r="AJ30" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="D30" s="162">
+        <v>1</v>
+      </c>
+      <c r="E30" s="162">
+        <v>1</v>
+      </c>
+      <c r="F30" s="162">
+        <v>1</v>
+      </c>
+      <c r="G30" s="162">
+        <v>1</v>
+      </c>
+      <c r="H30" s="162">
+        <v>1</v>
+      </c>
+      <c r="I30" s="162">
+        <v>1</v>
+      </c>
+      <c r="J30" s="162">
+        <v>1</v>
+      </c>
+      <c r="K30" s="162">
+        <v>1</v>
+      </c>
+      <c r="L30" s="162">
+        <v>1</v>
+      </c>
+      <c r="M30" s="162">
+        <v>1</v>
+      </c>
+      <c r="N30" s="167">
+        <v>1</v>
+      </c>
+      <c r="O30" s="225">
+        <v>1</v>
+      </c>
+      <c r="P30" s="225">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="225">
+        <v>1</v>
+      </c>
+      <c r="R30" s="225">
+        <v>1</v>
+      </c>
+      <c r="S30" s="225">
+        <v>1</v>
+      </c>
+      <c r="T30" s="225">
+        <v>1</v>
+      </c>
+      <c r="U30" s="225">
+        <v>1</v>
+      </c>
+      <c r="V30" s="225">
+        <v>1</v>
+      </c>
+      <c r="W30" s="225">
+        <v>1</v>
+      </c>
+      <c r="X30" s="225">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="148">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="197">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="155">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="155">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="155">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="155">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="155">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="155">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="155">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="155">
+        <v>1</v>
+      </c>
+      <c r="AI30" s="155">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="155">
+        <v>1</v>
+      </c>
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
       <c r="AM30" s="49"/>
     </row>
     <row r="31" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B31" s="48" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="C31" s="62">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="189"/>
-      <c r="H31" s="189"/>
-      <c r="I31" s="155">
-        <v>1</v>
-      </c>
-      <c r="J31" s="155">
-        <v>1</v>
-      </c>
-      <c r="K31" s="155">
-        <v>1</v>
-      </c>
-      <c r="L31" s="155">
-        <v>1</v>
-      </c>
-      <c r="M31" s="155">
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="240">
         <v>1</v>
       </c>
       <c r="N31" s="155">
         <v>1</v>
       </c>
-      <c r="O31" s="155">
-        <v>1</v>
-      </c>
-      <c r="P31" s="155">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="155">
-        <v>1</v>
-      </c>
-      <c r="R31" s="155">
-        <v>1</v>
-      </c>
-      <c r="S31" s="155">
-        <v>1</v>
-      </c>
-      <c r="T31" s="155">
-        <v>1</v>
-      </c>
-      <c r="U31" s="155">
-        <v>1</v>
-      </c>
-      <c r="V31" s="155">
-        <v>1</v>
-      </c>
-      <c r="W31" s="155">
-        <v>1</v>
-      </c>
-      <c r="X31" s="155">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="155">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="155">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="155">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="155">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="155">
-        <v>1</v>
-      </c>
-      <c r="AD31" s="171">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="171">
-        <v>1</v>
-      </c>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="3"/>
-      <c r="AH31" s="3"/>
-      <c r="AI31" s="3"/>
-      <c r="AJ31" s="3"/>
+      <c r="O31" s="148">
+        <v>1</v>
+      </c>
+      <c r="P31" s="148">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="148">
+        <v>1</v>
+      </c>
+      <c r="R31" s="201">
+        <v>1</v>
+      </c>
+      <c r="S31" s="205">
+        <v>1</v>
+      </c>
+      <c r="T31" s="225">
+        <v>1</v>
+      </c>
+      <c r="U31" s="162">
+        <v>1</v>
+      </c>
+      <c r="V31" s="162">
+        <v>1</v>
+      </c>
+      <c r="W31" s="175">
+        <v>1</v>
+      </c>
+      <c r="X31" s="245">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="245">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="245">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="245">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="245">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="167">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="167">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="257">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="257">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="257">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="257">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="257">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="257">
+        <v>1</v>
+      </c>
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
-      <c r="AM31" s="260"/>
+      <c r="AM31" s="49"/>
     </row>
     <row r="32" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B32" s="48" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="C32" s="62">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D32" s="189"/>
-      <c r="E32" s="189"/>
-      <c r="F32" s="189"/>
-      <c r="G32" s="189"/>
-      <c r="H32" s="189"/>
-      <c r="I32" s="189"/>
-      <c r="J32" s="189"/>
-      <c r="K32" s="189"/>
-      <c r="L32" s="189"/>
-      <c r="M32" s="189"/>
-      <c r="N32" s="189"/>
-      <c r="O32" s="189"/>
-      <c r="P32" s="189"/>
-      <c r="Q32" s="189"/>
-      <c r="R32" s="189"/>
-      <c r="S32" s="189"/>
-      <c r="T32" s="189"/>
-      <c r="U32" s="189"/>
-      <c r="V32" s="189"/>
-      <c r="W32" s="189">
-        <v>1</v>
-      </c>
-      <c r="X32" s="189">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="189">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="189">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="189">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="189">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="189">
-        <v>1</v>
-      </c>
-      <c r="AD32" s="189">
-        <v>1</v>
-      </c>
-      <c r="AE32" s="189">
-        <v>1</v>
-      </c>
-      <c r="AF32" s="189"/>
-      <c r="AG32" s="189"/>
-      <c r="AH32" s="189"/>
-      <c r="AI32" s="189"/>
-      <c r="AJ32" s="189"/>
-      <c r="AK32" s="189"/>
-      <c r="AL32" s="189"/>
-      <c r="AM32" s="260"/>
+        <v>25</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="171">
+        <v>1</v>
+      </c>
+      <c r="H32" s="184">
+        <v>1</v>
+      </c>
+      <c r="I32" s="184">
+        <v>1</v>
+      </c>
+      <c r="J32" s="184">
+        <v>1</v>
+      </c>
+      <c r="K32" s="184">
+        <v>1</v>
+      </c>
+      <c r="L32" s="181">
+        <v>1</v>
+      </c>
+      <c r="M32" s="188">
+        <v>1</v>
+      </c>
+      <c r="N32" s="188">
+        <v>1</v>
+      </c>
+      <c r="O32" s="209">
+        <v>1</v>
+      </c>
+      <c r="P32" s="209">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="209">
+        <v>1</v>
+      </c>
+      <c r="R32" s="213">
+        <v>1</v>
+      </c>
+      <c r="S32" s="213">
+        <v>1</v>
+      </c>
+      <c r="T32" s="213">
+        <v>1</v>
+      </c>
+      <c r="U32" s="217">
+        <v>1</v>
+      </c>
+      <c r="V32" s="217">
+        <v>1</v>
+      </c>
+      <c r="W32" s="217">
+        <v>1</v>
+      </c>
+      <c r="X32" s="217">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="221">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="225">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="225">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="233">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="236">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="236">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="236">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="49"/>
     </row>
     <row r="33" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B33" s="48" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C33" s="62">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1</v>
-      </c>
-      <c r="M33" s="3">
-        <v>1</v>
-      </c>
-      <c r="N33" s="3">
-        <v>1</v>
-      </c>
-      <c r="O33" s="3">
-        <v>1</v>
-      </c>
-      <c r="P33" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>1</v>
-      </c>
-      <c r="R33" s="3">
-        <v>1</v>
-      </c>
-      <c r="S33" s="3">
-        <v>1</v>
-      </c>
-      <c r="T33" s="3">
-        <v>1</v>
-      </c>
-      <c r="U33" s="3">
-        <v>1</v>
-      </c>
-      <c r="V33" s="3">
-        <v>1</v>
-      </c>
-      <c r="W33" s="3">
-        <v>1</v>
-      </c>
-      <c r="X33" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD33" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF33" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG33" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH33" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI33" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ33" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK33" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL33" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM33" s="49">
-        <v>1</v>
-      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="189"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="189"/>
+      <c r="J33" s="189"/>
+      <c r="K33" s="189"/>
+      <c r="L33" s="189"/>
+      <c r="M33" s="189"/>
+      <c r="N33" s="189"/>
+      <c r="O33" s="155">
+        <v>1</v>
+      </c>
+      <c r="P33" s="155">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="155">
+        <v>1</v>
+      </c>
+      <c r="R33" s="155">
+        <v>1</v>
+      </c>
+      <c r="S33" s="155">
+        <v>1</v>
+      </c>
+      <c r="T33" s="155">
+        <v>1</v>
+      </c>
+      <c r="U33" s="155">
+        <v>1</v>
+      </c>
+      <c r="V33" s="155">
+        <v>1</v>
+      </c>
+      <c r="W33" s="155">
+        <v>1</v>
+      </c>
+      <c r="X33" s="155">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="155">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="155">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="155">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="155">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="155">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="171">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="171">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="258"/>
     </row>
     <row r="34" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B34" s="48" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="C34" s="62">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3">
-        <v>1</v>
-      </c>
-      <c r="T34" s="3">
-        <v>1</v>
-      </c>
-      <c r="U34" s="3">
-        <v>1</v>
-      </c>
-      <c r="V34" s="3">
-        <v>1</v>
-      </c>
-      <c r="W34" s="3">
-        <v>1</v>
-      </c>
-      <c r="X34" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA34" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB34" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC34" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD34" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF34" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG34" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH34" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI34" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ34" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK34" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL34" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM34" s="49">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D34" s="189"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="189"/>
+      <c r="J34" s="189"/>
+      <c r="K34" s="189"/>
+      <c r="L34" s="189"/>
+      <c r="M34" s="189"/>
+      <c r="N34" s="189"/>
+      <c r="O34" s="189"/>
+      <c r="P34" s="189"/>
+      <c r="Q34" s="189"/>
+      <c r="R34" s="189"/>
+      <c r="S34" s="189"/>
+      <c r="T34" s="189"/>
+      <c r="U34" s="189"/>
+      <c r="V34" s="189"/>
+      <c r="W34" s="189"/>
+      <c r="X34" s="189"/>
+      <c r="Y34" s="189"/>
+      <c r="Z34" s="189">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="189">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="189">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="189">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="189">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="189">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="189"/>
+      <c r="AG34" s="189"/>
+      <c r="AH34" s="189"/>
+      <c r="AI34" s="189"/>
+      <c r="AJ34" s="189"/>
+      <c r="AK34" s="189"/>
+      <c r="AL34" s="189"/>
+      <c r="AM34" s="258"/>
     </row>
     <row r="35" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B35" s="48" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C35" s="62">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1</v>
+      </c>
+      <c r="M35" s="3">
+        <v>1</v>
+      </c>
+      <c r="N35" s="3">
+        <v>1</v>
+      </c>
+      <c r="O35" s="3">
+        <v>1</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>1</v>
+      </c>
+      <c r="R35" s="3">
+        <v>1</v>
+      </c>
       <c r="S35" s="3">
         <v>1</v>
       </c>
@@ -16352,8 +16306,13 @@
       </c>
     </row>
     <row r="36" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B36" s="48"/>
-      <c r="C36" s="62"/>
+      <c r="B36" s="48" t="s">
+        <v>464</v>
+      </c>
+      <c r="C36" s="62">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -16369,31 +16328,78 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
-      <c r="AG36" s="3"/>
-      <c r="AH36" s="3"/>
-      <c r="AI36" s="3"/>
-      <c r="AJ36" s="3"/>
-      <c r="AK36" s="3"/>
-      <c r="AL36" s="3"/>
-      <c r="AM36" s="49"/>
+      <c r="S36" s="3">
+        <v>1</v>
+      </c>
+      <c r="T36" s="3">
+        <v>1</v>
+      </c>
+      <c r="U36" s="3">
+        <v>1</v>
+      </c>
+      <c r="V36" s="3">
+        <v>1</v>
+      </c>
+      <c r="W36" s="3">
+        <v>1</v>
+      </c>
+      <c r="X36" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM36" s="49">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="B37" s="48"/>
-      <c r="C37" s="62"/>
+      <c r="B37" s="48" t="s">
+        <v>466</v>
+      </c>
+      <c r="C37" s="62">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -16409,27 +16415,69 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AC37" s="3"/>
-      <c r="AD37" s="3"/>
-      <c r="AE37" s="3"/>
-      <c r="AF37" s="3"/>
-      <c r="AG37" s="3"/>
-      <c r="AH37" s="3"/>
-      <c r="AI37" s="3"/>
-      <c r="AJ37" s="3"/>
-      <c r="AK37" s="3"/>
-      <c r="AL37" s="3"/>
-      <c r="AM37" s="49"/>
+      <c r="S37" s="3">
+        <v>1</v>
+      </c>
+      <c r="T37" s="3">
+        <v>1</v>
+      </c>
+      <c r="U37" s="3">
+        <v>1</v>
+      </c>
+      <c r="V37" s="3">
+        <v>1</v>
+      </c>
+      <c r="W37" s="3">
+        <v>1</v>
+      </c>
+      <c r="X37" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM37" s="49">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="2:39" x14ac:dyDescent="0.4">
       <c r="B38" s="48"/>
@@ -16671,174 +16719,254 @@
       <c r="AL43" s="3"/>
       <c r="AM43" s="49"/>
     </row>
-    <row r="44" spans="2:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="64"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="50"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="50"/>
-      <c r="Q44" s="50"/>
-      <c r="R44" s="50"/>
-      <c r="S44" s="50"/>
-      <c r="T44" s="50"/>
-      <c r="U44" s="50"/>
-      <c r="V44" s="50"/>
-      <c r="W44" s="50"/>
-      <c r="X44" s="50"/>
-      <c r="Y44" s="50"/>
-      <c r="Z44" s="50"/>
-      <c r="AA44" s="50"/>
-      <c r="AB44" s="50"/>
-      <c r="AC44" s="50"/>
-      <c r="AD44" s="50"/>
-      <c r="AE44" s="50"/>
-      <c r="AF44" s="50"/>
-      <c r="AG44" s="50"/>
-      <c r="AH44" s="50"/>
-      <c r="AI44" s="50"/>
-      <c r="AJ44" s="50"/>
-      <c r="AK44" s="50"/>
-      <c r="AL44" s="50"/>
-      <c r="AM44" s="51"/>
-    </row>
-    <row r="45" spans="2:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="66" t="s">
+    <row r="44" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="B44" s="48"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="3"/>
+      <c r="AM44" s="49"/>
+    </row>
+    <row r="45" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="B45" s="48"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="3"/>
+      <c r="AL45" s="3"/>
+      <c r="AM45" s="49"/>
+    </row>
+    <row r="46" spans="2:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="64"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="50"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="50"/>
+      <c r="S46" s="50"/>
+      <c r="T46" s="50"/>
+      <c r="U46" s="50"/>
+      <c r="V46" s="50"/>
+      <c r="W46" s="50"/>
+      <c r="X46" s="50"/>
+      <c r="Y46" s="50"/>
+      <c r="Z46" s="50"/>
+      <c r="AA46" s="50"/>
+      <c r="AB46" s="50"/>
+      <c r="AC46" s="50"/>
+      <c r="AD46" s="50"/>
+      <c r="AE46" s="50"/>
+      <c r="AF46" s="50"/>
+      <c r="AG46" s="50"/>
+      <c r="AH46" s="50"/>
+      <c r="AI46" s="50"/>
+      <c r="AJ46" s="50"/>
+      <c r="AK46" s="50"/>
+      <c r="AL46" s="50"/>
+      <c r="AM46" s="51"/>
+    </row>
+    <row r="47" spans="2:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="C45" s="67">
-        <f>SUM(C6:C44)</f>
-        <v>635.5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="47" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E47" s="68" t="s">
+      <c r="C47" s="67">
+        <f>SUM(C6:C46)</f>
+        <v>651.5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="E49" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="F47" s="45" t="s">
+      <c r="F49" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="G47" s="45" t="s">
+      <c r="G49" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="H47" s="290" t="s">
+      <c r="H49" s="284" t="s">
         <v>122</v>
       </c>
-      <c r="I47" s="291"/>
-    </row>
-    <row r="48" spans="2:39" x14ac:dyDescent="0.4">
-      <c r="E48" s="69">
-        <v>100</v>
-      </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="263"/>
-      <c r="I48" s="283"/>
-    </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.4">
-      <c r="E49" s="69">
-        <v>90</v>
-      </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="263"/>
-      <c r="I49" s="283"/>
+      <c r="I49" s="285"/>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.4">
       <c r="E50" s="69">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="263"/>
-      <c r="I50" s="283"/>
+      <c r="H50" s="269"/>
+      <c r="I50" s="281"/>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.4">
       <c r="E51" s="69">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="263"/>
-      <c r="I51" s="283"/>
+      <c r="H51" s="269"/>
+      <c r="I51" s="281"/>
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.4">
       <c r="E52" s="69">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="263"/>
-      <c r="I52" s="283"/>
+      <c r="H52" s="269"/>
+      <c r="I52" s="281"/>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.4">
       <c r="E53" s="69">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="263"/>
-      <c r="I53" s="283"/>
+      <c r="H53" s="269"/>
+      <c r="I53" s="281"/>
     </row>
     <row r="54" spans="5:9" x14ac:dyDescent="0.4">
       <c r="E54" s="69">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="263"/>
-      <c r="I54" s="283"/>
+      <c r="H54" s="269"/>
+      <c r="I54" s="281"/>
     </row>
     <row r="55" spans="5:9" x14ac:dyDescent="0.4">
-      <c r="E55" s="72">
+      <c r="E55" s="69">
+        <v>70</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="269"/>
+      <c r="I55" s="281"/>
+    </row>
+    <row r="56" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="E56" s="69">
+        <v>65</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="269"/>
+      <c r="I56" s="281"/>
+    </row>
+    <row r="57" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="E57" s="72">
         <v>60</v>
       </c>
-      <c r="F55" s="73"/>
-      <c r="G55" s="73"/>
-      <c r="H55" s="263"/>
-      <c r="I55" s="283"/>
-    </row>
-    <row r="56" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E56" s="70">
+      <c r="F57" s="73"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="269"/>
+      <c r="I57" s="281"/>
+    </row>
+    <row r="58" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E58" s="70">
         <v>55</v>
       </c>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="284"/>
-      <c r="I56" s="285"/>
-    </row>
-    <row r="57" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G57" s="71">
-        <f>SUM(C6:C44)</f>
-        <v>635.5</v>
-      </c>
-      <c r="H57" s="286"/>
-      <c r="I57" s="287"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="286"/>
+      <c r="I58" s="287"/>
+    </row>
+    <row r="59" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G59" s="71">
+        <f>SUM(C6:C46)</f>
+        <v>651.5</v>
+      </c>
+      <c r="H59" s="288"/>
+      <c r="I59" s="289"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H53:I53"/>
     <mergeCell ref="D4:F4"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
     <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H55:I55"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16848,7 +16976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9F272C-7EBA-42A9-AB4D-8B99B673CBA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17014,11 +17142,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C221845-BF52-470F-85E5-613A24522890}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17063,7 +17191,7 @@
       </c>
       <c r="E8" s="96">
         <f>Plan工数試算表!H7</f>
-        <v>194240000</v>
+        <v>194400000</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.4">
@@ -17141,14 +17269,14 @@
     <row r="17" spans="3:6" x14ac:dyDescent="0.4">
       <c r="E17" s="96">
         <f>SUM(E5:E16)</f>
-        <v>2139240000</v>
+        <v>2139400000</v>
       </c>
       <c r="F17" s="96"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.4">
       <c r="D21">
         <f>Art工数試算表!G4+Art工数試算表!G4+Plan工数試算表!H4+Model工数試算表!F4+Environmentl工数試算表!F4+Motion工数試算表!F4+Program工数試算表!F4+Effect工数試算表!F4+Sound工数試算表!F4+UI工数試算表!F4</f>
-        <v>2319.0500000000002</v>
+        <v>2319.25</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.4">
@@ -17157,7 +17285,7 @@
       </c>
       <c r="D22">
         <f>D21*1600</f>
-        <v>3710480.0000000005</v>
+        <v>3710800</v>
       </c>
     </row>
   </sheetData>
@@ -17168,11 +17296,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F89E4C8-D980-4649-96B1-E5D59E52E880}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17187,10 +17315,10 @@
   <sheetData>
     <row r="1" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="E2" s="292" t="s">
+      <c r="E2" s="290" t="s">
         <v>421</v>
       </c>
-      <c r="F2" s="293"/>
+      <c r="F2" s="291"/>
       <c r="G2" s="108">
         <f>SUM(D10:D103)</f>
         <v>374</v>
@@ -17200,10 +17328,10 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="E3" s="294" t="s">
+      <c r="E3" s="292" t="s">
         <v>215</v>
       </c>
-      <c r="F3" s="295"/>
+      <c r="F3" s="293"/>
       <c r="G3" s="109">
         <f>SUM(F10:F205)</f>
         <v>3310</v>
@@ -17213,10 +17341,10 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="E4" s="294" t="s">
+      <c r="E4" s="292" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="295"/>
+      <c r="F4" s="293"/>
       <c r="G4" s="109">
         <f>G3/20</f>
         <v>165.5</v>
@@ -17225,15 +17353,15 @@
         <v>221</v>
       </c>
       <c r="I4">
-        <f>G4-人月表!C12-人月表!C14-人月表!C15-人月表!C16-人月表!C16-人月表!C17-人月表!C18-人月表!C19-人月表!C20-人月表!C21-人月表!C22</f>
-        <v>35.5</v>
+        <f>G4-人月表!C12-人月表!C14-人月表!C15-人月表!C16-人月表!C16-人月表!C17-人月表!C18-人月表!C19-人月表!C20-人月表!C21-人月表!C22-人月表!C23-人月表!C24</f>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="E5" s="294" t="s">
+      <c r="E5" s="292" t="s">
         <v>438</v>
       </c>
-      <c r="F5" s="298"/>
+      <c r="F5" s="296"/>
       <c r="G5" s="109">
         <f>CEILING(G4/36, 1)</f>
         <v>5</v>
@@ -17243,10 +17371,10 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="E6" s="294" t="s">
+      <c r="E6" s="292" t="s">
         <v>217</v>
       </c>
-      <c r="F6" s="295"/>
+      <c r="F6" s="293"/>
       <c r="G6" s="110">
         <v>800000</v>
       </c>
@@ -17255,10 +17383,10 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E7" s="296" t="s">
+      <c r="E7" s="294" t="s">
         <v>218</v>
       </c>
-      <c r="F7" s="297"/>
+      <c r="F7" s="295"/>
       <c r="G7" s="111">
         <f>G4*G6</f>
         <v>132400000</v>
@@ -17381,6 +17509,7 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="144"/>
       <c r="C16" s="113" t="s">
         <v>139</v>
       </c>
@@ -17397,6 +17526,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" s="144"/>
       <c r="C17" s="113" t="s">
         <v>140</v>
       </c>
@@ -17494,14 +17624,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB52490-15A1-4F60-8EA0-27304E08D866}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17519,10 +17649,10 @@
   <sheetData>
     <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="F2" s="292" t="s">
+      <c r="F2" s="290" t="s">
         <v>422</v>
       </c>
-      <c r="G2" s="293"/>
+      <c r="G2" s="291"/>
       <c r="H2" s="108">
         <f>SUM(G10:G131)</f>
         <v>228</v>
@@ -17532,41 +17662,37 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="F3" s="294" t="s">
+      <c r="F3" s="292" t="s">
         <v>215</v>
       </c>
-      <c r="G3" s="295"/>
+      <c r="G3" s="293"/>
       <c r="H3" s="109">
         <f>SUM(I10:I233)</f>
-        <v>4856</v>
+        <v>4860</v>
       </c>
       <c r="I3" s="104" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="F4" s="294" t="s">
+      <c r="F4" s="292" t="s">
         <v>216</v>
       </c>
-      <c r="G4" s="295"/>
+      <c r="G4" s="293"/>
       <c r="H4" s="109">
         <f>H3/20</f>
-        <v>242.8</v>
+        <v>243</v>
       </c>
       <c r="I4" s="104" t="s">
         <v>221</v>
       </c>
-      <c r="J4">
-        <f>H4-人月表!C13-人月表!C25-人月表!C26-人月表!C27-人月表!C28-人月表!C29-人月表!C30-人月表!C31-人月表!C32</f>
-        <v>-13.699999999999989</v>
-      </c>
       <c r="K4" s="145"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="F5" s="294" t="s">
+      <c r="F5" s="292" t="s">
         <v>438</v>
       </c>
-      <c r="G5" s="298"/>
+      <c r="G5" s="296"/>
       <c r="H5" s="109">
         <f>CEILING(H4/36, 1)</f>
         <v>7</v>
@@ -17576,10 +17702,10 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="F6" s="294" t="s">
+      <c r="F6" s="292" t="s">
         <v>217</v>
       </c>
-      <c r="G6" s="295"/>
+      <c r="G6" s="293"/>
       <c r="H6" s="110">
         <v>800000</v>
       </c>
@@ -17588,13 +17714,13 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F7" s="296" t="s">
+      <c r="F7" s="294" t="s">
         <v>218</v>
       </c>
-      <c r="G7" s="297"/>
+      <c r="G7" s="295"/>
       <c r="H7" s="111">
         <f>H4*H6</f>
-        <v>194240000</v>
+        <v>194400000</v>
       </c>
       <c r="I7" s="105" t="s">
         <v>222</v>
@@ -17602,10 +17728,10 @@
     </row>
     <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="305" t="s">
+      <c r="C9" s="309" t="s">
         <v>318</v>
       </c>
-      <c r="D9" s="306"/>
+      <c r="D9" s="310"/>
       <c r="E9" s="130"/>
       <c r="F9" s="126" t="s">
         <v>197</v>
@@ -17622,11 +17748,11 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="144"/>
-      <c r="C10" s="308" t="s">
+      <c r="C10" s="298" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="309"/>
-      <c r="E10" s="245" t="s">
+      <c r="D10" s="299"/>
+      <c r="E10" s="243" t="s">
         <v>467</v>
       </c>
       <c r="F10" s="123" t="s">
@@ -17645,11 +17771,11 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="144"/>
-      <c r="C11" s="299" t="s">
+      <c r="C11" s="305" t="s">
         <v>423</v>
       </c>
-      <c r="D11" s="300"/>
-      <c r="E11" s="246" t="s">
+      <c r="D11" s="306"/>
+      <c r="E11" s="244" t="s">
         <v>467</v>
       </c>
       <c r="F11" s="123" t="s">
@@ -17668,7 +17794,7 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="144"/>
-      <c r="C12" s="301" t="s">
+      <c r="C12" s="297" t="s">
         <v>253</v>
       </c>
       <c r="D12" s="146" t="s">
@@ -17693,7 +17819,7 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" s="144"/>
-      <c r="C13" s="301"/>
+      <c r="C13" s="297"/>
       <c r="D13" s="150" t="s">
         <v>254</v>
       </c>
@@ -17714,29 +17840,29 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" s="145"/>
-      <c r="C14" s="301"/>
-      <c r="D14" s="196" t="s">
+      <c r="C14" s="297"/>
+      <c r="D14" s="195" t="s">
         <v>255</v>
       </c>
-      <c r="E14" s="196" t="s">
+      <c r="E14" s="195" t="s">
         <v>460</v>
       </c>
-      <c r="F14" s="196"/>
-      <c r="G14" s="196">
+      <c r="F14" s="195"/>
+      <c r="G14" s="195">
         <f>物量試算!G6</f>
         <v>1</v>
       </c>
-      <c r="H14" s="196">
+      <c r="H14" s="195">
         <v>120</v>
       </c>
-      <c r="I14" s="197">
+      <c r="I14" s="196">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="144"/>
-      <c r="C15" s="301" t="s">
+      <c r="C15" s="297" t="s">
         <v>266</v>
       </c>
       <c r="D15" s="153" t="s">
@@ -17759,7 +17885,7 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="144"/>
-      <c r="C16" s="301"/>
+      <c r="C16" s="297"/>
       <c r="D16" s="156" t="s">
         <v>268</v>
       </c>
@@ -17779,28 +17905,28 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C17" s="301"/>
-      <c r="D17" s="248" t="s">
+      <c r="C17" s="297"/>
+      <c r="D17" s="246" t="s">
         <v>269</v>
       </c>
-      <c r="E17" s="248" t="s">
+      <c r="E17" s="246" t="s">
         <v>460</v>
       </c>
-      <c r="F17" s="248"/>
-      <c r="G17" s="248">
-        <v>1</v>
-      </c>
-      <c r="H17" s="248">
+      <c r="F17" s="246"/>
+      <c r="G17" s="246">
+        <v>1</v>
+      </c>
+      <c r="H17" s="246">
         <v>60</v>
       </c>
-      <c r="I17" s="249">
+      <c r="I17" s="247">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="144"/>
-      <c r="C18" s="301" t="s">
+      <c r="C18" s="297" t="s">
         <v>258</v>
       </c>
       <c r="D18" s="159" t="s">
@@ -17823,7 +17949,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="144"/>
-      <c r="C19" s="301"/>
+      <c r="C19" s="297"/>
       <c r="D19" s="159" t="s">
         <v>260</v>
       </c>
@@ -17845,7 +17971,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="144"/>
-      <c r="C20" s="301" t="s">
+      <c r="C20" s="297" t="s">
         <v>292</v>
       </c>
       <c r="D20" s="182" t="s">
@@ -17868,7 +17994,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="144"/>
-      <c r="C21" s="301"/>
+      <c r="C21" s="297"/>
       <c r="D21" s="182" t="s">
         <v>293</v>
       </c>
@@ -17889,7 +18015,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="144"/>
-      <c r="C22" s="301"/>
+      <c r="C22" s="297"/>
       <c r="D22" s="182" t="s">
         <v>295</v>
       </c>
@@ -17910,7 +18036,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="144"/>
-      <c r="C23" s="301"/>
+      <c r="C23" s="297"/>
       <c r="D23" s="182" t="s">
         <v>296</v>
       </c>
@@ -17930,7 +18056,7 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C24" s="301" t="s">
+      <c r="C24" s="297" t="s">
         <v>231</v>
       </c>
       <c r="D24" s="169" t="s">
@@ -17953,7 +18079,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C25" s="301"/>
+      <c r="C25" s="297"/>
       <c r="D25" s="169" t="s">
         <v>229</v>
       </c>
@@ -17973,7 +18099,7 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C26" s="301"/>
+      <c r="C26" s="297"/>
       <c r="D26" s="169" t="s">
         <v>230</v>
       </c>
@@ -17993,47 +18119,47 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C27" s="301"/>
-      <c r="D27" s="207" t="s">
+      <c r="C27" s="297"/>
+      <c r="D27" s="206" t="s">
         <v>232</v>
       </c>
-      <c r="E27" s="207" t="s">
+      <c r="E27" s="206" t="s">
         <v>459</v>
       </c>
-      <c r="F27" s="207"/>
-      <c r="G27" s="207">
-        <v>1</v>
-      </c>
-      <c r="H27" s="207">
+      <c r="F27" s="206"/>
+      <c r="G27" s="206">
+        <v>1</v>
+      </c>
+      <c r="H27" s="206">
         <v>20</v>
       </c>
-      <c r="I27" s="208">
+      <c r="I27" s="207">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C28" s="301"/>
-      <c r="D28" s="236" t="s">
+      <c r="C28" s="297"/>
+      <c r="D28" s="234" t="s">
         <v>233</v>
       </c>
-      <c r="E28" s="236" t="s">
+      <c r="E28" s="234" t="s">
         <v>459</v>
       </c>
-      <c r="F28" s="236"/>
-      <c r="G28" s="236">
-        <v>1</v>
-      </c>
-      <c r="H28" s="236">
+      <c r="F28" s="234"/>
+      <c r="G28" s="234">
+        <v>1</v>
+      </c>
+      <c r="H28" s="234">
         <v>60</v>
       </c>
-      <c r="I28" s="237">
+      <c r="I28" s="235">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C29" s="301" t="s">
+      <c r="C29" s="297" t="s">
         <v>234</v>
       </c>
       <c r="D29" s="117" t="s">
@@ -18055,7 +18181,7 @@
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C30" s="301"/>
+      <c r="C30" s="297"/>
       <c r="D30" s="117" t="s">
         <v>236</v>
       </c>
@@ -18075,27 +18201,27 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C31" s="301"/>
-      <c r="D31" s="251" t="s">
+      <c r="C31" s="297"/>
+      <c r="D31" s="249" t="s">
         <v>237</v>
       </c>
-      <c r="E31" s="251" t="s">
+      <c r="E31" s="249" t="s">
         <v>460</v>
       </c>
-      <c r="F31" s="251"/>
-      <c r="G31" s="251">
-        <v>1</v>
-      </c>
-      <c r="H31" s="251">
+      <c r="F31" s="249"/>
+      <c r="G31" s="249">
+        <v>1</v>
+      </c>
+      <c r="H31" s="249">
         <v>40</v>
       </c>
-      <c r="I31" s="252">
+      <c r="I31" s="250">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C32" s="301"/>
+      <c r="C32" s="297"/>
       <c r="D32" s="117" t="s">
         <v>341</v>
       </c>
@@ -18116,7 +18242,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C33" s="301" t="s">
+      <c r="C33" s="297" t="s">
         <v>264</v>
       </c>
       <c r="D33" s="114" t="s">
@@ -18138,7 +18264,7 @@
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C34" s="301"/>
+      <c r="C34" s="297"/>
       <c r="D34" s="114" t="s">
         <v>265</v>
       </c>
@@ -18158,50 +18284,50 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C35" s="301" t="s">
+      <c r="C35" s="297" t="s">
         <v>243</v>
       </c>
-      <c r="D35" s="302"/>
-      <c r="E35" s="195" t="s">
+      <c r="D35" s="300"/>
+      <c r="E35" s="194" t="s">
         <v>461</v>
       </c>
-      <c r="F35" s="195"/>
-      <c r="G35" s="196">
-        <v>1</v>
-      </c>
-      <c r="H35" s="196">
+      <c r="F35" s="194"/>
+      <c r="G35" s="195">
+        <v>1</v>
+      </c>
+      <c r="H35" s="195">
         <v>60</v>
       </c>
-      <c r="I35" s="197">
+      <c r="I35" s="196">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C36" s="307" t="s">
+      <c r="C36" s="303" t="s">
         <v>244</v>
       </c>
-      <c r="D36" s="302"/>
-      <c r="E36" s="195" t="s">
+      <c r="D36" s="300"/>
+      <c r="E36" s="194" t="s">
         <v>461</v>
       </c>
-      <c r="F36" s="195"/>
-      <c r="G36" s="196">
-        <v>1</v>
-      </c>
-      <c r="H36" s="196">
+      <c r="F36" s="194"/>
+      <c r="G36" s="195">
+        <v>1</v>
+      </c>
+      <c r="H36" s="195">
         <v>40</v>
       </c>
-      <c r="I36" s="197">
+      <c r="I36" s="196">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C37" s="301" t="s">
+      <c r="C37" s="297" t="s">
         <v>238</v>
       </c>
-      <c r="D37" s="302"/>
+      <c r="D37" s="300"/>
       <c r="E37" s="176" t="s">
         <v>470</v>
       </c>
@@ -18219,10 +18345,10 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C38" s="301" t="s">
+      <c r="C38" s="297" t="s">
         <v>239</v>
       </c>
-      <c r="D38" s="302"/>
+      <c r="D38" s="300"/>
       <c r="E38" s="176" t="s">
         <v>470</v>
       </c>
@@ -18241,7 +18367,7 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B39" s="144"/>
-      <c r="C39" s="301" t="s">
+      <c r="C39" s="297" t="s">
         <v>256</v>
       </c>
       <c r="D39" s="163" t="s">
@@ -18265,7 +18391,7 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B40" s="144"/>
-      <c r="C40" s="301"/>
+      <c r="C40" s="297"/>
       <c r="D40" s="165" t="s">
         <v>257</v>
       </c>
@@ -18285,7 +18411,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C41" s="301"/>
+      <c r="C41" s="297"/>
       <c r="D41" s="153" t="s">
         <v>273</v>
       </c>
@@ -18306,30 +18432,30 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C42" s="307" t="s">
+      <c r="C42" s="303" t="s">
         <v>270</v>
       </c>
-      <c r="D42" s="224" t="s">
+      <c r="D42" s="223" t="s">
         <v>271</v>
       </c>
-      <c r="E42" s="224" t="s">
+      <c r="E42" s="223" t="s">
         <v>463</v>
       </c>
-      <c r="F42" s="224"/>
-      <c r="G42" s="224">
+      <c r="F42" s="223"/>
+      <c r="G42" s="223">
         <f>物量試算!G9</f>
         <v>20</v>
       </c>
-      <c r="H42" s="224">
+      <c r="H42" s="223">
         <v>10</v>
       </c>
-      <c r="I42" s="225">
+      <c r="I42" s="224">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C43" s="301"/>
+      <c r="C43" s="297"/>
       <c r="D43" s="146" t="s">
         <v>272</v>
       </c>
@@ -18349,22 +18475,22 @@
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C44" s="301"/>
+      <c r="C44" s="297"/>
       <c r="D44" s="117" t="s">
         <v>274</v>
       </c>
-      <c r="E44" s="257" t="s">
+      <c r="E44" s="255" t="s">
         <v>468</v>
       </c>
-      <c r="F44" s="257"/>
-      <c r="G44" s="257">
+      <c r="F44" s="255"/>
+      <c r="G44" s="255">
         <f>物量試算!G9</f>
         <v>20</v>
       </c>
-      <c r="H44" s="257">
+      <c r="H44" s="255">
         <v>10</v>
       </c>
-      <c r="I44" s="258">
+      <c r="I44" s="256">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
@@ -18374,34 +18500,34 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C45" s="301" t="s">
+      <c r="C45" s="297" t="s">
         <v>241</v>
       </c>
-      <c r="D45" s="302"/>
-      <c r="E45" s="239" t="s">
+      <c r="D45" s="300"/>
+      <c r="E45" s="237" t="s">
         <v>460</v>
       </c>
-      <c r="F45" s="239"/>
-      <c r="G45" s="240">
-        <v>1</v>
-      </c>
-      <c r="H45" s="240">
+      <c r="F45" s="237"/>
+      <c r="G45" s="238">
+        <v>1</v>
+      </c>
+      <c r="H45" s="238">
         <v>20</v>
       </c>
-      <c r="I45" s="241">
+      <c r="I45" s="239">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C46" s="301" t="s">
+      <c r="C46" s="297" t="s">
         <v>245</v>
       </c>
-      <c r="D46" s="302"/>
-      <c r="E46" s="261" t="s">
+      <c r="D46" s="300"/>
+      <c r="E46" s="259" t="s">
         <v>461</v>
       </c>
-      <c r="F46" s="261"/>
+      <c r="F46" s="259"/>
       <c r="G46" s="165">
         <v>1</v>
       </c>
@@ -18414,30 +18540,30 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C47" s="307" t="s">
+      <c r="C47" s="303" t="s">
         <v>246</v>
       </c>
       <c r="D47" s="114" t="s">
         <v>247</v>
       </c>
-      <c r="E47" s="243" t="s">
+      <c r="E47" s="241" t="s">
         <v>462</v>
       </c>
-      <c r="F47" s="243"/>
-      <c r="G47" s="243">
+      <c r="F47" s="241"/>
+      <c r="G47" s="241">
         <f>物量試算!G13</f>
         <v>2</v>
       </c>
-      <c r="H47" s="243">
+      <c r="H47" s="241">
         <v>20</v>
       </c>
-      <c r="I47" s="244">
+      <c r="I47" s="242">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C48" s="301"/>
+      <c r="C48" s="297"/>
       <c r="D48" s="114" t="s">
         <v>248</v>
       </c>
@@ -18457,52 +18583,52 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C49" s="301"/>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C49" s="297"/>
       <c r="D49" s="114" t="s">
         <v>249</v>
       </c>
-      <c r="E49" s="248" t="s">
+      <c r="E49" s="246" t="s">
         <v>462</v>
       </c>
-      <c r="F49" s="248"/>
-      <c r="G49" s="248">
+      <c r="F49" s="246"/>
+      <c r="G49" s="246">
         <f>物量試算!G13</f>
         <v>2</v>
       </c>
-      <c r="H49" s="248">
+      <c r="H49" s="246">
         <v>40</v>
       </c>
-      <c r="I49" s="249">
+      <c r="I49" s="247">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C50" s="301"/>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C50" s="297"/>
       <c r="D50" s="114" t="s">
         <v>250</v>
       </c>
-      <c r="E50" s="254" t="s">
+      <c r="E50" s="252" t="s">
         <v>462</v>
       </c>
-      <c r="F50" s="254"/>
-      <c r="G50" s="254">
-        <v>1</v>
-      </c>
-      <c r="H50" s="254">
+      <c r="F50" s="252"/>
+      <c r="G50" s="252">
+        <v>1</v>
+      </c>
+      <c r="H50" s="252">
         <v>40</v>
       </c>
-      <c r="I50" s="255">
+      <c r="I50" s="253">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C51" s="301" t="s">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C51" s="297" t="s">
         <v>308</v>
       </c>
-      <c r="D51" s="302"/>
+      <c r="D51" s="300"/>
       <c r="E51" s="168" t="s">
         <v>459</v>
       </c>
@@ -18518,32 +18644,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C52" s="301" t="s">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C52" s="297" t="s">
         <v>297</v>
       </c>
-      <c r="D52" s="302"/>
-      <c r="E52" s="223" t="s">
+      <c r="D52" s="300"/>
+      <c r="E52" s="222" t="s">
         <v>460</v>
       </c>
-      <c r="F52" s="223"/>
-      <c r="G52" s="224">
-        <v>1</v>
-      </c>
-      <c r="H52" s="224">
+      <c r="F52" s="222"/>
+      <c r="G52" s="223">
+        <v>1</v>
+      </c>
+      <c r="H52" s="223">
         <v>40</v>
       </c>
-      <c r="I52" s="225">
+      <c r="I52" s="224">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53" s="144"/>
-      <c r="C53" s="301" t="s">
+      <c r="C53" s="297" t="s">
         <v>298</v>
       </c>
-      <c r="D53" s="302"/>
+      <c r="D53" s="300"/>
       <c r="E53" s="129" t="s">
         <v>460</v>
       </c>
@@ -18559,12 +18685,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B54" s="144"/>
-      <c r="C54" s="307" t="s">
+      <c r="C54" s="303" t="s">
         <v>275</v>
       </c>
-      <c r="D54" s="312"/>
+      <c r="D54" s="304"/>
       <c r="E54" s="190" t="s">
         <v>461</v>
       </c>
@@ -18580,11 +18706,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C55" s="301" t="s">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C55" s="297" t="s">
         <v>276</v>
       </c>
-      <c r="D55" s="302"/>
+      <c r="D55" s="300"/>
       <c r="E55" s="129" t="s">
         <v>461</v>
       </c>
@@ -18600,31 +18726,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C56" s="301" t="s">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C56" s="297" t="s">
         <v>277</v>
       </c>
-      <c r="D56" s="302"/>
+      <c r="D56" s="300"/>
       <c r="E56" s="129" t="s">
-        <v>461</v>
-      </c>
-      <c r="F56" s="195"/>
-      <c r="G56" s="196">
-        <v>1</v>
-      </c>
-      <c r="H56" s="196">
+        <v>474</v>
+      </c>
+      <c r="F56" s="194"/>
+      <c r="G56" s="195">
+        <v>1</v>
+      </c>
+      <c r="H56" s="195">
         <v>20</v>
       </c>
-      <c r="I56" s="197">
+      <c r="I56" s="196">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C57" s="301" t="s">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C57" s="297" t="s">
         <v>278</v>
       </c>
-      <c r="D57" s="302"/>
+      <c r="D57" s="300"/>
       <c r="E57" s="129" t="s">
         <v>459</v>
       </c>
@@ -18640,15 +18766,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C58" s="301" t="s">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C58" s="297" t="s">
         <v>279</v>
       </c>
-      <c r="D58" s="302"/>
-      <c r="E58" s="227" t="s">
+      <c r="D58" s="300"/>
+      <c r="E58" s="226" t="s">
         <v>461</v>
       </c>
-      <c r="F58" s="227"/>
+      <c r="F58" s="226"/>
       <c r="G58" s="163">
         <v>1</v>
       </c>
@@ -18660,8 +18786,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C59" s="301" t="s">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C59" s="297" t="s">
         <v>280</v>
       </c>
       <c r="D59" s="114" t="s">
@@ -18675,19 +18801,15 @@
         <v>1</v>
       </c>
       <c r="H59" s="146">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I59" s="147">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="J59">
-        <f>SUM(I59:I63)/20</f>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C60" s="301"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C60" s="297"/>
       <c r="D60" s="114" t="s">
         <v>304</v>
       </c>
@@ -18699,15 +18821,15 @@
         <v>1</v>
       </c>
       <c r="H60" s="146">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I60" s="147">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C61" s="301"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C61" s="297"/>
       <c r="D61" s="114" t="s">
         <v>305</v>
       </c>
@@ -18726,8 +18848,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C62" s="301"/>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C62" s="297"/>
       <c r="D62" s="114" t="s">
         <v>306</v>
       </c>
@@ -18746,8 +18868,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C63" s="301"/>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C63" s="297"/>
       <c r="D63" s="114" t="s">
         <v>307</v>
       </c>
@@ -18766,52 +18888,52 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C64" s="301" t="s">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C64" s="297" t="s">
         <v>281</v>
       </c>
-      <c r="D64" s="302"/>
+      <c r="D64" s="300"/>
       <c r="E64" s="114" t="s">
         <v>461</v>
       </c>
-      <c r="F64" s="199"/>
-      <c r="G64" s="200">
-        <v>1</v>
-      </c>
-      <c r="H64" s="200">
+      <c r="F64" s="198"/>
+      <c r="G64" s="199">
+        <v>1</v>
+      </c>
+      <c r="H64" s="199">
         <v>20</v>
       </c>
-      <c r="I64" s="201">
+      <c r="I64" s="200">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C65" s="301" t="s">
+      <c r="C65" s="297" t="s">
         <v>282</v>
       </c>
-      <c r="D65" s="302"/>
+      <c r="D65" s="300"/>
       <c r="E65" s="114" t="s">
         <v>461</v>
       </c>
-      <c r="F65" s="203"/>
-      <c r="G65" s="204">
-        <v>1</v>
-      </c>
-      <c r="H65" s="204">
+      <c r="F65" s="202"/>
+      <c r="G65" s="203">
+        <v>1</v>
+      </c>
+      <c r="H65" s="203">
         <v>20</v>
       </c>
-      <c r="I65" s="205">
+      <c r="I65" s="204">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B66" s="144"/>
-      <c r="C66" s="310" t="s">
+      <c r="C66" s="301" t="s">
         <v>283</v>
       </c>
-      <c r="D66" s="311"/>
+      <c r="D66" s="302"/>
       <c r="E66" s="168" t="s">
         <v>459</v>
       </c>
@@ -18828,70 +18950,70 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C67" s="301" t="s">
+      <c r="C67" s="297" t="s">
         <v>284</v>
       </c>
-      <c r="D67" s="302"/>
-      <c r="E67" s="232" t="s">
+      <c r="D67" s="300"/>
+      <c r="E67" s="230" t="s">
         <v>459</v>
       </c>
-      <c r="F67" s="232"/>
-      <c r="G67" s="233">
-        <v>1</v>
-      </c>
-      <c r="H67" s="233">
+      <c r="F67" s="230"/>
+      <c r="G67" s="231">
+        <v>1</v>
+      </c>
+      <c r="H67" s="231">
         <v>20</v>
       </c>
-      <c r="I67" s="234">
+      <c r="I67" s="232">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C68" s="301" t="s">
+      <c r="C68" s="297" t="s">
         <v>285</v>
       </c>
-      <c r="D68" s="302"/>
-      <c r="E68" s="223" t="s">
+      <c r="D68" s="300"/>
+      <c r="E68" s="222" t="s">
         <v>461</v>
       </c>
-      <c r="F68" s="223"/>
-      <c r="G68" s="224">
-        <v>1</v>
-      </c>
-      <c r="H68" s="224">
+      <c r="F68" s="222"/>
+      <c r="G68" s="223">
+        <v>1</v>
+      </c>
+      <c r="H68" s="223">
         <v>20</v>
       </c>
-      <c r="I68" s="225">
+      <c r="I68" s="224">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C69" s="301" t="s">
+      <c r="C69" s="297" t="s">
         <v>286</v>
       </c>
-      <c r="D69" s="302"/>
-      <c r="E69" s="209" t="s">
+      <c r="D69" s="300"/>
+      <c r="E69" s="208" t="s">
         <v>459</v>
       </c>
-      <c r="F69" s="209"/>
-      <c r="G69" s="207">
-        <v>1</v>
-      </c>
-      <c r="H69" s="207">
+      <c r="F69" s="208"/>
+      <c r="G69" s="206">
+        <v>1</v>
+      </c>
+      <c r="H69" s="206">
         <v>30</v>
       </c>
-      <c r="I69" s="208">
+      <c r="I69" s="207">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C70" s="301" t="s">
+      <c r="C70" s="297" t="s">
         <v>287</v>
       </c>
-      <c r="D70" s="302"/>
+      <c r="D70" s="300"/>
       <c r="E70" s="172" t="s">
         <v>461</v>
       </c>
@@ -18908,10 +19030,10 @@
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C71" s="301" t="s">
+      <c r="C71" s="297" t="s">
         <v>288</v>
       </c>
-      <c r="D71" s="302"/>
+      <c r="D71" s="300"/>
       <c r="E71" s="129" t="s">
         <v>459</v>
       </c>
@@ -18928,107 +19050,141 @@
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C72" s="301" t="s">
+      <c r="C72" s="297" t="s">
         <v>289</v>
       </c>
-      <c r="D72" s="302"/>
-      <c r="E72" s="223" t="s">
+      <c r="D72" s="300"/>
+      <c r="E72" s="222" t="s">
         <v>459</v>
       </c>
-      <c r="F72" s="223"/>
-      <c r="G72" s="224">
-        <v>1</v>
-      </c>
-      <c r="H72" s="224">
+      <c r="F72" s="222"/>
+      <c r="G72" s="223">
+        <v>1</v>
+      </c>
+      <c r="H72" s="223">
         <v>40</v>
       </c>
-      <c r="I72" s="225">
+      <c r="I72" s="224">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C73" s="301" t="s">
+      <c r="C73" s="297" t="s">
         <v>290</v>
       </c>
-      <c r="D73" s="302"/>
-      <c r="E73" s="219" t="s">
+      <c r="D73" s="300"/>
+      <c r="E73" s="218" t="s">
         <v>459</v>
       </c>
-      <c r="F73" s="219"/>
-      <c r="G73" s="220">
-        <v>1</v>
-      </c>
-      <c r="H73" s="220">
+      <c r="F73" s="218"/>
+      <c r="G73" s="219">
+        <v>1</v>
+      </c>
+      <c r="H73" s="219">
         <v>20</v>
       </c>
-      <c r="I73" s="221">
+      <c r="I73" s="220">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C74" s="301" t="s">
+      <c r="C74" s="297" t="s">
         <v>291</v>
       </c>
-      <c r="D74" s="302"/>
-      <c r="E74" s="228" t="s">
+      <c r="D74" s="300"/>
+      <c r="E74" s="227" t="s">
         <v>461</v>
       </c>
-      <c r="F74" s="228"/>
-      <c r="G74" s="229">
-        <v>1</v>
-      </c>
-      <c r="H74" s="229">
+      <c r="F74" s="227"/>
+      <c r="G74" s="228">
+        <v>1</v>
+      </c>
+      <c r="H74" s="228">
         <v>10</v>
       </c>
-      <c r="I74" s="230">
+      <c r="I74" s="229">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C75" s="301" t="s">
+      <c r="C75" s="297" t="s">
         <v>323</v>
       </c>
-      <c r="D75" s="302"/>
-      <c r="E75" s="211" t="s">
+      <c r="D75" s="300"/>
+      <c r="E75" s="210" t="s">
         <v>459</v>
       </c>
-      <c r="F75" s="212"/>
-      <c r="G75" s="212">
-        <v>1</v>
-      </c>
-      <c r="H75" s="212">
+      <c r="F75" s="211"/>
+      <c r="G75" s="211">
+        <v>1</v>
+      </c>
+      <c r="H75" s="211">
         <v>60</v>
       </c>
-      <c r="I75" s="213">
+      <c r="I75" s="212">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C76" s="303" t="s">
+      <c r="C76" s="307" t="s">
         <v>324</v>
       </c>
-      <c r="D76" s="304"/>
-      <c r="E76" s="215" t="s">
+      <c r="D76" s="308"/>
+      <c r="E76" s="214" t="s">
         <v>459</v>
       </c>
-      <c r="F76" s="216"/>
-      <c r="G76" s="216">
+      <c r="F76" s="215"/>
+      <c r="G76" s="215">
         <v>3</v>
       </c>
-      <c r="H76" s="216">
+      <c r="H76" s="215">
         <v>30</v>
       </c>
-      <c r="I76" s="217">
+      <c r="I76" s="216">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C9:J76">
+    <filterColumn colId="0" showButton="0"/>
+  </autoFilter>
   <mergeCells count="47">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="C64:D64"/>
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C65:D65"/>
@@ -19045,37 +19201,6 @@
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="C24:C28"/>
     <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19083,7 +19208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9262C68-27CE-44FF-AC9E-9300FE5BBC38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19174,10 +19299,10 @@
     </row>
     <row r="8" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="305" t="s">
+      <c r="C9" s="309" t="s">
         <v>318</v>
       </c>
-      <c r="D9" s="313"/>
+      <c r="D9" s="311"/>
       <c r="E9" s="126" t="s">
         <v>197</v>
       </c>
@@ -19193,10 +19318,10 @@
       <c r="I9" s="99"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C10" s="314" t="s">
+      <c r="C10" s="312" t="s">
         <v>325</v>
       </c>
-      <c r="D10" s="315"/>
+      <c r="D10" s="313"/>
       <c r="E10" s="123" t="s">
         <v>326</v>
       </c>
@@ -19212,10 +19337,10 @@
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C11" s="301" t="s">
+      <c r="C11" s="297" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="302"/>
+      <c r="D11" s="300"/>
       <c r="E11" s="114"/>
       <c r="F11" s="114">
         <v>1</v>
@@ -19229,10 +19354,10 @@
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C12" s="301" t="s">
+      <c r="C12" s="297" t="s">
         <v>256</v>
       </c>
-      <c r="D12" s="302"/>
+      <c r="D12" s="300"/>
       <c r="E12" s="114"/>
       <c r="F12" s="114">
         <f>物量試算!G8</f>
@@ -19247,10 +19372,10 @@
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C13" s="301" t="s">
+      <c r="C13" s="297" t="s">
         <v>270</v>
       </c>
-      <c r="D13" s="302"/>
+      <c r="D13" s="300"/>
       <c r="E13" s="131"/>
       <c r="F13" s="114">
         <f>物量試算!G9</f>
@@ -19265,10 +19390,10 @@
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C14" s="301" t="s">
+      <c r="C14" s="297" t="s">
         <v>192</v>
       </c>
-      <c r="D14" s="302"/>
+      <c r="D14" s="300"/>
       <c r="E14" s="131"/>
       <c r="F14" s="114">
         <f>物量試算!G10</f>
@@ -19283,10 +19408,10 @@
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C15" s="301" t="s">
+      <c r="C15" s="297" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="302"/>
+      <c r="D15" s="300"/>
       <c r="E15" s="114"/>
       <c r="F15" s="114">
         <f>物量試算!G11</f>
@@ -19301,10 +19426,10 @@
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C16" s="301" t="s">
+      <c r="C16" s="297" t="s">
         <v>194</v>
       </c>
-      <c r="D16" s="302"/>
+      <c r="D16" s="300"/>
       <c r="E16" s="114"/>
       <c r="F16" s="114">
         <f>物量試算!G12</f>
@@ -19319,10 +19444,10 @@
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="303" t="s">
+      <c r="C17" s="307" t="s">
         <v>327</v>
       </c>
-      <c r="D17" s="304"/>
+      <c r="D17" s="308"/>
       <c r="E17" s="119"/>
       <c r="F17" s="119">
         <f>物量試算!G16</f>
